--- a/data/raw/election/voters-age-sex-education/2023/Antalya.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Antalya.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:23:53-30384536873" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="48">
   <si>
     <t>Antalya</t>
   </si>
@@ -158,6 +157,12 @@
   </si>
   <si>
     <t>Serik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -691,7 +696,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -711,10 +716,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1039,10 +1053,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N498"/>
+  <dimension ref="A1:N500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="A499" sqref="A499:A500"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,24 +1072,24 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2109,8 +2123,8 @@
       <c r="D30" s="5">
         <v>596</v>
       </c>
-      <c r="E30" s="5">
-        <v>3.9079999999999999</v>
+      <c r="E30" s="7">
+        <v>3908</v>
       </c>
       <c r="F30" s="5">
         <v>571</v>
@@ -2118,11 +2132,11 @@
       <c r="G30" s="5">
         <v>816</v>
       </c>
-      <c r="H30" s="5">
-        <v>1.746</v>
-      </c>
-      <c r="I30" s="5">
-        <v>1.248</v>
+      <c r="H30" s="7">
+        <v>1746</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1248</v>
       </c>
       <c r="J30" s="5">
         <v>109</v>
@@ -2133,8 +2147,8 @@
       <c r="L30" s="5">
         <v>74</v>
       </c>
-      <c r="M30" s="5">
-        <v>9.1289999999999996</v>
+      <c r="M30" s="7">
+        <v>9129</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2195,11 +2209,11 @@
       <c r="F32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="4">
-        <v>1.4610000000000001</v>
-      </c>
-      <c r="H32" s="4">
-        <v>2.4540000000000002</v>
+      <c r="G32" s="9">
+        <v>1461</v>
+      </c>
+      <c r="H32" s="9">
+        <v>2454</v>
       </c>
       <c r="I32" s="4">
         <v>408</v>
@@ -2213,8 +2227,8 @@
       <c r="L32" s="4">
         <v>48</v>
       </c>
-      <c r="M32" s="5">
-        <v>4.4130000000000003</v>
+      <c r="M32" s="7">
+        <v>4413</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2237,8 +2251,8 @@
       <c r="G33" s="4">
         <v>902</v>
       </c>
-      <c r="H33" s="4">
-        <v>2.2610000000000001</v>
+      <c r="H33" s="9">
+        <v>2261</v>
       </c>
       <c r="I33" s="4">
         <v>731</v>
@@ -2252,8 +2266,8 @@
       <c r="L33" s="4">
         <v>28</v>
       </c>
-      <c r="M33" s="5">
-        <v>3.988</v>
+      <c r="M33" s="7">
+        <v>3988</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2275,11 +2289,11 @@
       <c r="F34" s="4">
         <v>33</v>
       </c>
-      <c r="G34" s="4">
-        <v>1.0109999999999999</v>
-      </c>
-      <c r="H34" s="4">
-        <v>1.0109999999999999</v>
+      <c r="G34" s="9">
+        <v>1011</v>
+      </c>
+      <c r="H34" s="9">
+        <v>1011</v>
       </c>
       <c r="I34" s="4">
         <v>801</v>
@@ -2293,8 +2307,8 @@
       <c r="L34" s="4">
         <v>16</v>
       </c>
-      <c r="M34" s="5">
-        <v>2.9420000000000002</v>
+      <c r="M34" s="7">
+        <v>2942</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2332,8 +2346,8 @@
       <c r="L35" s="4">
         <v>25</v>
       </c>
-      <c r="M35" s="5">
-        <v>2.7109999999999999</v>
+      <c r="M35" s="7">
+        <v>2711</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2373,8 +2387,8 @@
       <c r="L36" s="4">
         <v>32</v>
       </c>
-      <c r="M36" s="5">
-        <v>2.8210000000000002</v>
+      <c r="M36" s="7">
+        <v>2821</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2412,8 +2426,8 @@
       <c r="L37" s="4">
         <v>35</v>
       </c>
-      <c r="M37" s="5">
-        <v>2.4870000000000001</v>
+      <c r="M37" s="7">
+        <v>2487</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2453,8 +2467,8 @@
       <c r="L38" s="4">
         <v>41</v>
       </c>
-      <c r="M38" s="5">
-        <v>2.8029999999999999</v>
+      <c r="M38" s="7">
+        <v>2803</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2492,8 +2506,8 @@
       <c r="L39" s="4">
         <v>57</v>
       </c>
-      <c r="M39" s="5">
-        <v>2.6240000000000001</v>
+      <c r="M39" s="7">
+        <v>2624</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2533,8 +2547,8 @@
       <c r="L40" s="4">
         <v>32</v>
       </c>
-      <c r="M40" s="5">
-        <v>3.13</v>
+      <c r="M40" s="7">
+        <v>3130</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2548,8 +2562,8 @@
       <c r="D41" s="4">
         <v>82</v>
       </c>
-      <c r="E41" s="4">
-        <v>1.101</v>
+      <c r="E41" s="9">
+        <v>1101</v>
       </c>
       <c r="F41" s="4">
         <v>301</v>
@@ -2572,8 +2586,8 @@
       <c r="L41" s="4">
         <v>47</v>
       </c>
-      <c r="M41" s="5">
-        <v>2.8820000000000001</v>
+      <c r="M41" s="7">
+        <v>2882</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2613,8 +2627,8 @@
       <c r="L42" s="4">
         <v>29</v>
       </c>
-      <c r="M42" s="5">
-        <v>2.9209999999999998</v>
+      <c r="M42" s="7">
+        <v>2921</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2628,8 +2642,8 @@
       <c r="D43" s="4">
         <v>82</v>
       </c>
-      <c r="E43" s="4">
-        <v>1.141</v>
+      <c r="E43" s="9">
+        <v>1141</v>
       </c>
       <c r="F43" s="4">
         <v>312</v>
@@ -2652,8 +2666,8 @@
       <c r="L43" s="4">
         <v>36</v>
       </c>
-      <c r="M43" s="5">
-        <v>2.528</v>
+      <c r="M43" s="7">
+        <v>2528</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2693,8 +2707,8 @@
       <c r="L44" s="4">
         <v>22</v>
       </c>
-      <c r="M44" s="5">
-        <v>2.6070000000000002</v>
+      <c r="M44" s="7">
+        <v>2607</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2708,8 +2722,8 @@
       <c r="D45" s="4">
         <v>106</v>
       </c>
-      <c r="E45" s="4">
-        <v>1.1910000000000001</v>
+      <c r="E45" s="9">
+        <v>1191</v>
       </c>
       <c r="F45" s="4">
         <v>326</v>
@@ -2732,8 +2746,8 @@
       <c r="L45" s="4">
         <v>21</v>
       </c>
-      <c r="M45" s="5">
-        <v>2.4039999999999999</v>
+      <c r="M45" s="7">
+        <v>2404</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2773,8 +2787,8 @@
       <c r="L46" s="4">
         <v>43</v>
       </c>
-      <c r="M46" s="5">
-        <v>2.3420000000000001</v>
+      <c r="M46" s="7">
+        <v>2342</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2788,8 +2802,8 @@
       <c r="D47" s="4">
         <v>159</v>
       </c>
-      <c r="E47" s="4">
-        <v>1.22</v>
+      <c r="E47" s="9">
+        <v>1220</v>
       </c>
       <c r="F47" s="4">
         <v>201</v>
@@ -2812,8 +2826,8 @@
       <c r="L47" s="4">
         <v>25</v>
       </c>
-      <c r="M47" s="5">
-        <v>2.1880000000000002</v>
+      <c r="M47" s="7">
+        <v>2188</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2853,8 +2867,8 @@
       <c r="L48" s="4">
         <v>33</v>
       </c>
-      <c r="M48" s="5">
-        <v>1.8839999999999999</v>
+      <c r="M48" s="7">
+        <v>1884</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2868,8 +2882,8 @@
       <c r="D49" s="4">
         <v>263</v>
       </c>
-      <c r="E49" s="4">
-        <v>1.071</v>
+      <c r="E49" s="9">
+        <v>1071</v>
       </c>
       <c r="F49" s="4">
         <v>80</v>
@@ -2892,8 +2906,8 @@
       <c r="L49" s="4">
         <v>19</v>
       </c>
-      <c r="M49" s="5">
-        <v>1.7789999999999999</v>
+      <c r="M49" s="7">
+        <v>1779</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2933,8 +2947,8 @@
       <c r="L50" s="4">
         <v>16</v>
       </c>
-      <c r="M50" s="5">
-        <v>1.325</v>
+      <c r="M50" s="7">
+        <v>1325</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2972,8 +2986,8 @@
       <c r="L51" s="4">
         <v>24</v>
       </c>
-      <c r="M51" s="5">
-        <v>1.333</v>
+      <c r="M51" s="7">
+        <v>1333</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3132,8 +3146,8 @@
       <c r="L55" s="4">
         <v>15</v>
       </c>
-      <c r="M55" s="5">
-        <v>1.127</v>
+      <c r="M55" s="7">
+        <v>1127</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3144,23 +3158,23 @@
       <c r="C56" s="5">
         <v>496</v>
       </c>
-      <c r="D56" s="5">
-        <v>2.6869999999999998</v>
-      </c>
-      <c r="E56" s="5">
-        <v>14.116</v>
-      </c>
-      <c r="F56" s="5">
-        <v>5.8090000000000002</v>
-      </c>
-      <c r="G56" s="5">
-        <v>9.09</v>
-      </c>
-      <c r="H56" s="5">
-        <v>14.73</v>
-      </c>
-      <c r="I56" s="5">
-        <v>7.4649999999999999</v>
+      <c r="D56" s="7">
+        <v>2687</v>
+      </c>
+      <c r="E56" s="7">
+        <v>14116</v>
+      </c>
+      <c r="F56" s="7">
+        <v>5809</v>
+      </c>
+      <c r="G56" s="7">
+        <v>9090</v>
+      </c>
+      <c r="H56" s="7">
+        <v>14730</v>
+      </c>
+      <c r="I56" s="7">
+        <v>7465</v>
       </c>
       <c r="J56" s="5">
         <v>565</v>
@@ -3171,8 +3185,8 @@
       <c r="L56" s="5">
         <v>683</v>
       </c>
-      <c r="M56" s="5">
-        <v>55.723999999999997</v>
+      <c r="M56" s="7">
+        <v>55724</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3233,14 +3247,14 @@
       <c r="F58" s="4">
         <v>2</v>
       </c>
-      <c r="G58" s="4">
-        <v>3.7490000000000001</v>
-      </c>
-      <c r="H58" s="4">
-        <v>10.275</v>
-      </c>
-      <c r="I58" s="4">
-        <v>1.9119999999999999</v>
+      <c r="G58" s="9">
+        <v>3749</v>
+      </c>
+      <c r="H58" s="9">
+        <v>10275</v>
+      </c>
+      <c r="I58" s="9">
+        <v>1912</v>
       </c>
       <c r="J58" s="4">
         <v>16</v>
@@ -3251,8 +3265,8 @@
       <c r="L58" s="4">
         <v>179</v>
       </c>
-      <c r="M58" s="5">
-        <v>16.231000000000002</v>
+      <c r="M58" s="7">
+        <v>16231</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3272,14 +3286,14 @@
       <c r="F59" s="4">
         <v>2</v>
       </c>
-      <c r="G59" s="4">
-        <v>2.246</v>
-      </c>
-      <c r="H59" s="4">
-        <v>9.7040000000000006</v>
-      </c>
-      <c r="I59" s="4">
-        <v>2.9350000000000001</v>
+      <c r="G59" s="9">
+        <v>2246</v>
+      </c>
+      <c r="H59" s="9">
+        <v>9704</v>
+      </c>
+      <c r="I59" s="9">
+        <v>2935</v>
       </c>
       <c r="J59" s="4">
         <v>23</v>
@@ -3290,8 +3304,8 @@
       <c r="L59" s="4">
         <v>108</v>
       </c>
-      <c r="M59" s="5">
-        <v>15.131</v>
+      <c r="M59" s="7">
+        <v>15131</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3313,14 +3327,14 @@
       <c r="F60" s="4">
         <v>72</v>
       </c>
-      <c r="G60" s="4">
-        <v>3.3029999999999999</v>
-      </c>
-      <c r="H60" s="4">
-        <v>3.8570000000000002</v>
-      </c>
-      <c r="I60" s="4">
-        <v>4.0890000000000004</v>
+      <c r="G60" s="9">
+        <v>3303</v>
+      </c>
+      <c r="H60" s="9">
+        <v>3857</v>
+      </c>
+      <c r="I60" s="9">
+        <v>4089</v>
       </c>
       <c r="J60" s="4">
         <v>257</v>
@@ -3331,8 +3345,8 @@
       <c r="L60" s="4">
         <v>113</v>
       </c>
-      <c r="M60" s="5">
-        <v>11.766999999999999</v>
+      <c r="M60" s="7">
+        <v>11767</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3352,14 +3366,14 @@
       <c r="F61" s="4">
         <v>81</v>
       </c>
-      <c r="G61" s="4">
-        <v>2.2349999999999999</v>
-      </c>
-      <c r="H61" s="4">
-        <v>2.891</v>
-      </c>
-      <c r="I61" s="4">
-        <v>4.79</v>
+      <c r="G61" s="9">
+        <v>2235</v>
+      </c>
+      <c r="H61" s="9">
+        <v>2891</v>
+      </c>
+      <c r="I61" s="9">
+        <v>4790</v>
       </c>
       <c r="J61" s="4">
         <v>347</v>
@@ -3370,8 +3384,8 @@
       <c r="L61" s="4">
         <v>130</v>
       </c>
-      <c r="M61" s="5">
-        <v>10.667</v>
+      <c r="M61" s="7">
+        <v>10667</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3390,17 +3404,17 @@
       <c r="E62" s="4">
         <v>64</v>
       </c>
-      <c r="F62" s="4">
-        <v>1.9890000000000001</v>
-      </c>
-      <c r="G62" s="4">
-        <v>1.49</v>
-      </c>
-      <c r="H62" s="4">
-        <v>3.8340000000000001</v>
-      </c>
-      <c r="I62" s="4">
-        <v>3.3730000000000002</v>
+      <c r="F62" s="9">
+        <v>1989</v>
+      </c>
+      <c r="G62" s="9">
+        <v>1490</v>
+      </c>
+      <c r="H62" s="9">
+        <v>3834</v>
+      </c>
+      <c r="I62" s="9">
+        <v>3373</v>
       </c>
       <c r="J62" s="4">
         <v>324</v>
@@ -3411,8 +3425,8 @@
       <c r="L62" s="4">
         <v>176</v>
       </c>
-      <c r="M62" s="5">
-        <v>11.385999999999999</v>
+      <c r="M62" s="7">
+        <v>11386</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3429,17 +3443,17 @@
       <c r="E63" s="4">
         <v>134</v>
       </c>
-      <c r="F63" s="4">
-        <v>1.694</v>
-      </c>
-      <c r="G63" s="4">
-        <v>1.296</v>
-      </c>
-      <c r="H63" s="4">
-        <v>3.0129999999999999</v>
-      </c>
-      <c r="I63" s="4">
-        <v>3.6640000000000001</v>
+      <c r="F63" s="9">
+        <v>1694</v>
+      </c>
+      <c r="G63" s="9">
+        <v>1296</v>
+      </c>
+      <c r="H63" s="9">
+        <v>3013</v>
+      </c>
+      <c r="I63" s="9">
+        <v>3664</v>
       </c>
       <c r="J63" s="4">
         <v>407</v>
@@ -3450,8 +3464,8 @@
       <c r="L63" s="4">
         <v>270</v>
       </c>
-      <c r="M63" s="5">
-        <v>10.714</v>
+      <c r="M63" s="7">
+        <v>10714</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3470,17 +3484,17 @@
       <c r="E64" s="4">
         <v>984</v>
       </c>
-      <c r="F64" s="4">
-        <v>2.2879999999999998</v>
-      </c>
-      <c r="G64" s="4">
-        <v>1.3660000000000001</v>
-      </c>
-      <c r="H64" s="4">
-        <v>4.1639999999999997</v>
-      </c>
-      <c r="I64" s="4">
-        <v>2.9769999999999999</v>
+      <c r="F64" s="9">
+        <v>2288</v>
+      </c>
+      <c r="G64" s="9">
+        <v>1366</v>
+      </c>
+      <c r="H64" s="9">
+        <v>4164</v>
+      </c>
+      <c r="I64" s="9">
+        <v>2977</v>
       </c>
       <c r="J64" s="4">
         <v>391</v>
@@ -3491,8 +3505,8 @@
       <c r="L64" s="4">
         <v>270</v>
       </c>
-      <c r="M64" s="5">
-        <v>12.596</v>
+      <c r="M64" s="7">
+        <v>12596</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3506,20 +3520,20 @@
       <c r="D65" s="4">
         <v>111</v>
       </c>
-      <c r="E65" s="4">
-        <v>1.9830000000000001</v>
-      </c>
-      <c r="F65" s="4">
-        <v>1.6359999999999999</v>
-      </c>
-      <c r="G65" s="4">
-        <v>1.2669999999999999</v>
-      </c>
-      <c r="H65" s="4">
-        <v>3.117</v>
-      </c>
-      <c r="I65" s="4">
-        <v>2.734</v>
+      <c r="E65" s="9">
+        <v>1983</v>
+      </c>
+      <c r="F65" s="9">
+        <v>1636</v>
+      </c>
+      <c r="G65" s="9">
+        <v>1267</v>
+      </c>
+      <c r="H65" s="9">
+        <v>3117</v>
+      </c>
+      <c r="I65" s="9">
+        <v>2734</v>
       </c>
       <c r="J65" s="4">
         <v>380</v>
@@ -3530,8 +3544,8 @@
       <c r="L65" s="4">
         <v>373</v>
       </c>
-      <c r="M65" s="5">
-        <v>11.682</v>
+      <c r="M65" s="7">
+        <v>11682</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3547,20 +3561,20 @@
       <c r="D66" s="4">
         <v>52</v>
       </c>
-      <c r="E66" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F66" s="4">
-        <v>1.669</v>
-      </c>
-      <c r="G66" s="4">
-        <v>2.1760000000000002</v>
-      </c>
-      <c r="H66" s="4">
-        <v>4.3090000000000002</v>
-      </c>
-      <c r="I66" s="4">
-        <v>2.621</v>
+      <c r="E66" s="9">
+        <v>2200</v>
+      </c>
+      <c r="F66" s="9">
+        <v>1669</v>
+      </c>
+      <c r="G66" s="9">
+        <v>2176</v>
+      </c>
+      <c r="H66" s="9">
+        <v>4309</v>
+      </c>
+      <c r="I66" s="9">
+        <v>2621</v>
       </c>
       <c r="J66" s="4">
         <v>420</v>
@@ -3571,8 +3585,8 @@
       <c r="L66" s="4">
         <v>324</v>
       </c>
-      <c r="M66" s="5">
-        <v>13.859</v>
+      <c r="M66" s="7">
+        <v>13859</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3586,20 +3600,20 @@
       <c r="D67" s="4">
         <v>107</v>
       </c>
-      <c r="E67" s="4">
-        <v>3.3519999999999999</v>
-      </c>
-      <c r="F67" s="4">
-        <v>1.3320000000000001</v>
-      </c>
-      <c r="G67" s="4">
-        <v>1.7749999999999999</v>
-      </c>
-      <c r="H67" s="4">
-        <v>3.0880000000000001</v>
-      </c>
-      <c r="I67" s="4">
-        <v>2.37</v>
+      <c r="E67" s="9">
+        <v>3352</v>
+      </c>
+      <c r="F67" s="9">
+        <v>1332</v>
+      </c>
+      <c r="G67" s="9">
+        <v>1775</v>
+      </c>
+      <c r="H67" s="9">
+        <v>3088</v>
+      </c>
+      <c r="I67" s="9">
+        <v>2370</v>
       </c>
       <c r="J67" s="4">
         <v>323</v>
@@ -3610,8 +3624,8 @@
       <c r="L67" s="4">
         <v>381</v>
       </c>
-      <c r="M67" s="5">
-        <v>12.843</v>
+      <c r="M67" s="7">
+        <v>12843</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3627,20 +3641,20 @@
       <c r="D68" s="4">
         <v>31</v>
       </c>
-      <c r="E68" s="4">
-        <v>2.6459999999999999</v>
-      </c>
-      <c r="F68" s="4">
-        <v>1.82</v>
-      </c>
-      <c r="G68" s="4">
-        <v>1.921</v>
-      </c>
-      <c r="H68" s="4">
-        <v>3.702</v>
-      </c>
-      <c r="I68" s="4">
-        <v>2.0310000000000001</v>
+      <c r="E68" s="9">
+        <v>2646</v>
+      </c>
+      <c r="F68" s="9">
+        <v>1820</v>
+      </c>
+      <c r="G68" s="9">
+        <v>1921</v>
+      </c>
+      <c r="H68" s="9">
+        <v>3702</v>
+      </c>
+      <c r="I68" s="9">
+        <v>2031</v>
       </c>
       <c r="J68" s="4">
         <v>297</v>
@@ -3651,8 +3665,8 @@
       <c r="L68" s="4">
         <v>322</v>
       </c>
-      <c r="M68" s="5">
-        <v>12.853</v>
+      <c r="M68" s="7">
+        <v>12853</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3666,20 +3680,20 @@
       <c r="D69" s="4">
         <v>140</v>
       </c>
-      <c r="E69" s="4">
-        <v>3.8180000000000001</v>
-      </c>
-      <c r="F69" s="4">
-        <v>1.615</v>
-      </c>
-      <c r="G69" s="4">
-        <v>1.643</v>
-      </c>
-      <c r="H69" s="4">
-        <v>2.7189999999999999</v>
-      </c>
-      <c r="I69" s="4">
-        <v>1.661</v>
+      <c r="E69" s="9">
+        <v>3818</v>
+      </c>
+      <c r="F69" s="9">
+        <v>1615</v>
+      </c>
+      <c r="G69" s="9">
+        <v>1643</v>
+      </c>
+      <c r="H69" s="9">
+        <v>2719</v>
+      </c>
+      <c r="I69" s="9">
+        <v>1661</v>
       </c>
       <c r="J69" s="4">
         <v>156</v>
@@ -3690,8 +3704,8 @@
       <c r="L69" s="4">
         <v>334</v>
       </c>
-      <c r="M69" s="5">
-        <v>12.154</v>
+      <c r="M69" s="7">
+        <v>12154</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3707,20 +3721,20 @@
       <c r="D70" s="4">
         <v>41</v>
       </c>
-      <c r="E70" s="4">
-        <v>2.7480000000000002</v>
-      </c>
-      <c r="F70" s="4">
-        <v>1.85</v>
-      </c>
-      <c r="G70" s="4">
-        <v>1.7090000000000001</v>
-      </c>
-      <c r="H70" s="4">
-        <v>2.851</v>
-      </c>
-      <c r="I70" s="4">
-        <v>1.7250000000000001</v>
+      <c r="E70" s="9">
+        <v>2748</v>
+      </c>
+      <c r="F70" s="9">
+        <v>1850</v>
+      </c>
+      <c r="G70" s="9">
+        <v>1709</v>
+      </c>
+      <c r="H70" s="9">
+        <v>2851</v>
+      </c>
+      <c r="I70" s="9">
+        <v>1725</v>
       </c>
       <c r="J70" s="4">
         <v>211</v>
@@ -3731,8 +3745,8 @@
       <c r="L70" s="4">
         <v>333</v>
       </c>
-      <c r="M70" s="5">
-        <v>11.535</v>
+      <c r="M70" s="7">
+        <v>11535</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3746,20 +3760,20 @@
       <c r="D71" s="4">
         <v>247</v>
       </c>
-      <c r="E71" s="4">
-        <v>3.85</v>
-      </c>
-      <c r="F71" s="4">
-        <v>1.482</v>
-      </c>
-      <c r="G71" s="4">
-        <v>1.373</v>
-      </c>
-      <c r="H71" s="4">
-        <v>1.9330000000000001</v>
-      </c>
-      <c r="I71" s="4">
-        <v>1.087</v>
+      <c r="E71" s="9">
+        <v>3850</v>
+      </c>
+      <c r="F71" s="9">
+        <v>1482</v>
+      </c>
+      <c r="G71" s="9">
+        <v>1373</v>
+      </c>
+      <c r="H71" s="9">
+        <v>1933</v>
+      </c>
+      <c r="I71" s="9">
+        <v>1087</v>
       </c>
       <c r="J71" s="4">
         <v>113</v>
@@ -3770,8 +3784,8 @@
       <c r="L71" s="4">
         <v>286</v>
       </c>
-      <c r="M71" s="5">
-        <v>10.430999999999999</v>
+      <c r="M71" s="7">
+        <v>10431</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3787,20 +3801,20 @@
       <c r="D72" s="4">
         <v>40</v>
       </c>
-      <c r="E72" s="4">
-        <v>2.8039999999999998</v>
-      </c>
-      <c r="F72" s="4">
-        <v>1.4530000000000001</v>
-      </c>
-      <c r="G72" s="4">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="H72" s="4">
-        <v>2.0870000000000002</v>
-      </c>
-      <c r="I72" s="4">
-        <v>1.173</v>
+      <c r="E72" s="9">
+        <v>2804</v>
+      </c>
+      <c r="F72" s="9">
+        <v>1453</v>
+      </c>
+      <c r="G72" s="9">
+        <v>1402</v>
+      </c>
+      <c r="H72" s="9">
+        <v>2087</v>
+      </c>
+      <c r="I72" s="9">
+        <v>1173</v>
       </c>
       <c r="J72" s="4">
         <v>144</v>
@@ -3811,8 +3825,8 @@
       <c r="L72" s="4">
         <v>276</v>
       </c>
-      <c r="M72" s="5">
-        <v>9.4320000000000004</v>
+      <c r="M72" s="7">
+        <v>9432</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3826,8 +3840,8 @@
       <c r="D73" s="4">
         <v>422</v>
       </c>
-      <c r="E73" s="4">
-        <v>3.6360000000000001</v>
+      <c r="E73" s="9">
+        <v>3636</v>
       </c>
       <c r="F73" s="4">
         <v>989</v>
@@ -3835,8 +3849,8 @@
       <c r="G73" s="4">
         <v>907</v>
       </c>
-      <c r="H73" s="4">
-        <v>1.405</v>
+      <c r="H73" s="9">
+        <v>1405</v>
       </c>
       <c r="I73" s="4">
         <v>684</v>
@@ -3850,8 +3864,8 @@
       <c r="L73" s="4">
         <v>285</v>
       </c>
-      <c r="M73" s="5">
-        <v>8.4529999999999994</v>
+      <c r="M73" s="7">
+        <v>8453</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3867,8 +3881,8 @@
       <c r="D74" s="4">
         <v>68</v>
       </c>
-      <c r="E74" s="4">
-        <v>2.59</v>
+      <c r="E74" s="9">
+        <v>2590</v>
       </c>
       <c r="F74" s="4">
         <v>793</v>
@@ -3876,8 +3890,8 @@
       <c r="G74" s="4">
         <v>812</v>
       </c>
-      <c r="H74" s="4">
-        <v>1.6579999999999999</v>
+      <c r="H74" s="9">
+        <v>1658</v>
       </c>
       <c r="I74" s="4">
         <v>858</v>
@@ -3891,8 +3905,8 @@
       <c r="L74" s="4">
         <v>285</v>
       </c>
-      <c r="M74" s="5">
-        <v>7.1790000000000003</v>
+      <c r="M74" s="7">
+        <v>7179</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3906,8 +3920,8 @@
       <c r="D75" s="4">
         <v>552</v>
       </c>
-      <c r="E75" s="4">
-        <v>3.2309999999999999</v>
+      <c r="E75" s="9">
+        <v>3231</v>
       </c>
       <c r="F75" s="4">
         <v>437</v>
@@ -3915,8 +3929,8 @@
       <c r="G75" s="4">
         <v>526</v>
       </c>
-      <c r="H75" s="4">
-        <v>1.0660000000000001</v>
+      <c r="H75" s="9">
+        <v>1066</v>
       </c>
       <c r="I75" s="4">
         <v>481</v>
@@ -3930,8 +3944,8 @@
       <c r="L75" s="4">
         <v>243</v>
       </c>
-      <c r="M75" s="5">
-        <v>6.641</v>
+      <c r="M75" s="7">
+        <v>6641</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3947,8 +3961,8 @@
       <c r="D76" s="4">
         <v>90</v>
       </c>
-      <c r="E76" s="4">
-        <v>2.161</v>
+      <c r="E76" s="9">
+        <v>2161</v>
       </c>
       <c r="F76" s="4">
         <v>352</v>
@@ -3971,8 +3985,8 @@
       <c r="L76" s="4">
         <v>234</v>
       </c>
-      <c r="M76" s="5">
-        <v>5.0970000000000004</v>
+      <c r="M76" s="7">
+        <v>5097</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3986,8 +4000,8 @@
       <c r="D77" s="4">
         <v>843</v>
       </c>
-      <c r="E77" s="4">
-        <v>2.4140000000000001</v>
+      <c r="E77" s="9">
+        <v>2414</v>
       </c>
       <c r="F77" s="4">
         <v>134</v>
@@ -4010,8 +4024,8 @@
       <c r="L77" s="4">
         <v>189</v>
       </c>
-      <c r="M77" s="5">
-        <v>4.9489999999999998</v>
+      <c r="M77" s="7">
+        <v>4949</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4027,8 +4041,8 @@
       <c r="D78" s="4">
         <v>168</v>
       </c>
-      <c r="E78" s="4">
-        <v>1.599</v>
+      <c r="E78" s="9">
+        <v>1599</v>
       </c>
       <c r="F78" s="4">
         <v>102</v>
@@ -4051,8 +4065,8 @@
       <c r="L78" s="4">
         <v>139</v>
       </c>
-      <c r="M78" s="5">
-        <v>3.2829999999999999</v>
+      <c r="M78" s="7">
+        <v>3283</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4063,11 +4077,11 @@
       <c r="C79" s="4">
         <v>121</v>
       </c>
-      <c r="D79" s="4">
-        <v>1.097</v>
-      </c>
-      <c r="E79" s="4">
-        <v>1.627</v>
+      <c r="D79" s="9">
+        <v>1097</v>
+      </c>
+      <c r="E79" s="9">
+        <v>1627</v>
       </c>
       <c r="F79" s="4">
         <v>41</v>
@@ -4090,8 +4104,8 @@
       <c r="L79" s="4">
         <v>145</v>
       </c>
-      <c r="M79" s="5">
-        <v>3.73</v>
+      <c r="M79" s="7">
+        <v>3730</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4107,8 +4121,8 @@
       <c r="D80" s="4">
         <v>618</v>
       </c>
-      <c r="E80" s="4">
-        <v>2.0550000000000002</v>
+      <c r="E80" s="9">
+        <v>2055</v>
       </c>
       <c r="F80" s="4">
         <v>34</v>
@@ -4131,8 +4145,8 @@
       <c r="L80" s="4">
         <v>169</v>
       </c>
-      <c r="M80" s="5">
-        <v>3.97</v>
+      <c r="M80" s="7">
+        <v>3970</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4143,11 +4157,11 @@
       <c r="C81" s="4">
         <v>580</v>
       </c>
-      <c r="D81" s="4">
-        <v>2.125</v>
-      </c>
-      <c r="E81" s="4">
-        <v>1.5880000000000001</v>
+      <c r="D81" s="9">
+        <v>2125</v>
+      </c>
+      <c r="E81" s="9">
+        <v>1588</v>
       </c>
       <c r="F81" s="4">
         <v>14</v>
@@ -4170,8 +4184,8 @@
       <c r="L81" s="4">
         <v>173</v>
       </c>
-      <c r="M81" s="5">
-        <v>5.0439999999999996</v>
+      <c r="M81" s="7">
+        <v>5044</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4179,38 +4193,38 @@
         <v>12</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>1.264</v>
-      </c>
-      <c r="D82" s="5">
-        <v>7.3390000000000004</v>
-      </c>
-      <c r="E82" s="5">
-        <v>45.725000000000001</v>
-      </c>
-      <c r="F82" s="5">
-        <v>21.881</v>
-      </c>
-      <c r="G82" s="5">
-        <v>32.845999999999997</v>
-      </c>
-      <c r="H82" s="5">
-        <v>68.474000000000004</v>
-      </c>
-      <c r="I82" s="5">
-        <v>43.540999999999997</v>
-      </c>
-      <c r="J82" s="5">
-        <v>4.1449999999999996</v>
+      <c r="C82" s="7">
+        <v>1264</v>
+      </c>
+      <c r="D82" s="7">
+        <v>7339</v>
+      </c>
+      <c r="E82" s="7">
+        <v>45725</v>
+      </c>
+      <c r="F82" s="7">
+        <v>21881</v>
+      </c>
+      <c r="G82" s="7">
+        <v>32846</v>
+      </c>
+      <c r="H82" s="7">
+        <v>68474</v>
+      </c>
+      <c r="I82" s="7">
+        <v>43541</v>
+      </c>
+      <c r="J82" s="7">
+        <v>4145</v>
       </c>
       <c r="K82" s="5">
         <v>675</v>
       </c>
-      <c r="L82" s="5">
-        <v>5.7370000000000001</v>
-      </c>
-      <c r="M82" s="5">
-        <v>231.62700000000001</v>
+      <c r="L82" s="7">
+        <v>5737</v>
+      </c>
+      <c r="M82" s="7">
+        <v>231627</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4289,8 +4303,8 @@
       <c r="L84" s="4">
         <v>15</v>
       </c>
-      <c r="M84" s="5">
-        <v>1.44</v>
+      <c r="M84" s="7">
+        <v>1440</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4328,8 +4342,8 @@
       <c r="L85" s="4">
         <v>9</v>
       </c>
-      <c r="M85" s="5">
-        <v>1.3939999999999999</v>
+      <c r="M85" s="7">
+        <v>1394</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4369,8 +4383,8 @@
       <c r="L86" s="4">
         <v>8</v>
       </c>
-      <c r="M86" s="5">
-        <v>1.016</v>
+      <c r="M86" s="7">
+        <v>1016</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4529,8 +4543,8 @@
       <c r="L90" s="4">
         <v>4</v>
       </c>
-      <c r="M90" s="5">
-        <v>1.03</v>
+      <c r="M90" s="7">
+        <v>1030</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4609,8 +4623,8 @@
       <c r="L92" s="4">
         <v>1</v>
       </c>
-      <c r="M92" s="5">
-        <v>1.1399999999999999</v>
+      <c r="M92" s="7">
+        <v>1140</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4648,8 +4662,8 @@
       <c r="L93" s="4">
         <v>1</v>
       </c>
-      <c r="M93" s="5">
-        <v>1.111</v>
+      <c r="M93" s="7">
+        <v>1111</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4689,8 +4703,8 @@
       <c r="L94" s="4">
         <v>1</v>
       </c>
-      <c r="M94" s="5">
-        <v>1.0609999999999999</v>
+      <c r="M94" s="7">
+        <v>1061</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4728,8 +4742,8 @@
       <c r="L95" s="4">
         <v>2</v>
       </c>
-      <c r="M95" s="5">
-        <v>1.0680000000000001</v>
+      <c r="M95" s="7">
+        <v>1068</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4769,8 +4783,8 @@
       <c r="L96" s="4">
         <v>2</v>
       </c>
-      <c r="M96" s="5">
-        <v>1.109</v>
+      <c r="M96" s="7">
+        <v>1109</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4849,8 +4863,8 @@
       <c r="L98" s="4">
         <v>5</v>
       </c>
-      <c r="M98" s="5">
-        <v>1.0009999999999999</v>
+      <c r="M98" s="7">
+        <v>1001</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -5223,20 +5237,20 @@
       <c r="D108" s="5">
         <v>926</v>
       </c>
-      <c r="E108" s="5">
-        <v>7.0229999999999997</v>
-      </c>
-      <c r="F108" s="5">
-        <v>1.5880000000000001</v>
-      </c>
-      <c r="G108" s="5">
-        <v>2.7930000000000001</v>
-      </c>
-      <c r="H108" s="5">
-        <v>5.0949999999999998</v>
-      </c>
-      <c r="I108" s="5">
-        <v>3.3530000000000002</v>
+      <c r="E108" s="7">
+        <v>7023</v>
+      </c>
+      <c r="F108" s="7">
+        <v>1588</v>
+      </c>
+      <c r="G108" s="7">
+        <v>2793</v>
+      </c>
+      <c r="H108" s="7">
+        <v>5095</v>
+      </c>
+      <c r="I108" s="7">
+        <v>3353</v>
       </c>
       <c r="J108" s="5">
         <v>319</v>
@@ -5247,8 +5261,8 @@
       <c r="L108" s="5">
         <v>84</v>
       </c>
-      <c r="M108" s="5">
-        <v>21.283000000000001</v>
+      <c r="M108" s="7">
+        <v>21283</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5312,8 +5326,8 @@
       <c r="G110" s="4">
         <v>703</v>
       </c>
-      <c r="H110" s="4">
-        <v>2.3260000000000001</v>
+      <c r="H110" s="9">
+        <v>2326</v>
       </c>
       <c r="I110" s="4">
         <v>468</v>
@@ -5327,8 +5341,8 @@
       <c r="L110" s="4">
         <v>27</v>
       </c>
-      <c r="M110" s="5">
-        <v>3.5470000000000002</v>
+      <c r="M110" s="7">
+        <v>3547</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5351,8 +5365,8 @@
       <c r="G111" s="4">
         <v>521</v>
       </c>
-      <c r="H111" s="4">
-        <v>2.2429999999999999</v>
+      <c r="H111" s="9">
+        <v>2243</v>
       </c>
       <c r="I111" s="4">
         <v>778</v>
@@ -5366,8 +5380,8 @@
       <c r="L111" s="4">
         <v>15</v>
       </c>
-      <c r="M111" s="5">
-        <v>3.5870000000000002</v>
+      <c r="M111" s="7">
+        <v>3587</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5395,8 +5409,8 @@
       <c r="H112" s="4">
         <v>835</v>
       </c>
-      <c r="I112" s="4">
-        <v>1.127</v>
+      <c r="I112" s="9">
+        <v>1127</v>
       </c>
       <c r="J112" s="4">
         <v>59</v>
@@ -5407,8 +5421,8 @@
       <c r="L112" s="4">
         <v>18</v>
       </c>
-      <c r="M112" s="5">
-        <v>2.5870000000000002</v>
+      <c r="M112" s="7">
+        <v>2587</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5434,8 +5448,8 @@
       <c r="H113" s="4">
         <v>613</v>
       </c>
-      <c r="I113" s="4">
-        <v>1.385</v>
+      <c r="I113" s="9">
+        <v>1385</v>
       </c>
       <c r="J113" s="4">
         <v>95</v>
@@ -5446,8 +5460,8 @@
       <c r="L113" s="4">
         <v>19</v>
       </c>
-      <c r="M113" s="5">
-        <v>2.6469999999999998</v>
+      <c r="M113" s="7">
+        <v>2647</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5475,8 +5489,8 @@
       <c r="H114" s="4">
         <v>932</v>
       </c>
-      <c r="I114" s="4">
-        <v>1.0429999999999999</v>
+      <c r="I114" s="9">
+        <v>1043</v>
       </c>
       <c r="J114" s="4">
         <v>123</v>
@@ -5487,8 +5501,8 @@
       <c r="L114" s="4">
         <v>23</v>
       </c>
-      <c r="M114" s="5">
-        <v>2.7429999999999999</v>
+      <c r="M114" s="7">
+        <v>2743</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5514,8 +5528,8 @@
       <c r="H115" s="4">
         <v>772</v>
       </c>
-      <c r="I115" s="4">
-        <v>1.202</v>
+      <c r="I115" s="9">
+        <v>1202</v>
       </c>
       <c r="J115" s="4">
         <v>155</v>
@@ -5526,8 +5540,8 @@
       <c r="L115" s="4">
         <v>34</v>
       </c>
-      <c r="M115" s="5">
-        <v>2.8610000000000002</v>
+      <c r="M115" s="7">
+        <v>2861</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5552,8 +5566,8 @@
       <c r="G116" s="4">
         <v>269</v>
       </c>
-      <c r="H116" s="4">
-        <v>1.0369999999999999</v>
+      <c r="H116" s="9">
+        <v>1037</v>
       </c>
       <c r="I116" s="4">
         <v>879</v>
@@ -5567,8 +5581,8 @@
       <c r="L116" s="4">
         <v>35</v>
       </c>
-      <c r="M116" s="5">
-        <v>2.9129999999999998</v>
+      <c r="M116" s="7">
+        <v>2913</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5606,8 +5620,8 @@
       <c r="L117" s="4">
         <v>56</v>
       </c>
-      <c r="M117" s="5">
-        <v>2.9820000000000002</v>
+      <c r="M117" s="7">
+        <v>2982</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5632,8 +5646,8 @@
       <c r="G118" s="4">
         <v>480</v>
       </c>
-      <c r="H118" s="4">
-        <v>1.01</v>
+      <c r="H118" s="9">
+        <v>1010</v>
       </c>
       <c r="I118" s="4">
         <v>816</v>
@@ -5647,8 +5661,8 @@
       <c r="L118" s="4">
         <v>43</v>
       </c>
-      <c r="M118" s="5">
-        <v>3.129</v>
+      <c r="M118" s="7">
+        <v>3129</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5686,8 +5700,8 @@
       <c r="L119" s="4">
         <v>35</v>
       </c>
-      <c r="M119" s="5">
-        <v>3.056</v>
+      <c r="M119" s="7">
+        <v>3056</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5727,8 +5741,8 @@
       <c r="L120" s="4">
         <v>28</v>
       </c>
-      <c r="M120" s="5">
-        <v>2.8919999999999999</v>
+      <c r="M120" s="7">
+        <v>2892</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5766,8 +5780,8 @@
       <c r="L121" s="4">
         <v>31</v>
       </c>
-      <c r="M121" s="5">
-        <v>2.7</v>
+      <c r="M121" s="7">
+        <v>2700</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5807,8 +5821,8 @@
       <c r="L122" s="4">
         <v>35</v>
       </c>
-      <c r="M122" s="5">
-        <v>2.5649999999999999</v>
+      <c r="M122" s="7">
+        <v>2565</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5846,8 +5860,8 @@
       <c r="L123" s="4">
         <v>45</v>
       </c>
-      <c r="M123" s="5">
-        <v>2.5289999999999999</v>
+      <c r="M123" s="7">
+        <v>2529</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5887,8 +5901,8 @@
       <c r="L124" s="4">
         <v>36</v>
       </c>
-      <c r="M124" s="5">
-        <v>2.2599999999999998</v>
+      <c r="M124" s="7">
+        <v>2260</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5926,8 +5940,8 @@
       <c r="L125" s="4">
         <v>31</v>
       </c>
-      <c r="M125" s="5">
-        <v>2.23</v>
+      <c r="M125" s="7">
+        <v>2230</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5967,8 +5981,8 @@
       <c r="L126" s="4">
         <v>41</v>
       </c>
-      <c r="M126" s="5">
-        <v>1.897</v>
+      <c r="M126" s="7">
+        <v>1897</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -6006,8 +6020,8 @@
       <c r="L127" s="4">
         <v>25</v>
       </c>
-      <c r="M127" s="5">
-        <v>1.8620000000000001</v>
+      <c r="M127" s="7">
+        <v>1862</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6047,8 +6061,8 @@
       <c r="L128" s="4">
         <v>34</v>
       </c>
-      <c r="M128" s="5">
-        <v>1.4390000000000001</v>
+      <c r="M128" s="7">
+        <v>1439</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6086,8 +6100,8 @@
       <c r="L129" s="4">
         <v>14</v>
       </c>
-      <c r="M129" s="5">
-        <v>1.431</v>
+      <c r="M129" s="7">
+        <v>1431</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6207,8 +6221,8 @@
       <c r="L132" s="4">
         <v>28</v>
       </c>
-      <c r="M132" s="5">
-        <v>1.0429999999999999</v>
+      <c r="M132" s="7">
+        <v>1043</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6246,8 +6260,8 @@
       <c r="L133" s="4">
         <v>16</v>
       </c>
-      <c r="M133" s="5">
-        <v>1.3939999999999999</v>
+      <c r="M133" s="7">
+        <v>1394</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6258,26 +6272,26 @@
       <c r="C134" s="5">
         <v>336</v>
       </c>
-      <c r="D134" s="5">
-        <v>1.6679999999999999</v>
-      </c>
-      <c r="E134" s="5">
-        <v>9.9890000000000008</v>
-      </c>
-      <c r="F134" s="5">
-        <v>4.7939999999999996</v>
-      </c>
-      <c r="G134" s="5">
-        <v>7.4359999999999999</v>
-      </c>
-      <c r="H134" s="5">
-        <v>16.190999999999999</v>
-      </c>
-      <c r="I134" s="5">
-        <v>13.173</v>
-      </c>
-      <c r="J134" s="5">
-        <v>1.57</v>
+      <c r="D134" s="7">
+        <v>1668</v>
+      </c>
+      <c r="E134" s="7">
+        <v>9989</v>
+      </c>
+      <c r="F134" s="7">
+        <v>4794</v>
+      </c>
+      <c r="G134" s="7">
+        <v>7436</v>
+      </c>
+      <c r="H134" s="7">
+        <v>16191</v>
+      </c>
+      <c r="I134" s="7">
+        <v>13173</v>
+      </c>
+      <c r="J134" s="7">
+        <v>1570</v>
       </c>
       <c r="K134" s="5">
         <v>345</v>
@@ -6285,8 +6299,8 @@
       <c r="L134" s="5">
         <v>706</v>
       </c>
-      <c r="M134" s="5">
-        <v>56.207999999999998</v>
+      <c r="M134" s="7">
+        <v>56208</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6350,8 +6364,8 @@
       <c r="G136" s="4">
         <v>500</v>
       </c>
-      <c r="H136" s="4">
-        <v>1.0680000000000001</v>
+      <c r="H136" s="9">
+        <v>1068</v>
       </c>
       <c r="I136" s="4">
         <v>231</v>
@@ -6365,8 +6379,8 @@
       <c r="L136" s="4">
         <v>8</v>
       </c>
-      <c r="M136" s="5">
-        <v>1.8160000000000001</v>
+      <c r="M136" s="7">
+        <v>1816</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6389,8 +6403,8 @@
       <c r="G137" s="4">
         <v>371</v>
       </c>
-      <c r="H137" s="4">
-        <v>1.083</v>
+      <c r="H137" s="9">
+        <v>1083</v>
       </c>
       <c r="I137" s="4">
         <v>341</v>
@@ -6404,8 +6418,8 @@
       <c r="L137" s="4">
         <v>1</v>
       </c>
-      <c r="M137" s="5">
-        <v>1.81</v>
+      <c r="M137" s="7">
+        <v>1810</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6445,8 +6459,8 @@
       <c r="L138" s="4">
         <v>7</v>
       </c>
-      <c r="M138" s="5">
-        <v>1.278</v>
+      <c r="M138" s="7">
+        <v>1278</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6484,8 +6498,8 @@
       <c r="L139" s="4">
         <v>7</v>
       </c>
-      <c r="M139" s="5">
-        <v>1.208</v>
+      <c r="M139" s="7">
+        <v>1208</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6525,8 +6539,8 @@
       <c r="L140" s="4">
         <v>1</v>
       </c>
-      <c r="M140" s="5">
-        <v>1.2010000000000001</v>
+      <c r="M140" s="7">
+        <v>1201</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6564,8 +6578,8 @@
       <c r="L141" s="4">
         <v>5</v>
       </c>
-      <c r="M141" s="5">
-        <v>1.089</v>
+      <c r="M141" s="7">
+        <v>1089</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6605,8 +6619,8 @@
       <c r="L142" s="4">
         <v>5</v>
       </c>
-      <c r="M142" s="5">
-        <v>1.1830000000000001</v>
+      <c r="M142" s="7">
+        <v>1183</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6644,8 +6658,8 @@
       <c r="L143" s="4">
         <v>5</v>
       </c>
-      <c r="M143" s="5">
-        <v>1.1479999999999999</v>
+      <c r="M143" s="7">
+        <v>1148</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6685,8 +6699,8 @@
       <c r="L144" s="4">
         <v>3</v>
       </c>
-      <c r="M144" s="5">
-        <v>1.379</v>
+      <c r="M144" s="7">
+        <v>1379</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6724,8 +6738,8 @@
       <c r="L145" s="4">
         <v>3</v>
       </c>
-      <c r="M145" s="5">
-        <v>1.282</v>
+      <c r="M145" s="7">
+        <v>1282</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6765,8 +6779,8 @@
       <c r="L146" s="4">
         <v>1</v>
       </c>
-      <c r="M146" s="5">
-        <v>1.294</v>
+      <c r="M146" s="7">
+        <v>1294</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6804,8 +6818,8 @@
       <c r="L147" s="4">
         <v>3</v>
       </c>
-      <c r="M147" s="5">
-        <v>1.298</v>
+      <c r="M147" s="7">
+        <v>1298</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6845,8 +6859,8 @@
       <c r="L148" s="4">
         <v>1</v>
       </c>
-      <c r="M148" s="5">
-        <v>1.329</v>
+      <c r="M148" s="7">
+        <v>1329</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6884,8 +6898,8 @@
       <c r="L149" s="4">
         <v>4</v>
       </c>
-      <c r="M149" s="5">
-        <v>1.333</v>
+      <c r="M149" s="7">
+        <v>1333</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6925,8 +6939,8 @@
       <c r="L150" s="4">
         <v>2</v>
       </c>
-      <c r="M150" s="5">
-        <v>1.3879999999999999</v>
+      <c r="M150" s="7">
+        <v>1388</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6940,8 +6954,8 @@
       <c r="D151" s="4">
         <v>65</v>
       </c>
-      <c r="E151" s="4">
-        <v>1.012</v>
+      <c r="E151" s="9">
+        <v>1012</v>
       </c>
       <c r="F151" s="4">
         <v>84</v>
@@ -6964,8 +6978,8 @@
       <c r="L151" s="4">
         <v>3</v>
       </c>
-      <c r="M151" s="5">
-        <v>1.4039999999999999</v>
+      <c r="M151" s="7">
+        <v>1404</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -7005,8 +7019,8 @@
       <c r="L152" s="4">
         <v>11</v>
       </c>
-      <c r="M152" s="5">
-        <v>1.3120000000000001</v>
+      <c r="M152" s="7">
+        <v>1312</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -7020,8 +7034,8 @@
       <c r="D153" s="4">
         <v>90</v>
       </c>
-      <c r="E153" s="4">
-        <v>1.028</v>
+      <c r="E153" s="9">
+        <v>1028</v>
       </c>
       <c r="F153" s="4">
         <v>37</v>
@@ -7044,8 +7058,8 @@
       <c r="L153" s="4">
         <v>1</v>
       </c>
-      <c r="M153" s="5">
-        <v>1.3340000000000001</v>
+      <c r="M153" s="7">
+        <v>1334</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7085,8 +7099,8 @@
       <c r="L154" s="4">
         <v>3</v>
       </c>
-      <c r="M154" s="5">
-        <v>1.0429999999999999</v>
+      <c r="M154" s="7">
+        <v>1043</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7124,8 +7138,8 @@
       <c r="L155" s="4">
         <v>7</v>
       </c>
-      <c r="M155" s="5">
-        <v>1.0840000000000001</v>
+      <c r="M155" s="7">
+        <v>1084</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7245,8 +7259,8 @@
       <c r="L158" s="4">
         <v>7</v>
       </c>
-      <c r="M158" s="5">
-        <v>1.234</v>
+      <c r="M158" s="7">
+        <v>1234</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7284,8 +7298,8 @@
       <c r="L159" s="4">
         <v>13</v>
       </c>
-      <c r="M159" s="5">
-        <v>1.583</v>
+      <c r="M159" s="7">
+        <v>1583</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -7296,23 +7310,23 @@
       <c r="C160" s="5">
         <v>267</v>
       </c>
-      <c r="D160" s="5">
-        <v>1.56</v>
-      </c>
-      <c r="E160" s="5">
-        <v>12.250999999999999</v>
-      </c>
-      <c r="F160" s="5">
-        <v>2.355</v>
-      </c>
-      <c r="G160" s="5">
-        <v>3.988</v>
-      </c>
-      <c r="H160" s="5">
-        <v>6.0620000000000003</v>
-      </c>
-      <c r="I160" s="5">
-        <v>3.9169999999999998</v>
+      <c r="D160" s="7">
+        <v>1560</v>
+      </c>
+      <c r="E160" s="7">
+        <v>12251</v>
+      </c>
+      <c r="F160" s="7">
+        <v>2355</v>
+      </c>
+      <c r="G160" s="7">
+        <v>3988</v>
+      </c>
+      <c r="H160" s="7">
+        <v>6062</v>
+      </c>
+      <c r="I160" s="7">
+        <v>3917</v>
       </c>
       <c r="J160" s="5">
         <v>332</v>
@@ -7323,8 +7337,8 @@
       <c r="L160" s="5">
         <v>109</v>
       </c>
-      <c r="M160" s="5">
-        <v>30.875</v>
+      <c r="M160" s="7">
+        <v>30875</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7388,8 +7402,8 @@
       <c r="G162" s="4">
         <v>777</v>
       </c>
-      <c r="H162" s="4">
-        <v>1.339</v>
+      <c r="H162" s="9">
+        <v>1339</v>
       </c>
       <c r="I162" s="4">
         <v>271</v>
@@ -7403,8 +7417,8 @@
       <c r="L162" s="4">
         <v>14</v>
       </c>
-      <c r="M162" s="5">
-        <v>2.452</v>
+      <c r="M162" s="7">
+        <v>2452</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7427,8 +7441,8 @@
       <c r="G163" s="4">
         <v>496</v>
       </c>
-      <c r="H163" s="4">
-        <v>1.2569999999999999</v>
+      <c r="H163" s="9">
+        <v>1257</v>
       </c>
       <c r="I163" s="4">
         <v>440</v>
@@ -7442,8 +7456,8 @@
       <c r="L163" s="4">
         <v>4</v>
       </c>
-      <c r="M163" s="5">
-        <v>2.2690000000000001</v>
+      <c r="M163" s="7">
+        <v>2269</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7483,8 +7497,8 @@
       <c r="L164" s="4">
         <v>7</v>
       </c>
-      <c r="M164" s="5">
-        <v>1.6970000000000001</v>
+      <c r="M164" s="7">
+        <v>1697</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7522,8 +7536,8 @@
       <c r="L165" s="4">
         <v>4</v>
       </c>
-      <c r="M165" s="5">
-        <v>1.591</v>
+      <c r="M165" s="7">
+        <v>1591</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7563,8 +7577,8 @@
       <c r="L166" s="4">
         <v>9</v>
       </c>
-      <c r="M166" s="5">
-        <v>1.619</v>
+      <c r="M166" s="7">
+        <v>1619</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7602,8 +7616,8 @@
       <c r="L167" s="4">
         <v>8</v>
       </c>
-      <c r="M167" s="5">
-        <v>1.6659999999999999</v>
+      <c r="M167" s="7">
+        <v>1666</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7643,8 +7657,8 @@
       <c r="L168" s="4">
         <v>11</v>
       </c>
-      <c r="M168" s="5">
-        <v>1.7250000000000001</v>
+      <c r="M168" s="7">
+        <v>1725</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7682,8 +7696,8 @@
       <c r="L169" s="4">
         <v>12</v>
       </c>
-      <c r="M169" s="5">
-        <v>1.843</v>
+      <c r="M169" s="7">
+        <v>1843</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7723,8 +7737,8 @@
       <c r="L170" s="4">
         <v>7</v>
       </c>
-      <c r="M170" s="5">
-        <v>1.8819999999999999</v>
+      <c r="M170" s="7">
+        <v>1882</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7762,8 +7776,8 @@
       <c r="L171" s="4">
         <v>13</v>
       </c>
-      <c r="M171" s="5">
-        <v>1.879</v>
+      <c r="M171" s="7">
+        <v>1879</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7803,8 +7817,8 @@
       <c r="L172" s="4">
         <v>13</v>
       </c>
-      <c r="M172" s="5">
-        <v>1.7869999999999999</v>
+      <c r="M172" s="7">
+        <v>1787</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7842,8 +7856,8 @@
       <c r="L173" s="4">
         <v>10</v>
       </c>
-      <c r="M173" s="5">
-        <v>1.77</v>
+      <c r="M173" s="7">
+        <v>1770</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7883,8 +7897,8 @@
       <c r="L174" s="4">
         <v>11</v>
       </c>
-      <c r="M174" s="5">
-        <v>1.7050000000000001</v>
+      <c r="M174" s="7">
+        <v>1705</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7922,8 +7936,8 @@
       <c r="L175" s="4">
         <v>15</v>
       </c>
-      <c r="M175" s="5">
-        <v>1.7889999999999999</v>
+      <c r="M175" s="7">
+        <v>1789</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7963,8 +7977,8 @@
       <c r="L176" s="4">
         <v>21</v>
       </c>
-      <c r="M176" s="5">
-        <v>1.6379999999999999</v>
+      <c r="M176" s="7">
+        <v>1638</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -8002,8 +8016,8 @@
       <c r="L177" s="4">
         <v>23</v>
       </c>
-      <c r="M177" s="5">
-        <v>1.631</v>
+      <c r="M177" s="7">
+        <v>1631</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8043,8 +8057,8 @@
       <c r="L178" s="4">
         <v>11</v>
       </c>
-      <c r="M178" s="5">
-        <v>1.528</v>
+      <c r="M178" s="7">
+        <v>1528</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8082,8 +8096,8 @@
       <c r="L179" s="4">
         <v>14</v>
       </c>
-      <c r="M179" s="5">
-        <v>1.5069999999999999</v>
+      <c r="M179" s="7">
+        <v>1507</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8123,8 +8137,8 @@
       <c r="L180" s="4">
         <v>16</v>
       </c>
-      <c r="M180" s="5">
-        <v>1.206</v>
+      <c r="M180" s="7">
+        <v>1206</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8162,8 +8176,8 @@
       <c r="L181" s="4">
         <v>13</v>
       </c>
-      <c r="M181" s="5">
-        <v>1.1990000000000001</v>
+      <c r="M181" s="7">
+        <v>1199</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8322,8 +8336,8 @@
       <c r="L185" s="4">
         <v>11</v>
       </c>
-      <c r="M185" s="5">
-        <v>1.2090000000000001</v>
+      <c r="M185" s="7">
+        <v>1209</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -8334,23 +8348,23 @@
       <c r="C186" s="5">
         <v>618</v>
       </c>
-      <c r="D186" s="5">
-        <v>1.51</v>
-      </c>
-      <c r="E186" s="5">
-        <v>9.9789999999999992</v>
-      </c>
-      <c r="F186" s="5">
-        <v>2.806</v>
-      </c>
-      <c r="G186" s="5">
-        <v>5.8090000000000002</v>
-      </c>
-      <c r="H186" s="5">
-        <v>10.355</v>
-      </c>
-      <c r="I186" s="5">
-        <v>6.2</v>
+      <c r="D186" s="7">
+        <v>1510</v>
+      </c>
+      <c r="E186" s="7">
+        <v>9979</v>
+      </c>
+      <c r="F186" s="7">
+        <v>2806</v>
+      </c>
+      <c r="G186" s="7">
+        <v>5809</v>
+      </c>
+      <c r="H186" s="7">
+        <v>10355</v>
+      </c>
+      <c r="I186" s="7">
+        <v>6200</v>
       </c>
       <c r="J186" s="5">
         <v>554</v>
@@ -8361,8 +8375,8 @@
       <c r="L186" s="5">
         <v>263</v>
       </c>
-      <c r="M186" s="5">
-        <v>38.139000000000003</v>
+      <c r="M186" s="7">
+        <v>38139</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -8426,8 +8440,8 @@
       <c r="G188" s="4">
         <v>665</v>
       </c>
-      <c r="H188" s="4">
-        <v>1.6859999999999999</v>
+      <c r="H188" s="9">
+        <v>1686</v>
       </c>
       <c r="I188" s="4">
         <v>342</v>
@@ -8441,8 +8455,8 @@
       <c r="L188" s="4">
         <v>22</v>
       </c>
-      <c r="M188" s="5">
-        <v>2.7309999999999999</v>
+      <c r="M188" s="7">
+        <v>2731</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8465,8 +8479,8 @@
       <c r="G189" s="4">
         <v>357</v>
       </c>
-      <c r="H189" s="4">
-        <v>1.6479999999999999</v>
+      <c r="H189" s="9">
+        <v>1648</v>
       </c>
       <c r="I189" s="4">
         <v>591</v>
@@ -8480,8 +8494,8 @@
       <c r="L189" s="4">
         <v>7</v>
       </c>
-      <c r="M189" s="5">
-        <v>2.62</v>
+      <c r="M189" s="7">
+        <v>2620</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8521,8 +8535,8 @@
       <c r="L190" s="4">
         <v>12</v>
       </c>
-      <c r="M190" s="5">
-        <v>1.927</v>
+      <c r="M190" s="7">
+        <v>1927</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8560,8 +8574,8 @@
       <c r="L191" s="4">
         <v>9</v>
       </c>
-      <c r="M191" s="5">
-        <v>1.726</v>
+      <c r="M191" s="7">
+        <v>1726</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8601,8 +8615,8 @@
       <c r="L192" s="4">
         <v>15</v>
       </c>
-      <c r="M192" s="5">
-        <v>1.78</v>
+      <c r="M192" s="7">
+        <v>1780</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8640,8 +8654,8 @@
       <c r="L193" s="4">
         <v>8</v>
       </c>
-      <c r="M193" s="5">
-        <v>1.544</v>
+      <c r="M193" s="7">
+        <v>1544</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8681,8 +8695,8 @@
       <c r="L194" s="4">
         <v>11</v>
       </c>
-      <c r="M194" s="5">
-        <v>1.7729999999999999</v>
+      <c r="M194" s="7">
+        <v>1773</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8720,8 +8734,8 @@
       <c r="L195" s="4">
         <v>10</v>
       </c>
-      <c r="M195" s="5">
-        <v>1.6930000000000001</v>
+      <c r="M195" s="7">
+        <v>1693</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8761,8 +8775,8 @@
       <c r="L196" s="4">
         <v>11</v>
       </c>
-      <c r="M196" s="5">
-        <v>1.8879999999999999</v>
+      <c r="M196" s="7">
+        <v>1888</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8800,8 +8814,8 @@
       <c r="L197" s="4">
         <v>9</v>
       </c>
-      <c r="M197" s="5">
-        <v>1.98</v>
+      <c r="M197" s="7">
+        <v>1980</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8841,8 +8855,8 @@
       <c r="L198" s="4">
         <v>14</v>
       </c>
-      <c r="M198" s="5">
-        <v>1.9750000000000001</v>
+      <c r="M198" s="7">
+        <v>1975</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8880,8 +8894,8 @@
       <c r="L199" s="4">
         <v>9</v>
       </c>
-      <c r="M199" s="5">
-        <v>1.9930000000000001</v>
+      <c r="M199" s="7">
+        <v>1993</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8921,8 +8935,8 @@
       <c r="L200" s="4">
         <v>18</v>
       </c>
-      <c r="M200" s="5">
-        <v>2.0209999999999999</v>
+      <c r="M200" s="7">
+        <v>2021</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8936,8 +8950,8 @@
       <c r="D201" s="4">
         <v>28</v>
       </c>
-      <c r="E201" s="4">
-        <v>1.048</v>
+      <c r="E201" s="9">
+        <v>1048</v>
       </c>
       <c r="F201" s="4">
         <v>219</v>
@@ -8960,8 +8974,8 @@
       <c r="L201" s="4">
         <v>17</v>
       </c>
-      <c r="M201" s="5">
-        <v>2.0920000000000001</v>
+      <c r="M201" s="7">
+        <v>2092</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -9001,8 +9015,8 @@
       <c r="L202" s="4">
         <v>14</v>
       </c>
-      <c r="M202" s="5">
-        <v>1.996</v>
+      <c r="M202" s="7">
+        <v>1996</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -9016,8 +9030,8 @@
       <c r="D203" s="4">
         <v>63</v>
       </c>
-      <c r="E203" s="4">
-        <v>1.103</v>
+      <c r="E203" s="9">
+        <v>1103</v>
       </c>
       <c r="F203" s="4">
         <v>146</v>
@@ -9040,8 +9054,8 @@
       <c r="L203" s="4">
         <v>20</v>
       </c>
-      <c r="M203" s="5">
-        <v>1.909</v>
+      <c r="M203" s="7">
+        <v>1909</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9081,8 +9095,8 @@
       <c r="L204" s="4">
         <v>16</v>
       </c>
-      <c r="M204" s="5">
-        <v>1.528</v>
+      <c r="M204" s="7">
+        <v>1528</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9120,8 +9134,8 @@
       <c r="L205" s="4">
         <v>6</v>
       </c>
-      <c r="M205" s="5">
-        <v>1.452</v>
+      <c r="M205" s="7">
+        <v>1452</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9161,8 +9175,8 @@
       <c r="L206" s="4">
         <v>17</v>
       </c>
-      <c r="M206" s="5">
-        <v>1.2370000000000001</v>
+      <c r="M206" s="7">
+        <v>1237</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -9200,8 +9214,8 @@
       <c r="L207" s="4">
         <v>5</v>
       </c>
-      <c r="M207" s="5">
-        <v>1.1819999999999999</v>
+      <c r="M207" s="7">
+        <v>1182</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -9321,8 +9335,8 @@
       <c r="L210" s="4">
         <v>7</v>
       </c>
-      <c r="M210" s="5">
-        <v>1.1579999999999999</v>
+      <c r="M210" s="7">
+        <v>1158</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -9360,8 +9374,8 @@
       <c r="L211" s="4">
         <v>7</v>
       </c>
-      <c r="M211" s="5">
-        <v>1.5269999999999999</v>
+      <c r="M211" s="7">
+        <v>1527</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -9372,23 +9386,23 @@
       <c r="C212" s="5">
         <v>236</v>
       </c>
-      <c r="D212" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="E212" s="5">
-        <v>11.042</v>
-      </c>
-      <c r="F212" s="5">
-        <v>3.3690000000000002</v>
-      </c>
-      <c r="G212" s="5">
-        <v>4.9370000000000003</v>
-      </c>
-      <c r="H212" s="5">
-        <v>11.007</v>
-      </c>
-      <c r="I212" s="5">
-        <v>7.4740000000000002</v>
+      <c r="D212" s="7">
+        <v>2400</v>
+      </c>
+      <c r="E212" s="7">
+        <v>11042</v>
+      </c>
+      <c r="F212" s="7">
+        <v>3369</v>
+      </c>
+      <c r="G212" s="7">
+        <v>4937</v>
+      </c>
+      <c r="H212" s="7">
+        <v>11007</v>
+      </c>
+      <c r="I212" s="7">
+        <v>7474</v>
       </c>
       <c r="J212" s="5">
         <v>646</v>
@@ -9399,8 +9413,8 @@
       <c r="L212" s="5">
         <v>281</v>
       </c>
-      <c r="M212" s="5">
-        <v>41.45</v>
+      <c r="M212" s="7">
+        <v>41450</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -10413,8 +10427,8 @@
       <c r="D238" s="5">
         <v>757</v>
       </c>
-      <c r="E238" s="5">
-        <v>2.6629999999999998</v>
+      <c r="E238" s="7">
+        <v>2663</v>
       </c>
       <c r="F238" s="5">
         <v>488</v>
@@ -10437,8 +10451,8 @@
       <c r="L238" s="5">
         <v>21</v>
       </c>
-      <c r="M238" s="5">
-        <v>6.2350000000000003</v>
+      <c r="M238" s="7">
+        <v>6235</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -11475,8 +11489,8 @@
       <c r="L264" s="5">
         <v>12</v>
       </c>
-      <c r="M264" s="5">
-        <v>2.464</v>
+      <c r="M264" s="7">
+        <v>2464</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -11540,8 +11554,8 @@
       <c r="G266" s="4">
         <v>864</v>
       </c>
-      <c r="H266" s="4">
-        <v>1.7969999999999999</v>
+      <c r="H266" s="9">
+        <v>1797</v>
       </c>
       <c r="I266" s="4">
         <v>332</v>
@@ -11555,8 +11569,8 @@
       <c r="L266" s="4">
         <v>25</v>
       </c>
-      <c r="M266" s="5">
-        <v>3.04</v>
+      <c r="M266" s="7">
+        <v>3040</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11579,8 +11593,8 @@
       <c r="G267" s="4">
         <v>552</v>
       </c>
-      <c r="H267" s="4">
-        <v>1.5369999999999999</v>
+      <c r="H267" s="9">
+        <v>1537</v>
       </c>
       <c r="I267" s="4">
         <v>537</v>
@@ -11594,8 +11608,8 @@
       <c r="L267" s="4">
         <v>14</v>
       </c>
-      <c r="M267" s="5">
-        <v>2.6909999999999998</v>
+      <c r="M267" s="7">
+        <v>2691</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11635,8 +11649,8 @@
       <c r="L268" s="4">
         <v>13</v>
       </c>
-      <c r="M268" s="5">
-        <v>2.1589999999999998</v>
+      <c r="M268" s="7">
+        <v>2159</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -11674,8 +11688,8 @@
       <c r="L269" s="4">
         <v>18</v>
       </c>
-      <c r="M269" s="5">
-        <v>1.919</v>
+      <c r="M269" s="7">
+        <v>1919</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -11715,8 +11729,8 @@
       <c r="L270" s="4">
         <v>16</v>
       </c>
-      <c r="M270" s="5">
-        <v>2.1179999999999999</v>
+      <c r="M270" s="7">
+        <v>2118</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -11754,8 +11768,8 @@
       <c r="L271" s="4">
         <v>18</v>
       </c>
-      <c r="M271" s="5">
-        <v>1.9119999999999999</v>
+      <c r="M271" s="7">
+        <v>1912</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -11795,8 +11809,8 @@
       <c r="L272" s="4">
         <v>22</v>
       </c>
-      <c r="M272" s="5">
-        <v>2.3029999999999999</v>
+      <c r="M272" s="7">
+        <v>2303</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -11834,8 +11848,8 @@
       <c r="L273" s="4">
         <v>23</v>
       </c>
-      <c r="M273" s="5">
-        <v>2.073</v>
+      <c r="M273" s="7">
+        <v>2073</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -11875,8 +11889,8 @@
       <c r="L274" s="4">
         <v>17</v>
       </c>
-      <c r="M274" s="5">
-        <v>2.4390000000000001</v>
+      <c r="M274" s="7">
+        <v>2439</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -11890,8 +11904,8 @@
       <c r="D275" s="4">
         <v>36</v>
       </c>
-      <c r="E275" s="4">
-        <v>1.0209999999999999</v>
+      <c r="E275" s="9">
+        <v>1021</v>
       </c>
       <c r="F275" s="4">
         <v>208</v>
@@ -11914,8 +11928,8 @@
       <c r="L275" s="4">
         <v>14</v>
       </c>
-      <c r="M275" s="5">
-        <v>2.3860000000000001</v>
+      <c r="M275" s="7">
+        <v>2386</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -11955,8 +11969,8 @@
       <c r="L276" s="4">
         <v>24</v>
       </c>
-      <c r="M276" s="5">
-        <v>2.403</v>
+      <c r="M276" s="7">
+        <v>2403</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -11970,8 +11984,8 @@
       <c r="D277" s="4">
         <v>29</v>
       </c>
-      <c r="E277" s="4">
-        <v>1.169</v>
+      <c r="E277" s="9">
+        <v>1169</v>
       </c>
       <c r="F277" s="4">
         <v>190</v>
@@ -11994,8 +12008,8 @@
       <c r="L277" s="4">
         <v>23</v>
       </c>
-      <c r="M277" s="5">
-        <v>2.1040000000000001</v>
+      <c r="M277" s="7">
+        <v>2104</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -12011,8 +12025,8 @@
       <c r="D278" s="4">
         <v>19</v>
       </c>
-      <c r="E278" s="4">
-        <v>1.0720000000000001</v>
+      <c r="E278" s="9">
+        <v>1072</v>
       </c>
       <c r="F278" s="4">
         <v>337</v>
@@ -12035,8 +12049,8 @@
       <c r="L278" s="4">
         <v>23</v>
       </c>
-      <c r="M278" s="5">
-        <v>2.4369999999999998</v>
+      <c r="M278" s="7">
+        <v>2437</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -12050,8 +12064,8 @@
       <c r="D279" s="4">
         <v>41</v>
       </c>
-      <c r="E279" s="4">
-        <v>1.3540000000000001</v>
+      <c r="E279" s="9">
+        <v>1354</v>
       </c>
       <c r="F279" s="4">
         <v>205</v>
@@ -12074,8 +12088,8 @@
       <c r="L279" s="4">
         <v>26</v>
       </c>
-      <c r="M279" s="5">
-        <v>2.2170000000000001</v>
+      <c r="M279" s="7">
+        <v>2217</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -12091,8 +12105,8 @@
       <c r="D280" s="4">
         <v>9</v>
       </c>
-      <c r="E280" s="4">
-        <v>1.0369999999999999</v>
+      <c r="E280" s="9">
+        <v>1037</v>
       </c>
       <c r="F280" s="4">
         <v>242</v>
@@ -12115,8 +12129,8 @@
       <c r="L280" s="4">
         <v>30</v>
       </c>
-      <c r="M280" s="5">
-        <v>2.0950000000000002</v>
+      <c r="M280" s="7">
+        <v>2095</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -12130,8 +12144,8 @@
       <c r="D281" s="4">
         <v>76</v>
       </c>
-      <c r="E281" s="4">
-        <v>1.29</v>
+      <c r="E281" s="9">
+        <v>1290</v>
       </c>
       <c r="F281" s="4">
         <v>85</v>
@@ -12154,8 +12168,8 @@
       <c r="L281" s="4">
         <v>24</v>
       </c>
-      <c r="M281" s="5">
-        <v>1.9319999999999999</v>
+      <c r="M281" s="7">
+        <v>1932</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -12171,8 +12185,8 @@
       <c r="D282" s="4">
         <v>20</v>
       </c>
-      <c r="E282" s="4">
-        <v>1.07</v>
+      <c r="E282" s="9">
+        <v>1070</v>
       </c>
       <c r="F282" s="4">
         <v>140</v>
@@ -12195,8 +12209,8 @@
       <c r="L282" s="4">
         <v>24</v>
       </c>
-      <c r="M282" s="5">
-        <v>1.792</v>
+      <c r="M282" s="7">
+        <v>1792</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -12210,8 +12224,8 @@
       <c r="D283" s="4">
         <v>121</v>
       </c>
-      <c r="E283" s="4">
-        <v>1.137</v>
+      <c r="E283" s="9">
+        <v>1137</v>
       </c>
       <c r="F283" s="4">
         <v>52</v>
@@ -12234,8 +12248,8 @@
       <c r="L283" s="4">
         <v>36</v>
       </c>
-      <c r="M283" s="5">
-        <v>1.6479999999999999</v>
+      <c r="M283" s="7">
+        <v>1648</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -12275,8 +12289,8 @@
       <c r="L284" s="4">
         <v>16</v>
       </c>
-      <c r="M284" s="5">
-        <v>1.3240000000000001</v>
+      <c r="M284" s="7">
+        <v>1324</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -12314,8 +12328,8 @@
       <c r="L285" s="4">
         <v>19</v>
       </c>
-      <c r="M285" s="5">
-        <v>1.262</v>
+      <c r="M285" s="7">
+        <v>1262</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -12394,8 +12408,8 @@
       <c r="L287" s="4">
         <v>14</v>
       </c>
-      <c r="M287" s="5">
-        <v>1.032</v>
+      <c r="M287" s="7">
+        <v>1032</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -12411,8 +12425,8 @@
       <c r="D288" s="4">
         <v>236</v>
       </c>
-      <c r="E288" s="4">
-        <v>1.026</v>
+      <c r="E288" s="9">
+        <v>1026</v>
       </c>
       <c r="F288" s="4">
         <v>15</v>
@@ -12435,8 +12449,8 @@
       <c r="L288" s="4">
         <v>17</v>
       </c>
-      <c r="M288" s="5">
-        <v>1.446</v>
+      <c r="M288" s="7">
+        <v>1446</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -12474,8 +12488,8 @@
       <c r="L289" s="4">
         <v>18</v>
       </c>
-      <c r="M289" s="5">
-        <v>1.7869999999999999</v>
+      <c r="M289" s="7">
+        <v>1787</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
@@ -12486,23 +12500,23 @@
       <c r="C290" s="5">
         <v>269</v>
       </c>
-      <c r="D290" s="5">
-        <v>2.3239999999999998</v>
-      </c>
-      <c r="E290" s="5">
-        <v>16.414000000000001</v>
-      </c>
-      <c r="F290" s="5">
-        <v>4.0990000000000002</v>
-      </c>
-      <c r="G290" s="5">
-        <v>6.3170000000000002</v>
-      </c>
-      <c r="H290" s="5">
-        <v>9.9670000000000005</v>
-      </c>
-      <c r="I290" s="5">
-        <v>6.7969999999999997</v>
+      <c r="D290" s="7">
+        <v>2324</v>
+      </c>
+      <c r="E290" s="7">
+        <v>16414</v>
+      </c>
+      <c r="F290" s="7">
+        <v>4099</v>
+      </c>
+      <c r="G290" s="7">
+        <v>6317</v>
+      </c>
+      <c r="H290" s="7">
+        <v>9967</v>
+      </c>
+      <c r="I290" s="7">
+        <v>6797</v>
       </c>
       <c r="J290" s="5">
         <v>674</v>
@@ -12513,8 +12527,8 @@
       <c r="L290" s="5">
         <v>486</v>
       </c>
-      <c r="M290" s="5">
-        <v>47.411000000000001</v>
+      <c r="M290" s="7">
+        <v>47411</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -12578,8 +12592,8 @@
       <c r="G292" s="4">
         <v>371</v>
       </c>
-      <c r="H292" s="4">
-        <v>1.419</v>
+      <c r="H292" s="9">
+        <v>1419</v>
       </c>
       <c r="I292" s="4">
         <v>223</v>
@@ -12593,8 +12607,8 @@
       <c r="L292" s="4">
         <v>32</v>
       </c>
-      <c r="M292" s="5">
-        <v>2.0590000000000002</v>
+      <c r="M292" s="7">
+        <v>2059</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12617,8 +12631,8 @@
       <c r="G293" s="4">
         <v>194</v>
       </c>
-      <c r="H293" s="4">
-        <v>1.1830000000000001</v>
+      <c r="H293" s="9">
+        <v>1183</v>
       </c>
       <c r="I293" s="4">
         <v>368</v>
@@ -12632,8 +12646,8 @@
       <c r="L293" s="4">
         <v>19</v>
       </c>
-      <c r="M293" s="5">
-        <v>1.792</v>
+      <c r="M293" s="7">
+        <v>1792</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12673,8 +12687,8 @@
       <c r="L294" s="4">
         <v>25</v>
       </c>
-      <c r="M294" s="5">
-        <v>1.5229999999999999</v>
+      <c r="M294" s="7">
+        <v>1523</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -12712,8 +12726,8 @@
       <c r="L295" s="4">
         <v>41</v>
       </c>
-      <c r="M295" s="5">
-        <v>1.33</v>
+      <c r="M295" s="7">
+        <v>1330</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -12753,8 +12767,8 @@
       <c r="L296" s="4">
         <v>46</v>
       </c>
-      <c r="M296" s="5">
-        <v>1.6739999999999999</v>
+      <c r="M296" s="7">
+        <v>1674</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -12792,8 +12806,8 @@
       <c r="L297" s="4">
         <v>89</v>
       </c>
-      <c r="M297" s="5">
-        <v>1.4390000000000001</v>
+      <c r="M297" s="7">
+        <v>1439</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -12833,8 +12847,8 @@
       <c r="L298" s="4">
         <v>54</v>
       </c>
-      <c r="M298" s="5">
-        <v>2.0249999999999999</v>
+      <c r="M298" s="7">
+        <v>2025</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -12872,8 +12886,8 @@
       <c r="L299" s="4">
         <v>136</v>
       </c>
-      <c r="M299" s="5">
-        <v>1.635</v>
+      <c r="M299" s="7">
+        <v>1635</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -12898,8 +12912,8 @@
       <c r="G300" s="4">
         <v>355</v>
       </c>
-      <c r="H300" s="4">
-        <v>1.024</v>
+      <c r="H300" s="9">
+        <v>1024</v>
       </c>
       <c r="I300" s="4">
         <v>400</v>
@@ -12913,8 +12927,8 @@
       <c r="L300" s="4">
         <v>53</v>
       </c>
-      <c r="M300" s="5">
-        <v>2.2890000000000001</v>
+      <c r="M300" s="7">
+        <v>2289</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -12952,8 +12966,8 @@
       <c r="L301" s="4">
         <v>98</v>
       </c>
-      <c r="M301" s="5">
-        <v>1.798</v>
+      <c r="M301" s="7">
+        <v>1798</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -12993,8 +13007,8 @@
       <c r="L302" s="4">
         <v>61</v>
       </c>
-      <c r="M302" s="5">
-        <v>2.1379999999999999</v>
+      <c r="M302" s="7">
+        <v>2138</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -13032,8 +13046,8 @@
       <c r="L303" s="4">
         <v>67</v>
       </c>
-      <c r="M303" s="5">
-        <v>1.54</v>
+      <c r="M303" s="7">
+        <v>1540</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -13073,8 +13087,8 @@
       <c r="L304" s="4">
         <v>59</v>
       </c>
-      <c r="M304" s="5">
-        <v>1.78</v>
+      <c r="M304" s="7">
+        <v>1780</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -13112,8 +13126,8 @@
       <c r="L305" s="4">
         <v>56</v>
       </c>
-      <c r="M305" s="5">
-        <v>1.3979999999999999</v>
+      <c r="M305" s="7">
+        <v>1398</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -13153,8 +13167,8 @@
       <c r="L306" s="4">
         <v>56</v>
       </c>
-      <c r="M306" s="5">
-        <v>1.466</v>
+      <c r="M306" s="7">
+        <v>1466</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -13192,8 +13206,8 @@
       <c r="L307" s="4">
         <v>57</v>
       </c>
-      <c r="M307" s="5">
-        <v>1.194</v>
+      <c r="M307" s="7">
+        <v>1194</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -13233,8 +13247,8 @@
       <c r="L308" s="4">
         <v>56</v>
       </c>
-      <c r="M308" s="5">
-        <v>1.1140000000000001</v>
+      <c r="M308" s="7">
+        <v>1114</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -13527,20 +13541,20 @@
       <c r="D316" s="5">
         <v>901</v>
       </c>
-      <c r="E316" s="5">
-        <v>4.7460000000000004</v>
-      </c>
-      <c r="F316" s="5">
-        <v>2.3090000000000002</v>
-      </c>
-      <c r="G316" s="5">
-        <v>4.2190000000000003</v>
-      </c>
-      <c r="H316" s="5">
-        <v>12.118</v>
-      </c>
-      <c r="I316" s="5">
-        <v>6.44</v>
+      <c r="E316" s="7">
+        <v>4746</v>
+      </c>
+      <c r="F316" s="7">
+        <v>2309</v>
+      </c>
+      <c r="G316" s="7">
+        <v>4219</v>
+      </c>
+      <c r="H316" s="7">
+        <v>12118</v>
+      </c>
+      <c r="I316" s="7">
+        <v>6440</v>
       </c>
       <c r="J316" s="5">
         <v>506</v>
@@ -13548,11 +13562,11 @@
       <c r="K316" s="5">
         <v>61</v>
       </c>
-      <c r="L316" s="5">
-        <v>1.234</v>
-      </c>
-      <c r="M316" s="5">
-        <v>32.866999999999997</v>
+      <c r="L316" s="7">
+        <v>1234</v>
+      </c>
+      <c r="M316" s="7">
+        <v>32867</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -13613,14 +13627,14 @@
       <c r="F318" s="4">
         <v>7</v>
       </c>
-      <c r="G318" s="4">
-        <v>8.6020000000000003</v>
-      </c>
-      <c r="H318" s="4">
-        <v>18.907</v>
-      </c>
-      <c r="I318" s="4">
-        <v>3.8490000000000002</v>
+      <c r="G318" s="9">
+        <v>8602</v>
+      </c>
+      <c r="H318" s="9">
+        <v>18907</v>
+      </c>
+      <c r="I318" s="9">
+        <v>3849</v>
       </c>
       <c r="J318" s="4">
         <v>24</v>
@@ -13631,8 +13645,8 @@
       <c r="L318" s="4">
         <v>268</v>
       </c>
-      <c r="M318" s="5">
-        <v>31.867999999999999</v>
+      <c r="M318" s="7">
+        <v>31868</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -13652,14 +13666,14 @@
       <c r="F319" s="4">
         <v>4</v>
       </c>
-      <c r="G319" s="4">
-        <v>5.6870000000000003</v>
-      </c>
-      <c r="H319" s="4">
-        <v>18.23</v>
-      </c>
-      <c r="I319" s="4">
-        <v>6.3179999999999996</v>
+      <c r="G319" s="9">
+        <v>5687</v>
+      </c>
+      <c r="H319" s="9">
+        <v>18230</v>
+      </c>
+      <c r="I319" s="9">
+        <v>6318</v>
       </c>
       <c r="J319" s="4">
         <v>37</v>
@@ -13670,8 +13684,8 @@
       <c r="L319" s="4">
         <v>141</v>
       </c>
-      <c r="M319" s="5">
-        <v>30.722999999999999</v>
+      <c r="M319" s="7">
+        <v>30723</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -13693,14 +13707,14 @@
       <c r="F320" s="4">
         <v>176</v>
       </c>
-      <c r="G320" s="4">
-        <v>6.8869999999999996</v>
-      </c>
-      <c r="H320" s="4">
-        <v>8.4459999999999997</v>
-      </c>
-      <c r="I320" s="4">
-        <v>9.173</v>
+      <c r="G320" s="9">
+        <v>6887</v>
+      </c>
+      <c r="H320" s="9">
+        <v>8446</v>
+      </c>
+      <c r="I320" s="9">
+        <v>9173</v>
       </c>
       <c r="J320" s="4">
         <v>583</v>
@@ -13711,8 +13725,8 @@
       <c r="L320" s="4">
         <v>194</v>
       </c>
-      <c r="M320" s="5">
-        <v>25.76</v>
+      <c r="M320" s="7">
+        <v>25760</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -13732,14 +13746,14 @@
       <c r="F321" s="4">
         <v>291</v>
       </c>
-      <c r="G321" s="4">
-        <v>4.8419999999999996</v>
-      </c>
-      <c r="H321" s="4">
-        <v>6.7789999999999999</v>
-      </c>
-      <c r="I321" s="4">
-        <v>11.574999999999999</v>
+      <c r="G321" s="9">
+        <v>4842</v>
+      </c>
+      <c r="H321" s="9">
+        <v>6779</v>
+      </c>
+      <c r="I321" s="9">
+        <v>11575</v>
       </c>
       <c r="J321" s="4">
         <v>748</v>
@@ -13750,8 +13764,8 @@
       <c r="L321" s="4">
         <v>221</v>
       </c>
-      <c r="M321" s="5">
-        <v>25.411999999999999</v>
+      <c r="M321" s="7">
+        <v>25412</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -13770,17 +13784,17 @@
       <c r="E322" s="4">
         <v>247</v>
       </c>
-      <c r="F322" s="4">
-        <v>3.3969999999999998</v>
-      </c>
-      <c r="G322" s="4">
-        <v>3.3719999999999999</v>
-      </c>
-      <c r="H322" s="4">
-        <v>8.9309999999999992</v>
-      </c>
-      <c r="I322" s="4">
-        <v>8.1470000000000002</v>
+      <c r="F322" s="9">
+        <v>3397</v>
+      </c>
+      <c r="G322" s="9">
+        <v>3372</v>
+      </c>
+      <c r="H322" s="9">
+        <v>8931</v>
+      </c>
+      <c r="I322" s="9">
+        <v>8147</v>
       </c>
       <c r="J322" s="4">
         <v>709</v>
@@ -13791,8 +13805,8 @@
       <c r="L322" s="4">
         <v>233</v>
       </c>
-      <c r="M322" s="5">
-        <v>25.391999999999999</v>
+      <c r="M322" s="7">
+        <v>25392</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -13809,17 +13823,17 @@
       <c r="E323" s="4">
         <v>577</v>
       </c>
-      <c r="F323" s="4">
-        <v>3.4489999999999998</v>
-      </c>
-      <c r="G323" s="4">
-        <v>2.5840000000000001</v>
-      </c>
-      <c r="H323" s="4">
-        <v>7.3650000000000002</v>
-      </c>
-      <c r="I323" s="4">
-        <v>8.8870000000000005</v>
+      <c r="F323" s="9">
+        <v>3449</v>
+      </c>
+      <c r="G323" s="9">
+        <v>2584</v>
+      </c>
+      <c r="H323" s="9">
+        <v>7365</v>
+      </c>
+      <c r="I323" s="9">
+        <v>8887</v>
       </c>
       <c r="J323" s="4">
         <v>678</v>
@@ -13830,8 +13844,8 @@
       <c r="L323" s="4">
         <v>363</v>
       </c>
-      <c r="M323" s="5">
-        <v>24.79</v>
+      <c r="M323" s="7">
+        <v>24790</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -13847,20 +13861,20 @@
       <c r="D324" s="4">
         <v>197</v>
       </c>
-      <c r="E324" s="4">
-        <v>1.4370000000000001</v>
-      </c>
-      <c r="F324" s="4">
-        <v>3.9670000000000001</v>
-      </c>
-      <c r="G324" s="4">
-        <v>2.8039999999999998</v>
-      </c>
-      <c r="H324" s="4">
-        <v>9.6039999999999992</v>
-      </c>
-      <c r="I324" s="4">
-        <v>6.1239999999999997</v>
+      <c r="E324" s="9">
+        <v>1437</v>
+      </c>
+      <c r="F324" s="9">
+        <v>3967</v>
+      </c>
+      <c r="G324" s="9">
+        <v>2804</v>
+      </c>
+      <c r="H324" s="9">
+        <v>9604</v>
+      </c>
+      <c r="I324" s="9">
+        <v>6124</v>
       </c>
       <c r="J324" s="4">
         <v>617</v>
@@ -13871,8 +13885,8 @@
       <c r="L324" s="4">
         <v>237</v>
       </c>
-      <c r="M324" s="5">
-        <v>25.058</v>
+      <c r="M324" s="7">
+        <v>25058</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -13886,20 +13900,20 @@
       <c r="D325" s="4">
         <v>484</v>
       </c>
-      <c r="E325" s="4">
-        <v>3.238</v>
-      </c>
-      <c r="F325" s="4">
-        <v>3.169</v>
-      </c>
-      <c r="G325" s="4">
-        <v>2.66</v>
-      </c>
-      <c r="H325" s="4">
-        <v>7.7789999999999999</v>
-      </c>
-      <c r="I325" s="4">
-        <v>5.681</v>
+      <c r="E325" s="9">
+        <v>3238</v>
+      </c>
+      <c r="F325" s="9">
+        <v>3169</v>
+      </c>
+      <c r="G325" s="9">
+        <v>2660</v>
+      </c>
+      <c r="H325" s="9">
+        <v>7779</v>
+      </c>
+      <c r="I325" s="9">
+        <v>5681</v>
       </c>
       <c r="J325" s="4">
         <v>521</v>
@@ -13910,8 +13924,8 @@
       <c r="L325" s="4">
         <v>382</v>
       </c>
-      <c r="M325" s="5">
-        <v>24.146999999999998</v>
+      <c r="M325" s="7">
+        <v>24147</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -13927,20 +13941,20 @@
       <c r="D326" s="4">
         <v>99</v>
       </c>
-      <c r="E326" s="4">
-        <v>2.7909999999999999</v>
-      </c>
-      <c r="F326" s="4">
-        <v>3.1640000000000001</v>
-      </c>
-      <c r="G326" s="4">
-        <v>4.5650000000000004</v>
-      </c>
-      <c r="H326" s="4">
-        <v>9.5289999999999999</v>
-      </c>
-      <c r="I326" s="4">
-        <v>4.4710000000000001</v>
+      <c r="E326" s="9">
+        <v>2791</v>
+      </c>
+      <c r="F326" s="9">
+        <v>3164</v>
+      </c>
+      <c r="G326" s="9">
+        <v>4565</v>
+      </c>
+      <c r="H326" s="9">
+        <v>9529</v>
+      </c>
+      <c r="I326" s="9">
+        <v>4471</v>
       </c>
       <c r="J326" s="4">
         <v>521</v>
@@ -13951,8 +13965,8 @@
       <c r="L326" s="4">
         <v>227</v>
       </c>
-      <c r="M326" s="5">
-        <v>25.469000000000001</v>
+      <c r="M326" s="7">
+        <v>25469</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -13966,20 +13980,20 @@
       <c r="D327" s="4">
         <v>438</v>
       </c>
-      <c r="E327" s="4">
-        <v>5.258</v>
-      </c>
-      <c r="F327" s="4">
-        <v>2.5019999999999998</v>
-      </c>
-      <c r="G327" s="4">
-        <v>3.97</v>
-      </c>
-      <c r="H327" s="4">
-        <v>7.5960000000000001</v>
-      </c>
-      <c r="I327" s="4">
-        <v>3.8690000000000002</v>
+      <c r="E327" s="9">
+        <v>5258</v>
+      </c>
+      <c r="F327" s="9">
+        <v>2502</v>
+      </c>
+      <c r="G327" s="9">
+        <v>3970</v>
+      </c>
+      <c r="H327" s="9">
+        <v>7596</v>
+      </c>
+      <c r="I327" s="9">
+        <v>3869</v>
       </c>
       <c r="J327" s="4">
         <v>416</v>
@@ -13990,8 +14004,8 @@
       <c r="L327" s="4">
         <v>261</v>
       </c>
-      <c r="M327" s="5">
-        <v>24.585999999999999</v>
+      <c r="M327" s="7">
+        <v>24586</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -14007,20 +14021,20 @@
       <c r="D328" s="4">
         <v>60</v>
       </c>
-      <c r="E328" s="4">
-        <v>3.1970000000000001</v>
-      </c>
-      <c r="F328" s="4">
-        <v>3.3340000000000001</v>
-      </c>
-      <c r="G328" s="4">
-        <v>3.7320000000000002</v>
-      </c>
-      <c r="H328" s="4">
-        <v>7.3680000000000003</v>
-      </c>
-      <c r="I328" s="4">
-        <v>3.355</v>
+      <c r="E328" s="9">
+        <v>3197</v>
+      </c>
+      <c r="F328" s="9">
+        <v>3334</v>
+      </c>
+      <c r="G328" s="9">
+        <v>3732</v>
+      </c>
+      <c r="H328" s="9">
+        <v>7368</v>
+      </c>
+      <c r="I328" s="9">
+        <v>3355</v>
       </c>
       <c r="J328" s="4">
         <v>310</v>
@@ -14031,8 +14045,8 @@
       <c r="L328" s="4">
         <v>197</v>
       </c>
-      <c r="M328" s="5">
-        <v>21.657</v>
+      <c r="M328" s="7">
+        <v>21657</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -14046,20 +14060,20 @@
       <c r="D329" s="4">
         <v>405</v>
       </c>
-      <c r="E329" s="4">
-        <v>5.7709999999999999</v>
-      </c>
-      <c r="F329" s="4">
-        <v>2.8780000000000001</v>
-      </c>
-      <c r="G329" s="4">
-        <v>3.4710000000000001</v>
-      </c>
-      <c r="H329" s="4">
-        <v>5.702</v>
-      </c>
-      <c r="I329" s="4">
-        <v>2.3410000000000002</v>
+      <c r="E329" s="9">
+        <v>5771</v>
+      </c>
+      <c r="F329" s="9">
+        <v>2878</v>
+      </c>
+      <c r="G329" s="9">
+        <v>3471</v>
+      </c>
+      <c r="H329" s="9">
+        <v>5702</v>
+      </c>
+      <c r="I329" s="9">
+        <v>2341</v>
       </c>
       <c r="J329" s="4">
         <v>197</v>
@@ -14070,8 +14084,8 @@
       <c r="L329" s="4">
         <v>209</v>
       </c>
-      <c r="M329" s="5">
-        <v>21.215</v>
+      <c r="M329" s="7">
+        <v>21215</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -14087,20 +14101,20 @@
       <c r="D330" s="4">
         <v>58</v>
       </c>
-      <c r="E330" s="4">
-        <v>3.24</v>
-      </c>
-      <c r="F330" s="4">
-        <v>3.5339999999999998</v>
-      </c>
-      <c r="G330" s="4">
-        <v>3.5230000000000001</v>
-      </c>
-      <c r="H330" s="4">
-        <v>5.3259999999999996</v>
-      </c>
-      <c r="I330" s="4">
-        <v>2.4569999999999999</v>
+      <c r="E330" s="9">
+        <v>3240</v>
+      </c>
+      <c r="F330" s="9">
+        <v>3534</v>
+      </c>
+      <c r="G330" s="9">
+        <v>3523</v>
+      </c>
+      <c r="H330" s="9">
+        <v>5326</v>
+      </c>
+      <c r="I330" s="9">
+        <v>2457</v>
       </c>
       <c r="J330" s="4">
         <v>182</v>
@@ -14111,8 +14125,8 @@
       <c r="L330" s="4">
         <v>210</v>
       </c>
-      <c r="M330" s="5">
-        <v>18.614999999999998</v>
+      <c r="M330" s="7">
+        <v>18615</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -14126,20 +14140,20 @@
       <c r="D331" s="4">
         <v>498</v>
       </c>
-      <c r="E331" s="4">
-        <v>6.23</v>
-      </c>
-      <c r="F331" s="4">
-        <v>2.7450000000000001</v>
-      </c>
-      <c r="G331" s="4">
-        <v>2.8849999999999998</v>
-      </c>
-      <c r="H331" s="4">
-        <v>3.7440000000000002</v>
-      </c>
-      <c r="I331" s="4">
-        <v>1.2909999999999999</v>
+      <c r="E331" s="9">
+        <v>6230</v>
+      </c>
+      <c r="F331" s="9">
+        <v>2745</v>
+      </c>
+      <c r="G331" s="9">
+        <v>2885</v>
+      </c>
+      <c r="H331" s="9">
+        <v>3744</v>
+      </c>
+      <c r="I331" s="9">
+        <v>1291</v>
       </c>
       <c r="J331" s="4">
         <v>102</v>
@@ -14150,8 +14164,8 @@
       <c r="L331" s="4">
         <v>239</v>
       </c>
-      <c r="M331" s="5">
-        <v>18.029</v>
+      <c r="M331" s="7">
+        <v>18029</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -14167,20 +14181,20 @@
       <c r="D332" s="4">
         <v>88</v>
       </c>
-      <c r="E332" s="4">
-        <v>3.677</v>
-      </c>
-      <c r="F332" s="4">
-        <v>2.875</v>
-      </c>
-      <c r="G332" s="4">
-        <v>2.7930000000000001</v>
-      </c>
-      <c r="H332" s="4">
-        <v>3.9689999999999999</v>
-      </c>
-      <c r="I332" s="4">
-        <v>1.6919999999999999</v>
+      <c r="E332" s="9">
+        <v>3677</v>
+      </c>
+      <c r="F332" s="9">
+        <v>2875</v>
+      </c>
+      <c r="G332" s="9">
+        <v>2793</v>
+      </c>
+      <c r="H332" s="9">
+        <v>3969</v>
+      </c>
+      <c r="I332" s="9">
+        <v>1692</v>
       </c>
       <c r="J332" s="4">
         <v>143</v>
@@ -14191,8 +14205,8 @@
       <c r="L332" s="4">
         <v>223</v>
       </c>
-      <c r="M332" s="5">
-        <v>15.526</v>
+      <c r="M332" s="7">
+        <v>15526</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -14206,17 +14220,17 @@
       <c r="D333" s="4">
         <v>640</v>
       </c>
-      <c r="E333" s="4">
-        <v>6.665</v>
-      </c>
-      <c r="F333" s="4">
-        <v>1.6859999999999999</v>
-      </c>
-      <c r="G333" s="4">
-        <v>1.849</v>
-      </c>
-      <c r="H333" s="4">
-        <v>2.4169999999999998</v>
+      <c r="E333" s="9">
+        <v>6665</v>
+      </c>
+      <c r="F333" s="9">
+        <v>1686</v>
+      </c>
+      <c r="G333" s="9">
+        <v>1849</v>
+      </c>
+      <c r="H333" s="9">
+        <v>2417</v>
       </c>
       <c r="I333" s="4">
         <v>777</v>
@@ -14230,8 +14244,8 @@
       <c r="L333" s="4">
         <v>248</v>
       </c>
-      <c r="M333" s="5">
-        <v>14.734</v>
+      <c r="M333" s="7">
+        <v>14734</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -14247,20 +14261,20 @@
       <c r="D334" s="4">
         <v>105</v>
       </c>
-      <c r="E334" s="4">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="F334" s="4">
-        <v>1.575</v>
-      </c>
-      <c r="G334" s="4">
-        <v>1.7809999999999999</v>
-      </c>
-      <c r="H334" s="4">
-        <v>2.8410000000000002</v>
-      </c>
-      <c r="I334" s="4">
-        <v>1.2010000000000001</v>
+      <c r="E334" s="9">
+        <v>4060</v>
+      </c>
+      <c r="F334" s="9">
+        <v>1575</v>
+      </c>
+      <c r="G334" s="9">
+        <v>1781</v>
+      </c>
+      <c r="H334" s="9">
+        <v>2841</v>
+      </c>
+      <c r="I334" s="9">
+        <v>1201</v>
       </c>
       <c r="J334" s="4">
         <v>89</v>
@@ -14271,8 +14285,8 @@
       <c r="L334" s="4">
         <v>203</v>
       </c>
-      <c r="M334" s="5">
-        <v>11.914</v>
+      <c r="M334" s="7">
+        <v>11914</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -14286,17 +14300,17 @@
       <c r="D335" s="4">
         <v>776</v>
       </c>
-      <c r="E335" s="4">
-        <v>6.5430000000000001</v>
+      <c r="E335" s="9">
+        <v>6543</v>
       </c>
       <c r="F335" s="4">
         <v>813</v>
       </c>
-      <c r="G335" s="4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="H335" s="4">
-        <v>1.4830000000000001</v>
+      <c r="G335" s="9">
+        <v>1013</v>
+      </c>
+      <c r="H335" s="9">
+        <v>1483</v>
       </c>
       <c r="I335" s="4">
         <v>484</v>
@@ -14310,8 +14324,8 @@
       <c r="L335" s="4">
         <v>199</v>
       </c>
-      <c r="M335" s="5">
-        <v>11.923</v>
+      <c r="M335" s="7">
+        <v>11923</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -14327,17 +14341,17 @@
       <c r="D336" s="4">
         <v>160</v>
       </c>
-      <c r="E336" s="4">
-        <v>3.7810000000000001</v>
+      <c r="E336" s="9">
+        <v>3781</v>
       </c>
       <c r="F336" s="4">
         <v>636</v>
       </c>
-      <c r="G336" s="4">
-        <v>1.0720000000000001</v>
-      </c>
-      <c r="H336" s="4">
-        <v>1.421</v>
+      <c r="G336" s="9">
+        <v>1072</v>
+      </c>
+      <c r="H336" s="9">
+        <v>1421</v>
       </c>
       <c r="I336" s="4">
         <v>947</v>
@@ -14351,8 +14365,8 @@
       <c r="L336" s="4">
         <v>181</v>
       </c>
-      <c r="M336" s="5">
-        <v>8.3409999999999993</v>
+      <c r="M336" s="7">
+        <v>8341</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
@@ -14366,8 +14380,8 @@
       <c r="D337" s="4">
         <v>955</v>
       </c>
-      <c r="E337" s="4">
-        <v>5.008</v>
+      <c r="E337" s="9">
+        <v>5008</v>
       </c>
       <c r="F337" s="4">
         <v>272</v>
@@ -14390,8 +14404,8 @@
       <c r="L337" s="4">
         <v>160</v>
       </c>
-      <c r="M337" s="5">
-        <v>8.8529999999999998</v>
+      <c r="M337" s="7">
+        <v>8853</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -14407,8 +14421,8 @@
       <c r="D338" s="4">
         <v>169</v>
       </c>
-      <c r="E338" s="4">
-        <v>2.8290000000000002</v>
+      <c r="E338" s="9">
+        <v>2829</v>
       </c>
       <c r="F338" s="4">
         <v>191</v>
@@ -14431,8 +14445,8 @@
       <c r="L338" s="4">
         <v>106</v>
       </c>
-      <c r="M338" s="5">
-        <v>5.2679999999999998</v>
+      <c r="M338" s="7">
+        <v>5268</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
@@ -14446,8 +14460,8 @@
       <c r="D339" s="4">
         <v>998</v>
       </c>
-      <c r="E339" s="4">
-        <v>2.9729999999999999</v>
+      <c r="E339" s="9">
+        <v>2973</v>
       </c>
       <c r="F339" s="4">
         <v>60</v>
@@ -14470,8 +14484,8 @@
       <c r="L339" s="4">
         <v>114</v>
       </c>
-      <c r="M339" s="5">
-        <v>5.7789999999999999</v>
+      <c r="M339" s="7">
+        <v>5779</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
@@ -14487,8 +14501,8 @@
       <c r="D340" s="4">
         <v>412</v>
       </c>
-      <c r="E340" s="4">
-        <v>2.8380000000000001</v>
+      <c r="E340" s="9">
+        <v>2838</v>
       </c>
       <c r="F340" s="4">
         <v>67</v>
@@ -14511,8 +14525,8 @@
       <c r="L340" s="4">
         <v>111</v>
       </c>
-      <c r="M340" s="5">
-        <v>4.8490000000000002</v>
+      <c r="M340" s="7">
+        <v>4849</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
@@ -14520,14 +14534,14 @@
       <c r="B341" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C341" s="4">
-        <v>1.8180000000000001</v>
-      </c>
-      <c r="D341" s="4">
-        <v>1.4930000000000001</v>
-      </c>
-      <c r="E341" s="4">
-        <v>2.5880000000000001</v>
+      <c r="C341" s="9">
+        <v>1818</v>
+      </c>
+      <c r="D341" s="9">
+        <v>1493</v>
+      </c>
+      <c r="E341" s="9">
+        <v>2588</v>
       </c>
       <c r="F341" s="4">
         <v>29</v>
@@ -14550,8 +14564,8 @@
       <c r="L341" s="4">
         <v>132</v>
       </c>
-      <c r="M341" s="5">
-        <v>6.577</v>
+      <c r="M341" s="7">
+        <v>6577</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
@@ -14559,38 +14573,38 @@
         <v>12</v>
       </c>
       <c r="B342" s="6"/>
-      <c r="C342" s="5">
-        <v>6.0140000000000002</v>
-      </c>
-      <c r="D342" s="5">
-        <v>9.7810000000000006</v>
-      </c>
-      <c r="E342" s="5">
-        <v>73.912000000000006</v>
-      </c>
-      <c r="F342" s="5">
-        <v>40.820999999999998</v>
-      </c>
-      <c r="G342" s="5">
-        <v>70.013000000000005</v>
-      </c>
-      <c r="H342" s="5">
-        <v>139.893</v>
-      </c>
-      <c r="I342" s="5">
-        <v>84.221000000000004</v>
-      </c>
-      <c r="J342" s="5">
-        <v>6.1429999999999998</v>
+      <c r="C342" s="7">
+        <v>6014</v>
+      </c>
+      <c r="D342" s="7">
+        <v>9781</v>
+      </c>
+      <c r="E342" s="7">
+        <v>73912</v>
+      </c>
+      <c r="F342" s="7">
+        <v>40821</v>
+      </c>
+      <c r="G342" s="7">
+        <v>70013</v>
+      </c>
+      <c r="H342" s="7">
+        <v>139893</v>
+      </c>
+      <c r="I342" s="7">
+        <v>84221</v>
+      </c>
+      <c r="J342" s="7">
+        <v>6143</v>
       </c>
       <c r="K342" s="5">
         <v>628</v>
       </c>
-      <c r="L342" s="5">
-        <v>5.0590000000000002</v>
-      </c>
-      <c r="M342" s="5">
-        <v>436.48500000000001</v>
+      <c r="L342" s="7">
+        <v>5059</v>
+      </c>
+      <c r="M342" s="7">
+        <v>436485</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -14654,8 +14668,8 @@
       <c r="G344" s="4">
         <v>963</v>
       </c>
-      <c r="H344" s="4">
-        <v>4.8369999999999997</v>
+      <c r="H344" s="9">
+        <v>4837</v>
       </c>
       <c r="I344" s="4">
         <v>928</v>
@@ -14669,8 +14683,8 @@
       <c r="L344" s="4">
         <v>96</v>
       </c>
-      <c r="M344" s="5">
-        <v>6.8890000000000002</v>
+      <c r="M344" s="7">
+        <v>6889</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -14693,11 +14707,11 @@
       <c r="G345" s="4">
         <v>690</v>
       </c>
-      <c r="H345" s="4">
-        <v>4.5149999999999997</v>
-      </c>
-      <c r="I345" s="4">
-        <v>1.3560000000000001</v>
+      <c r="H345" s="9">
+        <v>4515</v>
+      </c>
+      <c r="I345" s="9">
+        <v>1356</v>
       </c>
       <c r="J345" s="4">
         <v>39</v>
@@ -14708,8 +14722,8 @@
       <c r="L345" s="4">
         <v>86</v>
       </c>
-      <c r="M345" s="5">
-        <v>6.7350000000000003</v>
+      <c r="M345" s="7">
+        <v>6735</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -14734,11 +14748,11 @@
       <c r="G346" s="4">
         <v>542</v>
       </c>
-      <c r="H346" s="4">
-        <v>1.4470000000000001</v>
-      </c>
-      <c r="I346" s="4">
-        <v>2.4039999999999999</v>
+      <c r="H346" s="9">
+        <v>1447</v>
+      </c>
+      <c r="I346" s="9">
+        <v>2404</v>
       </c>
       <c r="J346" s="4">
         <v>298</v>
@@ -14749,8 +14763,8 @@
       <c r="L346" s="4">
         <v>107</v>
       </c>
-      <c r="M346" s="5">
-        <v>4.8330000000000002</v>
+      <c r="M346" s="7">
+        <v>4833</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
@@ -14776,8 +14790,8 @@
       <c r="H347" s="4">
         <v>978</v>
       </c>
-      <c r="I347" s="4">
-        <v>2.8420000000000001</v>
+      <c r="I347" s="9">
+        <v>2842</v>
       </c>
       <c r="J347" s="4">
         <v>455</v>
@@ -14788,8 +14802,8 @@
       <c r="L347" s="4">
         <v>127</v>
       </c>
-      <c r="M347" s="5">
-        <v>4.7560000000000002</v>
+      <c r="M347" s="7">
+        <v>4756</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
@@ -14814,11 +14828,11 @@
       <c r="G348" s="4">
         <v>299</v>
       </c>
-      <c r="H348" s="4">
-        <v>1.329</v>
-      </c>
-      <c r="I348" s="4">
-        <v>2.5390000000000001</v>
+      <c r="H348" s="9">
+        <v>1329</v>
+      </c>
+      <c r="I348" s="9">
+        <v>2539</v>
       </c>
       <c r="J348" s="4">
         <v>528</v>
@@ -14829,8 +14843,8 @@
       <c r="L348" s="4">
         <v>131</v>
       </c>
-      <c r="M348" s="5">
-        <v>5.101</v>
+      <c r="M348" s="7">
+        <v>5101</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
@@ -14853,11 +14867,11 @@
       <c r="G349" s="4">
         <v>199</v>
       </c>
-      <c r="H349" s="4">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="I349" s="4">
-        <v>3.04</v>
+      <c r="H349" s="9">
+        <v>1178</v>
+      </c>
+      <c r="I349" s="9">
+        <v>3040</v>
       </c>
       <c r="J349" s="4">
         <v>678</v>
@@ -14868,8 +14882,8 @@
       <c r="L349" s="4">
         <v>277</v>
       </c>
-      <c r="M349" s="5">
-        <v>5.702</v>
+      <c r="M349" s="7">
+        <v>5702</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
@@ -14894,11 +14908,11 @@
       <c r="G350" s="4">
         <v>323</v>
       </c>
-      <c r="H350" s="4">
-        <v>1.712</v>
-      </c>
-      <c r="I350" s="4">
-        <v>2.9550000000000001</v>
+      <c r="H350" s="9">
+        <v>1712</v>
+      </c>
+      <c r="I350" s="9">
+        <v>2955</v>
       </c>
       <c r="J350" s="4">
         <v>608</v>
@@ -14909,8 +14923,8 @@
       <c r="L350" s="4">
         <v>193</v>
       </c>
-      <c r="M350" s="5">
-        <v>6.3570000000000002</v>
+      <c r="M350" s="7">
+        <v>6357</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
@@ -14933,11 +14947,11 @@
       <c r="G351" s="4">
         <v>262</v>
       </c>
-      <c r="H351" s="4">
-        <v>1.784</v>
-      </c>
-      <c r="I351" s="4">
-        <v>3.4769999999999999</v>
+      <c r="H351" s="9">
+        <v>1784</v>
+      </c>
+      <c r="I351" s="9">
+        <v>3477</v>
       </c>
       <c r="J351" s="4">
         <v>748</v>
@@ -14948,8 +14962,8 @@
       <c r="L351" s="4">
         <v>392</v>
       </c>
-      <c r="M351" s="5">
-        <v>7.3570000000000002</v>
+      <c r="M351" s="7">
+        <v>7357</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
@@ -14974,11 +14988,11 @@
       <c r="G352" s="4">
         <v>593</v>
       </c>
-      <c r="H352" s="4">
-        <v>2.1360000000000001</v>
-      </c>
-      <c r="I352" s="4">
-        <v>3.1720000000000002</v>
+      <c r="H352" s="9">
+        <v>2136</v>
+      </c>
+      <c r="I352" s="9">
+        <v>3172</v>
       </c>
       <c r="J352" s="4">
         <v>687</v>
@@ -14989,8 +15003,8 @@
       <c r="L352" s="4">
         <v>232</v>
       </c>
-      <c r="M352" s="5">
-        <v>7.5439999999999996</v>
+      <c r="M352" s="7">
+        <v>7544</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
@@ -15013,11 +15027,11 @@
       <c r="G353" s="4">
         <v>490</v>
       </c>
-      <c r="H353" s="4">
-        <v>2.3239999999999998</v>
-      </c>
-      <c r="I353" s="4">
-        <v>3.6110000000000002</v>
+      <c r="H353" s="9">
+        <v>2324</v>
+      </c>
+      <c r="I353" s="9">
+        <v>3611</v>
       </c>
       <c r="J353" s="4">
         <v>776</v>
@@ -15028,8 +15042,8 @@
       <c r="L353" s="4">
         <v>407</v>
       </c>
-      <c r="M353" s="5">
-        <v>8.5660000000000007</v>
+      <c r="M353" s="7">
+        <v>8566</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
@@ -15054,11 +15068,11 @@
       <c r="G354" s="4">
         <v>517</v>
       </c>
-      <c r="H354" s="4">
-        <v>2.0139999999999998</v>
-      </c>
-      <c r="I354" s="4">
-        <v>3.0009999999999999</v>
+      <c r="H354" s="9">
+        <v>2014</v>
+      </c>
+      <c r="I354" s="9">
+        <v>3001</v>
       </c>
       <c r="J354" s="4">
         <v>507</v>
@@ -15069,8 +15083,8 @@
       <c r="L354" s="4">
         <v>226</v>
       </c>
-      <c r="M354" s="5">
-        <v>7.1459999999999999</v>
+      <c r="M354" s="7">
+        <v>7146</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
@@ -15093,11 +15107,11 @@
       <c r="G355" s="4">
         <v>592</v>
       </c>
-      <c r="H355" s="4">
-        <v>2.1320000000000001</v>
-      </c>
-      <c r="I355" s="4">
-        <v>2.944</v>
+      <c r="H355" s="9">
+        <v>2132</v>
+      </c>
+      <c r="I355" s="9">
+        <v>2944</v>
       </c>
       <c r="J355" s="4">
         <v>413</v>
@@ -15108,8 +15122,8 @@
       <c r="L355" s="4">
         <v>258</v>
       </c>
-      <c r="M355" s="5">
-        <v>7.49</v>
+      <c r="M355" s="7">
+        <v>7490</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
@@ -15134,11 +15148,11 @@
       <c r="G356" s="4">
         <v>564</v>
       </c>
-      <c r="H356" s="4">
-        <v>1.726</v>
-      </c>
-      <c r="I356" s="4">
-        <v>2.5049999999999999</v>
+      <c r="H356" s="9">
+        <v>1726</v>
+      </c>
+      <c r="I356" s="9">
+        <v>2505</v>
       </c>
       <c r="J356" s="4">
         <v>355</v>
@@ -15149,8 +15163,8 @@
       <c r="L356" s="4">
         <v>224</v>
       </c>
-      <c r="M356" s="5">
-        <v>6.2949999999999999</v>
+      <c r="M356" s="7">
+        <v>6295</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
@@ -15173,11 +15187,11 @@
       <c r="G357" s="4">
         <v>556</v>
       </c>
-      <c r="H357" s="4">
-        <v>1.895</v>
-      </c>
-      <c r="I357" s="4">
-        <v>2.1720000000000002</v>
+      <c r="H357" s="9">
+        <v>1895</v>
+      </c>
+      <c r="I357" s="9">
+        <v>2172</v>
       </c>
       <c r="J357" s="4">
         <v>274</v>
@@ -15188,8 +15202,8 @@
       <c r="L357" s="4">
         <v>243</v>
       </c>
-      <c r="M357" s="5">
-        <v>6.4080000000000004</v>
+      <c r="M357" s="7">
+        <v>6408</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
@@ -15214,11 +15228,11 @@
       <c r="G358" s="4">
         <v>512</v>
       </c>
-      <c r="H358" s="4">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="I358" s="4">
-        <v>1.839</v>
+      <c r="H358" s="9">
+        <v>1402</v>
+      </c>
+      <c r="I358" s="9">
+        <v>1839</v>
       </c>
       <c r="J358" s="4">
         <v>246</v>
@@ -15229,8 +15243,8 @@
       <c r="L358" s="4">
         <v>220</v>
       </c>
-      <c r="M358" s="5">
-        <v>5.1349999999999998</v>
+      <c r="M358" s="7">
+        <v>5135</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
@@ -15244,8 +15258,8 @@
       <c r="D359" s="4">
         <v>69</v>
       </c>
-      <c r="E359" s="4">
-        <v>1.01</v>
+      <c r="E359" s="9">
+        <v>1010</v>
       </c>
       <c r="F359" s="4">
         <v>257</v>
@@ -15253,11 +15267,11 @@
       <c r="G359" s="4">
         <v>520</v>
       </c>
-      <c r="H359" s="4">
-        <v>1.5209999999999999</v>
-      </c>
-      <c r="I359" s="4">
-        <v>1.5509999999999999</v>
+      <c r="H359" s="9">
+        <v>1521</v>
+      </c>
+      <c r="I359" s="9">
+        <v>1551</v>
       </c>
       <c r="J359" s="4">
         <v>170</v>
@@ -15268,8 +15282,8 @@
       <c r="L359" s="4">
         <v>257</v>
       </c>
-      <c r="M359" s="5">
-        <v>5.4530000000000003</v>
+      <c r="M359" s="7">
+        <v>5453</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
@@ -15294,11 +15308,11 @@
       <c r="G360" s="4">
         <v>341</v>
       </c>
-      <c r="H360" s="4">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="I360" s="4">
-        <v>1.419</v>
+      <c r="H360" s="9">
+        <v>1239</v>
+      </c>
+      <c r="I360" s="9">
+        <v>1419</v>
       </c>
       <c r="J360" s="4">
         <v>130</v>
@@ -15309,8 +15323,8 @@
       <c r="L360" s="4">
         <v>196</v>
       </c>
-      <c r="M360" s="5">
-        <v>4.181</v>
+      <c r="M360" s="7">
+        <v>4181</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
@@ -15324,8 +15338,8 @@
       <c r="D361" s="4">
         <v>114</v>
       </c>
-      <c r="E361" s="4">
-        <v>1.21</v>
+      <c r="E361" s="9">
+        <v>1210</v>
       </c>
       <c r="F361" s="4">
         <v>152</v>
@@ -15333,11 +15347,11 @@
       <c r="G361" s="4">
         <v>406</v>
       </c>
-      <c r="H361" s="4">
-        <v>1.3129999999999999</v>
-      </c>
-      <c r="I361" s="4">
-        <v>1.0720000000000001</v>
+      <c r="H361" s="9">
+        <v>1313</v>
+      </c>
+      <c r="I361" s="9">
+        <v>1072</v>
       </c>
       <c r="J361" s="4">
         <v>96</v>
@@ -15348,8 +15362,8 @@
       <c r="L361" s="4">
         <v>268</v>
       </c>
-      <c r="M361" s="5">
-        <v>4.694</v>
+      <c r="M361" s="7">
+        <v>4694</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
@@ -15377,8 +15391,8 @@
       <c r="H362" s="4">
         <v>826</v>
       </c>
-      <c r="I362" s="4">
-        <v>1.2529999999999999</v>
+      <c r="I362" s="9">
+        <v>1253</v>
       </c>
       <c r="J362" s="4">
         <v>103</v>
@@ -15389,8 +15403,8 @@
       <c r="L362" s="4">
         <v>209</v>
       </c>
-      <c r="M362" s="5">
-        <v>3.5590000000000002</v>
+      <c r="M362" s="7">
+        <v>3559</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
@@ -15404,8 +15418,8 @@
       <c r="D363" s="4">
         <v>170</v>
       </c>
-      <c r="E363" s="4">
-        <v>1.115</v>
+      <c r="E363" s="9">
+        <v>1115</v>
       </c>
       <c r="F363" s="4">
         <v>77</v>
@@ -15428,8 +15442,8 @@
       <c r="L363" s="4">
         <v>186</v>
       </c>
-      <c r="M363" s="5">
-        <v>3.758</v>
+      <c r="M363" s="7">
+        <v>3758</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
@@ -15469,8 +15483,8 @@
       <c r="L364" s="4">
         <v>125</v>
       </c>
-      <c r="M364" s="5">
-        <v>2.3660000000000001</v>
+      <c r="M364" s="7">
+        <v>2366</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
@@ -15508,8 +15522,8 @@
       <c r="L365" s="4">
         <v>137</v>
       </c>
-      <c r="M365" s="5">
-        <v>2.528</v>
+      <c r="M365" s="7">
+        <v>2528</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
@@ -15549,8 +15563,8 @@
       <c r="L366" s="4">
         <v>150</v>
       </c>
-      <c r="M366" s="5">
-        <v>2.5009999999999999</v>
+      <c r="M366" s="7">
+        <v>2501</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
@@ -15564,8 +15578,8 @@
       <c r="D367" s="4">
         <v>602</v>
       </c>
-      <c r="E367" s="4">
-        <v>1.0660000000000001</v>
+      <c r="E367" s="9">
+        <v>1066</v>
       </c>
       <c r="F367" s="4">
         <v>6</v>
@@ -15588,8 +15602,8 @@
       <c r="L367" s="4">
         <v>133</v>
       </c>
-      <c r="M367" s="5">
-        <v>2.915</v>
+      <c r="M367" s="7">
+        <v>2915</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
@@ -15600,35 +15614,35 @@
       <c r="C368" s="5">
         <v>549</v>
       </c>
-      <c r="D368" s="5">
-        <v>1.589</v>
-      </c>
-      <c r="E368" s="5">
-        <v>11.589</v>
-      </c>
-      <c r="F368" s="5">
-        <v>4.0519999999999996</v>
-      </c>
-      <c r="G368" s="5">
-        <v>10.122</v>
-      </c>
-      <c r="H368" s="5">
-        <v>39.003999999999998</v>
-      </c>
-      <c r="I368" s="5">
-        <v>47.195999999999998</v>
-      </c>
-      <c r="J368" s="5">
-        <v>7.3470000000000004</v>
-      </c>
-      <c r="K368" s="5">
-        <v>1.9410000000000001</v>
-      </c>
-      <c r="L368" s="5">
-        <v>4.88</v>
-      </c>
-      <c r="M368" s="5">
-        <v>128.26900000000001</v>
+      <c r="D368" s="7">
+        <v>1589</v>
+      </c>
+      <c r="E368" s="7">
+        <v>11589</v>
+      </c>
+      <c r="F368" s="7">
+        <v>4052</v>
+      </c>
+      <c r="G368" s="7">
+        <v>10122</v>
+      </c>
+      <c r="H368" s="7">
+        <v>39004</v>
+      </c>
+      <c r="I368" s="7">
+        <v>47196</v>
+      </c>
+      <c r="J368" s="7">
+        <v>7347</v>
+      </c>
+      <c r="K368" s="7">
+        <v>1941</v>
+      </c>
+      <c r="L368" s="7">
+        <v>4880</v>
+      </c>
+      <c r="M368" s="7">
+        <v>128269</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -15692,8 +15706,8 @@
       <c r="G370" s="4">
         <v>633</v>
       </c>
-      <c r="H370" s="4">
-        <v>1.633</v>
+      <c r="H370" s="9">
+        <v>1633</v>
       </c>
       <c r="I370" s="4">
         <v>296</v>
@@ -15707,8 +15721,8 @@
       <c r="L370" s="4">
         <v>20</v>
       </c>
-      <c r="M370" s="5">
-        <v>2.5990000000000002</v>
+      <c r="M370" s="7">
+        <v>2599</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
@@ -15731,8 +15745,8 @@
       <c r="G371" s="4">
         <v>419</v>
       </c>
-      <c r="H371" s="4">
-        <v>1.5149999999999999</v>
+      <c r="H371" s="9">
+        <v>1515</v>
       </c>
       <c r="I371" s="4">
         <v>533</v>
@@ -15746,8 +15760,8 @@
       <c r="L371" s="4">
         <v>5</v>
       </c>
-      <c r="M371" s="5">
-        <v>2.484</v>
+      <c r="M371" s="7">
+        <v>2484</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
@@ -15787,8 +15801,8 @@
       <c r="L372" s="4">
         <v>3</v>
       </c>
-      <c r="M372" s="5">
-        <v>1.8029999999999999</v>
+      <c r="M372" s="7">
+        <v>1803</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
@@ -15826,8 +15840,8 @@
       <c r="L373" s="4">
         <v>7</v>
       </c>
-      <c r="M373" s="5">
-        <v>1.7110000000000001</v>
+      <c r="M373" s="7">
+        <v>1711</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
@@ -15867,8 +15881,8 @@
       <c r="L374" s="4">
         <v>5</v>
       </c>
-      <c r="M374" s="5">
-        <v>1.6679999999999999</v>
+      <c r="M374" s="7">
+        <v>1668</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
@@ -15906,8 +15920,8 @@
       <c r="L375" s="4">
         <v>6</v>
       </c>
-      <c r="M375" s="5">
-        <v>1.5409999999999999</v>
+      <c r="M375" s="7">
+        <v>1541</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
@@ -15947,8 +15961,8 @@
       <c r="L376" s="4">
         <v>5</v>
       </c>
-      <c r="M376" s="5">
-        <v>1.7170000000000001</v>
+      <c r="M376" s="7">
+        <v>1717</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
@@ -15986,8 +16000,8 @@
       <c r="L377" s="4">
         <v>6</v>
       </c>
-      <c r="M377" s="5">
-        <v>1.669</v>
+      <c r="M377" s="7">
+        <v>1669</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
@@ -16027,8 +16041,8 @@
       <c r="L378" s="4">
         <v>6</v>
       </c>
-      <c r="M378" s="5">
-        <v>1.956</v>
+      <c r="M378" s="7">
+        <v>1956</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
@@ -16066,8 +16080,8 @@
       <c r="L379" s="4">
         <v>7</v>
       </c>
-      <c r="M379" s="5">
-        <v>1.794</v>
+      <c r="M379" s="7">
+        <v>1794</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
@@ -16107,8 +16121,8 @@
       <c r="L380" s="4">
         <v>2</v>
       </c>
-      <c r="M380" s="5">
-        <v>1.8919999999999999</v>
+      <c r="M380" s="7">
+        <v>1892</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
@@ -16146,8 +16160,8 @@
       <c r="L381" s="4">
         <v>7</v>
       </c>
-      <c r="M381" s="5">
-        <v>1.8640000000000001</v>
+      <c r="M381" s="7">
+        <v>1864</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
@@ -16187,8 +16201,8 @@
       <c r="L382" s="4">
         <v>10</v>
       </c>
-      <c r="M382" s="5">
-        <v>1.8919999999999999</v>
+      <c r="M382" s="7">
+        <v>1892</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
@@ -16202,8 +16216,8 @@
       <c r="D383" s="4">
         <v>58</v>
       </c>
-      <c r="E383" s="4">
-        <v>1.2050000000000001</v>
+      <c r="E383" s="9">
+        <v>1205</v>
       </c>
       <c r="F383" s="4">
         <v>180</v>
@@ -16226,8 +16240,8 @@
       <c r="L383" s="4">
         <v>8</v>
       </c>
-      <c r="M383" s="5">
-        <v>1.9630000000000001</v>
+      <c r="M383" s="7">
+        <v>1963</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
@@ -16267,8 +16281,8 @@
       <c r="L384" s="4">
         <v>12</v>
       </c>
-      <c r="M384" s="5">
-        <v>1.9690000000000001</v>
+      <c r="M384" s="7">
+        <v>1969</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
@@ -16282,8 +16296,8 @@
       <c r="D385" s="4">
         <v>102</v>
       </c>
-      <c r="E385" s="4">
-        <v>1.4119999999999999</v>
+      <c r="E385" s="9">
+        <v>1412</v>
       </c>
       <c r="F385" s="4">
         <v>148</v>
@@ -16306,8 +16320,8 @@
       <c r="L385" s="4">
         <v>19</v>
       </c>
-      <c r="M385" s="5">
-        <v>2.1059999999999999</v>
+      <c r="M385" s="7">
+        <v>2106</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
@@ -16347,8 +16361,8 @@
       <c r="L386" s="4">
         <v>10</v>
       </c>
-      <c r="M386" s="5">
-        <v>1.8069999999999999</v>
+      <c r="M386" s="7">
+        <v>1807</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
@@ -16362,8 +16376,8 @@
       <c r="D387" s="4">
         <v>192</v>
       </c>
-      <c r="E387" s="4">
-        <v>1.421</v>
+      <c r="E387" s="9">
+        <v>1421</v>
       </c>
       <c r="F387" s="4">
         <v>74</v>
@@ -16386,8 +16400,8 @@
       <c r="L387" s="4">
         <v>10</v>
       </c>
-      <c r="M387" s="5">
-        <v>1.988</v>
+      <c r="M387" s="7">
+        <v>1988</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
@@ -16403,8 +16417,8 @@
       <c r="D388" s="4">
         <v>28</v>
       </c>
-      <c r="E388" s="4">
-        <v>1.069</v>
+      <c r="E388" s="9">
+        <v>1069</v>
       </c>
       <c r="F388" s="4">
         <v>68</v>
@@ -16427,8 +16441,8 @@
       <c r="L388" s="4">
         <v>8</v>
       </c>
-      <c r="M388" s="5">
-        <v>1.653</v>
+      <c r="M388" s="7">
+        <v>1653</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
@@ -16442,8 +16456,8 @@
       <c r="D389" s="4">
         <v>280</v>
       </c>
-      <c r="E389" s="4">
-        <v>1.1739999999999999</v>
+      <c r="E389" s="9">
+        <v>1174</v>
       </c>
       <c r="F389" s="4">
         <v>23</v>
@@ -16466,8 +16480,8 @@
       <c r="L389" s="4">
         <v>12</v>
       </c>
-      <c r="M389" s="5">
-        <v>1.6639999999999999</v>
+      <c r="M389" s="7">
+        <v>1664</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
@@ -16507,8 +16521,8 @@
       <c r="L390" s="4">
         <v>13</v>
       </c>
-      <c r="M390" s="5">
-        <v>1.1679999999999999</v>
+      <c r="M390" s="7">
+        <v>1168</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
@@ -16546,8 +16560,8 @@
       <c r="L391" s="4">
         <v>14</v>
       </c>
-      <c r="M391" s="5">
-        <v>1.327</v>
+      <c r="M391" s="7">
+        <v>1327</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
@@ -16563,8 +16577,8 @@
       <c r="D392" s="4">
         <v>186</v>
       </c>
-      <c r="E392" s="4">
-        <v>1.3580000000000001</v>
+      <c r="E392" s="9">
+        <v>1358</v>
       </c>
       <c r="F392" s="4">
         <v>7</v>
@@ -16587,8 +16601,8 @@
       <c r="L392" s="4">
         <v>17</v>
       </c>
-      <c r="M392" s="5">
-        <v>1.7509999999999999</v>
+      <c r="M392" s="7">
+        <v>1751</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
@@ -16626,8 +16640,8 @@
       <c r="L393" s="4">
         <v>14</v>
       </c>
-      <c r="M393" s="5">
-        <v>2.1339999999999999</v>
+      <c r="M393" s="7">
+        <v>2134</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
@@ -16638,23 +16652,23 @@
       <c r="C394" s="5">
         <v>323</v>
       </c>
-      <c r="D394" s="5">
-        <v>2.444</v>
-      </c>
-      <c r="E394" s="5">
-        <v>15.981999999999999</v>
-      </c>
-      <c r="F394" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="G394" s="5">
-        <v>5.43</v>
-      </c>
-      <c r="H394" s="5">
-        <v>9.9090000000000007</v>
-      </c>
-      <c r="I394" s="5">
-        <v>6.0410000000000004</v>
+      <c r="D394" s="7">
+        <v>2444</v>
+      </c>
+      <c r="E394" s="7">
+        <v>15982</v>
+      </c>
+      <c r="F394" s="7">
+        <v>3200</v>
+      </c>
+      <c r="G394" s="7">
+        <v>5430</v>
+      </c>
+      <c r="H394" s="7">
+        <v>9909</v>
+      </c>
+      <c r="I394" s="7">
+        <v>6041</v>
       </c>
       <c r="J394" s="5">
         <v>516</v>
@@ -16665,8 +16679,8 @@
       <c r="L394" s="5">
         <v>226</v>
       </c>
-      <c r="M394" s="5">
-        <v>44.12</v>
+      <c r="M394" s="7">
+        <v>44120</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -16730,8 +16744,8 @@
       <c r="G396" s="4">
         <v>870</v>
       </c>
-      <c r="H396" s="4">
-        <v>2.379</v>
+      <c r="H396" s="9">
+        <v>2379</v>
       </c>
       <c r="I396" s="4">
         <v>529</v>
@@ -16745,8 +16759,8 @@
       <c r="L396" s="4">
         <v>30</v>
       </c>
-      <c r="M396" s="5">
-        <v>3.83</v>
+      <c r="M396" s="7">
+        <v>3830</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
@@ -16769,8 +16783,8 @@
       <c r="G397" s="4">
         <v>674</v>
       </c>
-      <c r="H397" s="4">
-        <v>2.2799999999999998</v>
+      <c r="H397" s="9">
+        <v>2280</v>
       </c>
       <c r="I397" s="4">
         <v>737</v>
@@ -16784,8 +16798,8 @@
       <c r="L397" s="4">
         <v>8</v>
       </c>
-      <c r="M397" s="5">
-        <v>3.7480000000000002</v>
+      <c r="M397" s="7">
+        <v>3748</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
@@ -16813,8 +16827,8 @@
       <c r="H398" s="4">
         <v>726</v>
       </c>
-      <c r="I398" s="4">
-        <v>1.008</v>
+      <c r="I398" s="9">
+        <v>1008</v>
       </c>
       <c r="J398" s="4">
         <v>58</v>
@@ -16825,8 +16839,8 @@
       <c r="L398" s="4">
         <v>8</v>
       </c>
-      <c r="M398" s="5">
-        <v>2.653</v>
+      <c r="M398" s="7">
+        <v>2653</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
@@ -16852,8 +16866,8 @@
       <c r="H399" s="4">
         <v>596</v>
       </c>
-      <c r="I399" s="4">
-        <v>1.238</v>
+      <c r="I399" s="9">
+        <v>1238</v>
       </c>
       <c r="J399" s="4">
         <v>92</v>
@@ -16864,8 +16878,8 @@
       <c r="L399" s="4">
         <v>14</v>
       </c>
-      <c r="M399" s="5">
-        <v>2.5990000000000002</v>
+      <c r="M399" s="7">
+        <v>2599</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
@@ -16905,8 +16919,8 @@
       <c r="L400" s="4">
         <v>10</v>
       </c>
-      <c r="M400" s="5">
-        <v>2.569</v>
+      <c r="M400" s="7">
+        <v>2569</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
@@ -16944,8 +16958,8 @@
       <c r="L401" s="4">
         <v>14</v>
       </c>
-      <c r="M401" s="5">
-        <v>2.5459999999999998</v>
+      <c r="M401" s="7">
+        <v>2546</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
@@ -16985,8 +16999,8 @@
       <c r="L402" s="4">
         <v>12</v>
       </c>
-      <c r="M402" s="5">
-        <v>2.6</v>
+      <c r="M402" s="7">
+        <v>2600</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
@@ -17024,8 +17038,8 @@
       <c r="L403" s="4">
         <v>21</v>
       </c>
-      <c r="M403" s="5">
-        <v>2.7669999999999999</v>
+      <c r="M403" s="7">
+        <v>2767</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
@@ -17065,8 +17079,8 @@
       <c r="L404" s="4">
         <v>17</v>
       </c>
-      <c r="M404" s="5">
-        <v>2.9129999999999998</v>
+      <c r="M404" s="7">
+        <v>2913</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.25">
@@ -17080,8 +17094,8 @@
       <c r="D405" s="4">
         <v>45</v>
       </c>
-      <c r="E405" s="4">
-        <v>1.04</v>
+      <c r="E405" s="9">
+        <v>1040</v>
       </c>
       <c r="F405" s="4">
         <v>233</v>
@@ -17104,8 +17118,8 @@
       <c r="L405" s="4">
         <v>10</v>
       </c>
-      <c r="M405" s="5">
-        <v>2.9740000000000002</v>
+      <c r="M405" s="7">
+        <v>2974</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.25">
@@ -17145,8 +17159,8 @@
       <c r="L406" s="4">
         <v>12</v>
       </c>
-      <c r="M406" s="5">
-        <v>2.8140000000000001</v>
+      <c r="M406" s="7">
+        <v>2814</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
@@ -17160,8 +17174,8 @@
       <c r="D407" s="4">
         <v>38</v>
       </c>
-      <c r="E407" s="4">
-        <v>1.232</v>
+      <c r="E407" s="9">
+        <v>1232</v>
       </c>
       <c r="F407" s="4">
         <v>239</v>
@@ -17184,8 +17198,8 @@
       <c r="L407" s="4">
         <v>8</v>
       </c>
-      <c r="M407" s="5">
-        <v>2.7469999999999999</v>
+      <c r="M407" s="7">
+        <v>2747</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.25">
@@ -17201,8 +17215,8 @@
       <c r="D408" s="4">
         <v>13</v>
       </c>
-      <c r="E408" s="4">
-        <v>1.036</v>
+      <c r="E408" s="9">
+        <v>1036</v>
       </c>
       <c r="F408" s="4">
         <v>327</v>
@@ -17225,8 +17239,8 @@
       <c r="L408" s="4">
         <v>13</v>
       </c>
-      <c r="M408" s="5">
-        <v>2.698</v>
+      <c r="M408" s="7">
+        <v>2698</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.25">
@@ -17240,8 +17254,8 @@
       <c r="D409" s="4">
         <v>61</v>
       </c>
-      <c r="E409" s="4">
-        <v>1.383</v>
+      <c r="E409" s="9">
+        <v>1383</v>
       </c>
       <c r="F409" s="4">
         <v>239</v>
@@ -17264,8 +17278,8 @@
       <c r="L409" s="4">
         <v>18</v>
       </c>
-      <c r="M409" s="5">
-        <v>2.5870000000000002</v>
+      <c r="M409" s="7">
+        <v>2587</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
@@ -17281,8 +17295,8 @@
       <c r="D410" s="4">
         <v>9</v>
       </c>
-      <c r="E410" s="4">
-        <v>1.0229999999999999</v>
+      <c r="E410" s="9">
+        <v>1023</v>
       </c>
       <c r="F410" s="4">
         <v>252</v>
@@ -17305,8 +17319,8 @@
       <c r="L410" s="4">
         <v>10</v>
       </c>
-      <c r="M410" s="5">
-        <v>2.3639999999999999</v>
+      <c r="M410" s="7">
+        <v>2364</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
@@ -17320,8 +17334,8 @@
       <c r="D411" s="4">
         <v>100</v>
       </c>
-      <c r="E411" s="4">
-        <v>1.2609999999999999</v>
+      <c r="E411" s="9">
+        <v>1261</v>
       </c>
       <c r="F411" s="4">
         <v>131</v>
@@ -17344,8 +17358,8 @@
       <c r="L411" s="4">
         <v>18</v>
       </c>
-      <c r="M411" s="5">
-        <v>2.101</v>
+      <c r="M411" s="7">
+        <v>2101</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.25">
@@ -17361,8 +17375,8 @@
       <c r="D412" s="4">
         <v>15</v>
       </c>
-      <c r="E412" s="4">
-        <v>1.0249999999999999</v>
+      <c r="E412" s="9">
+        <v>1025</v>
       </c>
       <c r="F412" s="4">
         <v>123</v>
@@ -17385,8 +17399,8 @@
       <c r="L412" s="4">
         <v>21</v>
       </c>
-      <c r="M412" s="5">
-        <v>2.0070000000000001</v>
+      <c r="M412" s="7">
+        <v>2007</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.25">
@@ -17400,8 +17414,8 @@
       <c r="D413" s="4">
         <v>143</v>
       </c>
-      <c r="E413" s="4">
-        <v>1.264</v>
+      <c r="E413" s="9">
+        <v>1264</v>
       </c>
       <c r="F413" s="4">
         <v>67</v>
@@ -17424,8 +17438,8 @@
       <c r="L413" s="4">
         <v>12</v>
       </c>
-      <c r="M413" s="5">
-        <v>1.867</v>
+      <c r="M413" s="7">
+        <v>1867</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
@@ -17465,8 +17479,8 @@
       <c r="L414" s="4">
         <v>12</v>
       </c>
-      <c r="M414" s="5">
-        <v>1.3720000000000001</v>
+      <c r="M414" s="7">
+        <v>1372</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
@@ -17504,8 +17518,8 @@
       <c r="L415" s="4">
         <v>7</v>
       </c>
-      <c r="M415" s="5">
-        <v>1.3939999999999999</v>
+      <c r="M415" s="7">
+        <v>1394</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
@@ -17625,8 +17639,8 @@
       <c r="L418" s="4">
         <v>5</v>
       </c>
-      <c r="M418" s="5">
-        <v>1.117</v>
+      <c r="M418" s="7">
+        <v>1117</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
@@ -17664,8 +17678,8 @@
       <c r="L419" s="4">
         <v>13</v>
       </c>
-      <c r="M419" s="5">
-        <v>1.4890000000000001</v>
+      <c r="M419" s="7">
+        <v>1489</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
@@ -17676,23 +17690,23 @@
       <c r="C420" s="5">
         <v>839</v>
       </c>
-      <c r="D420" s="5">
-        <v>1.665</v>
-      </c>
-      <c r="E420" s="5">
-        <v>15.93</v>
-      </c>
-      <c r="F420" s="5">
-        <v>4.2450000000000001</v>
-      </c>
-      <c r="G420" s="5">
-        <v>7.8339999999999996</v>
-      </c>
-      <c r="H420" s="5">
-        <v>14.144</v>
-      </c>
-      <c r="I420" s="5">
-        <v>9.6660000000000004</v>
+      <c r="D420" s="7">
+        <v>1665</v>
+      </c>
+      <c r="E420" s="7">
+        <v>15930</v>
+      </c>
+      <c r="F420" s="7">
+        <v>4245</v>
+      </c>
+      <c r="G420" s="7">
+        <v>7834</v>
+      </c>
+      <c r="H420" s="7">
+        <v>14144</v>
+      </c>
+      <c r="I420" s="7">
+        <v>9666</v>
       </c>
       <c r="J420" s="5">
         <v>856</v>
@@ -17703,8 +17717,8 @@
       <c r="L420" s="5">
         <v>302</v>
       </c>
-      <c r="M420" s="5">
-        <v>55.563000000000002</v>
+      <c r="M420" s="7">
+        <v>55563</v>
       </c>
     </row>
     <row r="421" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -17765,14 +17779,14 @@
       <c r="F422" s="4">
         <v>1</v>
       </c>
-      <c r="G422" s="4">
-        <v>3.0190000000000001</v>
-      </c>
-      <c r="H422" s="4">
-        <v>8.2240000000000002</v>
-      </c>
-      <c r="I422" s="4">
-        <v>1.4410000000000001</v>
+      <c r="G422" s="9">
+        <v>3019</v>
+      </c>
+      <c r="H422" s="9">
+        <v>8224</v>
+      </c>
+      <c r="I422" s="9">
+        <v>1441</v>
       </c>
       <c r="J422" s="4">
         <v>16</v>
@@ -17783,8 +17797,8 @@
       <c r="L422" s="4">
         <v>82</v>
       </c>
-      <c r="M422" s="5">
-        <v>12.856999999999999</v>
+      <c r="M422" s="7">
+        <v>12857</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
@@ -17804,14 +17818,14 @@
       <c r="F423" s="4">
         <v>3</v>
       </c>
-      <c r="G423" s="4">
-        <v>1.895</v>
-      </c>
-      <c r="H423" s="4">
-        <v>7.617</v>
-      </c>
-      <c r="I423" s="4">
-        <v>2.4319999999999999</v>
+      <c r="G423" s="9">
+        <v>1895</v>
+      </c>
+      <c r="H423" s="9">
+        <v>7617</v>
+      </c>
+      <c r="I423" s="9">
+        <v>2432</v>
       </c>
       <c r="J423" s="4">
         <v>21</v>
@@ -17822,8 +17836,8 @@
       <c r="L423" s="4">
         <v>28</v>
       </c>
-      <c r="M423" s="5">
-        <v>12.084</v>
+      <c r="M423" s="7">
+        <v>12084</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
@@ -17845,14 +17859,14 @@
       <c r="F424" s="4">
         <v>71</v>
       </c>
-      <c r="G424" s="4">
-        <v>2.4910000000000001</v>
-      </c>
-      <c r="H424" s="4">
-        <v>3.3159999999999998</v>
-      </c>
-      <c r="I424" s="4">
-        <v>3.14</v>
+      <c r="G424" s="9">
+        <v>2491</v>
+      </c>
+      <c r="H424" s="9">
+        <v>3316</v>
+      </c>
+      <c r="I424" s="9">
+        <v>3140</v>
       </c>
       <c r="J424" s="4">
         <v>193</v>
@@ -17863,8 +17877,8 @@
       <c r="L424" s="4">
         <v>46</v>
       </c>
-      <c r="M424" s="5">
-        <v>9.3149999999999995</v>
+      <c r="M424" s="7">
+        <v>9315</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
@@ -17884,14 +17898,14 @@
       <c r="F425" s="4">
         <v>76</v>
       </c>
-      <c r="G425" s="4">
-        <v>1.665</v>
-      </c>
-      <c r="H425" s="4">
-        <v>2.2850000000000001</v>
-      </c>
-      <c r="I425" s="4">
-        <v>3.8940000000000001</v>
+      <c r="G425" s="9">
+        <v>1665</v>
+      </c>
+      <c r="H425" s="9">
+        <v>2285</v>
+      </c>
+      <c r="I425" s="9">
+        <v>3894</v>
       </c>
       <c r="J425" s="4">
         <v>293</v>
@@ -17902,8 +17916,8 @@
       <c r="L425" s="4">
         <v>66</v>
       </c>
-      <c r="M425" s="5">
-        <v>8.48</v>
+      <c r="M425" s="7">
+        <v>8480</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
@@ -17922,17 +17936,17 @@
       <c r="E426" s="4">
         <v>56</v>
       </c>
-      <c r="F426" s="4">
-        <v>1.2689999999999999</v>
-      </c>
-      <c r="G426" s="4">
-        <v>1.22</v>
-      </c>
-      <c r="H426" s="4">
-        <v>3.6749999999999998</v>
-      </c>
-      <c r="I426" s="4">
-        <v>2.65</v>
+      <c r="F426" s="9">
+        <v>1269</v>
+      </c>
+      <c r="G426" s="9">
+        <v>1220</v>
+      </c>
+      <c r="H426" s="9">
+        <v>3675</v>
+      </c>
+      <c r="I426" s="9">
+        <v>2650</v>
       </c>
       <c r="J426" s="4">
         <v>223</v>
@@ -17943,8 +17957,8 @@
       <c r="L426" s="4">
         <v>65</v>
       </c>
-      <c r="M426" s="5">
-        <v>9.2390000000000008</v>
+      <c r="M426" s="7">
+        <v>9239</v>
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.25">
@@ -17961,17 +17975,17 @@
       <c r="E427" s="4">
         <v>173</v>
       </c>
-      <c r="F427" s="4">
-        <v>1.3160000000000001</v>
+      <c r="F427" s="9">
+        <v>1316</v>
       </c>
       <c r="G427" s="4">
         <v>848</v>
       </c>
-      <c r="H427" s="4">
-        <v>2.7389999999999999</v>
-      </c>
-      <c r="I427" s="4">
-        <v>3.2309999999999999</v>
+      <c r="H427" s="9">
+        <v>2739</v>
+      </c>
+      <c r="I427" s="9">
+        <v>3231</v>
       </c>
       <c r="J427" s="4">
         <v>323</v>
@@ -17982,8 +17996,8 @@
       <c r="L427" s="4">
         <v>141</v>
       </c>
-      <c r="M427" s="5">
-        <v>8.9540000000000006</v>
+      <c r="M427" s="7">
+        <v>8954</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.25">
@@ -18002,17 +18016,17 @@
       <c r="E428" s="4">
         <v>621</v>
       </c>
-      <c r="F428" s="4">
-        <v>1.6359999999999999</v>
-      </c>
-      <c r="G428" s="4">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="H428" s="4">
-        <v>4.3959999999999999</v>
-      </c>
-      <c r="I428" s="4">
-        <v>2.2589999999999999</v>
+      <c r="F428" s="9">
+        <v>1636</v>
+      </c>
+      <c r="G428" s="9">
+        <v>1172</v>
+      </c>
+      <c r="H428" s="9">
+        <v>4396</v>
+      </c>
+      <c r="I428" s="9">
+        <v>2259</v>
       </c>
       <c r="J428" s="4">
         <v>255</v>
@@ -18023,8 +18037,8 @@
       <c r="L428" s="4">
         <v>107</v>
       </c>
-      <c r="M428" s="5">
-        <v>10.504</v>
+      <c r="M428" s="7">
+        <v>10504</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.25">
@@ -18038,20 +18052,20 @@
       <c r="D429" s="4">
         <v>93</v>
       </c>
-      <c r="E429" s="4">
-        <v>1.3660000000000001</v>
-      </c>
-      <c r="F429" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="G429" s="4">
-        <v>1.0489999999999999</v>
-      </c>
-      <c r="H429" s="4">
-        <v>3.09</v>
-      </c>
-      <c r="I429" s="4">
-        <v>2.4340000000000002</v>
+      <c r="E429" s="9">
+        <v>1366</v>
+      </c>
+      <c r="F429" s="9">
+        <v>1300</v>
+      </c>
+      <c r="G429" s="9">
+        <v>1049</v>
+      </c>
+      <c r="H429" s="9">
+        <v>3090</v>
+      </c>
+      <c r="I429" s="9">
+        <v>2434</v>
       </c>
       <c r="J429" s="4">
         <v>253</v>
@@ -18062,8 +18076,8 @@
       <c r="L429" s="4">
         <v>193</v>
       </c>
-      <c r="M429" s="5">
-        <v>9.827</v>
+      <c r="M429" s="7">
+        <v>9827</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
@@ -18079,20 +18093,20 @@
       <c r="D430" s="4">
         <v>37</v>
       </c>
-      <c r="E430" s="4">
-        <v>1.216</v>
-      </c>
-      <c r="F430" s="4">
-        <v>1.276</v>
-      </c>
-      <c r="G430" s="4">
-        <v>1.909</v>
-      </c>
-      <c r="H430" s="4">
-        <v>4.7839999999999998</v>
-      </c>
-      <c r="I430" s="4">
-        <v>1.9830000000000001</v>
+      <c r="E430" s="9">
+        <v>1216</v>
+      </c>
+      <c r="F430" s="9">
+        <v>1276</v>
+      </c>
+      <c r="G430" s="9">
+        <v>1909</v>
+      </c>
+      <c r="H430" s="9">
+        <v>4784</v>
+      </c>
+      <c r="I430" s="9">
+        <v>1983</v>
       </c>
       <c r="J430" s="4">
         <v>272</v>
@@ -18103,8 +18117,8 @@
       <c r="L430" s="4">
         <v>110</v>
       </c>
-      <c r="M430" s="5">
-        <v>11.613</v>
+      <c r="M430" s="7">
+        <v>11613</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
@@ -18118,20 +18132,20 @@
       <c r="D431" s="4">
         <v>80</v>
       </c>
-      <c r="E431" s="4">
-        <v>2.1680000000000001</v>
-      </c>
-      <c r="F431" s="4">
-        <v>1.2130000000000001</v>
-      </c>
-      <c r="G431" s="4">
-        <v>1.593</v>
-      </c>
-      <c r="H431" s="4">
-        <v>3.1269999999999998</v>
-      </c>
-      <c r="I431" s="4">
-        <v>1.9219999999999999</v>
+      <c r="E431" s="9">
+        <v>2168</v>
+      </c>
+      <c r="F431" s="9">
+        <v>1213</v>
+      </c>
+      <c r="G431" s="9">
+        <v>1593</v>
+      </c>
+      <c r="H431" s="9">
+        <v>3127</v>
+      </c>
+      <c r="I431" s="9">
+        <v>1922</v>
       </c>
       <c r="J431" s="4">
         <v>218</v>
@@ -18142,8 +18156,8 @@
       <c r="L431" s="4">
         <v>158</v>
       </c>
-      <c r="M431" s="5">
-        <v>10.525</v>
+      <c r="M431" s="7">
+        <v>10525</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.25">
@@ -18159,20 +18173,20 @@
       <c r="D432" s="4">
         <v>29</v>
       </c>
-      <c r="E432" s="4">
-        <v>1.52</v>
-      </c>
-      <c r="F432" s="4">
-        <v>1.4410000000000001</v>
-      </c>
-      <c r="G432" s="4">
-        <v>1.6359999999999999</v>
-      </c>
-      <c r="H432" s="4">
-        <v>4.0010000000000003</v>
-      </c>
-      <c r="I432" s="4">
-        <v>1.647</v>
+      <c r="E432" s="9">
+        <v>1520</v>
+      </c>
+      <c r="F432" s="9">
+        <v>1441</v>
+      </c>
+      <c r="G432" s="9">
+        <v>1636</v>
+      </c>
+      <c r="H432" s="9">
+        <v>4001</v>
+      </c>
+      <c r="I432" s="9">
+        <v>1647</v>
       </c>
       <c r="J432" s="4">
         <v>186</v>
@@ -18183,8 +18197,8 @@
       <c r="L432" s="4">
         <v>108</v>
       </c>
-      <c r="M432" s="5">
-        <v>10.603</v>
+      <c r="M432" s="7">
+        <v>10603</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
@@ -18198,20 +18212,20 @@
       <c r="D433" s="4">
         <v>78</v>
       </c>
-      <c r="E433" s="4">
-        <v>2.3450000000000002</v>
-      </c>
-      <c r="F433" s="4">
-        <v>1.34</v>
-      </c>
-      <c r="G433" s="4">
-        <v>1.351</v>
-      </c>
-      <c r="H433" s="4">
-        <v>2.4830000000000001</v>
-      </c>
-      <c r="I433" s="4">
-        <v>1.3560000000000001</v>
+      <c r="E433" s="9">
+        <v>2345</v>
+      </c>
+      <c r="F433" s="9">
+        <v>1340</v>
+      </c>
+      <c r="G433" s="9">
+        <v>1351</v>
+      </c>
+      <c r="H433" s="9">
+        <v>2483</v>
+      </c>
+      <c r="I433" s="9">
+        <v>1356</v>
       </c>
       <c r="J433" s="4">
         <v>122</v>
@@ -18222,8 +18236,8 @@
       <c r="L433" s="4">
         <v>103</v>
       </c>
-      <c r="M433" s="5">
-        <v>9.2249999999999996</v>
+      <c r="M433" s="7">
+        <v>9225</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
@@ -18239,20 +18253,20 @@
       <c r="D434" s="4">
         <v>26</v>
       </c>
-      <c r="E434" s="4">
-        <v>1.593</v>
-      </c>
-      <c r="F434" s="4">
-        <v>1.5409999999999999</v>
-      </c>
-      <c r="G434" s="4">
-        <v>1.484</v>
-      </c>
-      <c r="H434" s="4">
-        <v>2.956</v>
-      </c>
-      <c r="I434" s="4">
-        <v>1.41</v>
+      <c r="E434" s="9">
+        <v>1593</v>
+      </c>
+      <c r="F434" s="9">
+        <v>1541</v>
+      </c>
+      <c r="G434" s="9">
+        <v>1484</v>
+      </c>
+      <c r="H434" s="9">
+        <v>2956</v>
+      </c>
+      <c r="I434" s="9">
+        <v>1410</v>
       </c>
       <c r="J434" s="4">
         <v>132</v>
@@ -18263,8 +18277,8 @@
       <c r="L434" s="4">
         <v>90</v>
       </c>
-      <c r="M434" s="5">
-        <v>9.2729999999999997</v>
+      <c r="M434" s="7">
+        <v>9273</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
@@ -18278,17 +18292,17 @@
       <c r="D435" s="4">
         <v>151</v>
       </c>
-      <c r="E435" s="4">
-        <v>2.556</v>
-      </c>
-      <c r="F435" s="4">
-        <v>1.27</v>
-      </c>
-      <c r="G435" s="4">
-        <v>1.196</v>
-      </c>
-      <c r="H435" s="4">
-        <v>1.6990000000000001</v>
+      <c r="E435" s="9">
+        <v>2556</v>
+      </c>
+      <c r="F435" s="9">
+        <v>1270</v>
+      </c>
+      <c r="G435" s="9">
+        <v>1196</v>
+      </c>
+      <c r="H435" s="9">
+        <v>1699</v>
       </c>
       <c r="I435" s="4">
         <v>834</v>
@@ -18302,8 +18316,8 @@
       <c r="L435" s="4">
         <v>87</v>
       </c>
-      <c r="M435" s="5">
-        <v>7.9089999999999998</v>
+      <c r="M435" s="7">
+        <v>7909</v>
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.25">
@@ -18319,17 +18333,17 @@
       <c r="D436" s="4">
         <v>45</v>
       </c>
-      <c r="E436" s="4">
-        <v>1.8180000000000001</v>
-      </c>
-      <c r="F436" s="4">
-        <v>1.2310000000000001</v>
-      </c>
-      <c r="G436" s="4">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="H436" s="4">
-        <v>1.9890000000000001</v>
+      <c r="E436" s="9">
+        <v>1818</v>
+      </c>
+      <c r="F436" s="9">
+        <v>1231</v>
+      </c>
+      <c r="G436" s="9">
+        <v>1148</v>
+      </c>
+      <c r="H436" s="9">
+        <v>1989</v>
       </c>
       <c r="I436" s="4">
         <v>933</v>
@@ -18343,8 +18357,8 @@
       <c r="L436" s="4">
         <v>102</v>
       </c>
-      <c r="M436" s="5">
-        <v>7.3849999999999998</v>
+      <c r="M436" s="7">
+        <v>7385</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
@@ -18358,8 +18372,8 @@
       <c r="D437" s="4">
         <v>307</v>
       </c>
-      <c r="E437" s="4">
-        <v>2.6259999999999999</v>
+      <c r="E437" s="9">
+        <v>2626</v>
       </c>
       <c r="F437" s="4">
         <v>826</v>
@@ -18367,8 +18381,8 @@
       <c r="G437" s="4">
         <v>719</v>
       </c>
-      <c r="H437" s="4">
-        <v>1.073</v>
+      <c r="H437" s="9">
+        <v>1073</v>
       </c>
       <c r="I437" s="4">
         <v>484</v>
@@ -18382,8 +18396,8 @@
       <c r="L437" s="4">
         <v>74</v>
       </c>
-      <c r="M437" s="5">
-        <v>6.202</v>
+      <c r="M437" s="7">
+        <v>6202</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.25">
@@ -18399,8 +18413,8 @@
       <c r="D438" s="4">
         <v>50</v>
       </c>
-      <c r="E438" s="4">
-        <v>1.986</v>
+      <c r="E438" s="9">
+        <v>1986</v>
       </c>
       <c r="F438" s="4">
         <v>693</v>
@@ -18408,8 +18422,8 @@
       <c r="G438" s="4">
         <v>742</v>
       </c>
-      <c r="H438" s="4">
-        <v>1.32</v>
+      <c r="H438" s="9">
+        <v>1320</v>
       </c>
       <c r="I438" s="4">
         <v>602</v>
@@ -18423,8 +18437,8 @@
       <c r="L438" s="4">
         <v>94</v>
       </c>
-      <c r="M438" s="5">
-        <v>5.5659999999999998</v>
+      <c r="M438" s="7">
+        <v>5566</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.25">
@@ -18438,8 +18452,8 @@
       <c r="D439" s="4">
         <v>586</v>
       </c>
-      <c r="E439" s="4">
-        <v>2.7389999999999999</v>
+      <c r="E439" s="9">
+        <v>2739</v>
       </c>
       <c r="F439" s="4">
         <v>407</v>
@@ -18462,8 +18476,8 @@
       <c r="L439" s="4">
         <v>82</v>
       </c>
-      <c r="M439" s="5">
-        <v>5.1929999999999996</v>
+      <c r="M439" s="7">
+        <v>5193</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.25">
@@ -18479,8 +18493,8 @@
       <c r="D440" s="4">
         <v>119</v>
       </c>
-      <c r="E440" s="4">
-        <v>1.8</v>
+      <c r="E440" s="9">
+        <v>1800</v>
       </c>
       <c r="F440" s="4">
         <v>289</v>
@@ -18503,8 +18517,8 @@
       <c r="L440" s="4">
         <v>74</v>
       </c>
-      <c r="M440" s="5">
-        <v>3.8239999999999998</v>
+      <c r="M440" s="7">
+        <v>3824</v>
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.25">
@@ -18518,8 +18532,8 @@
       <c r="D441" s="4">
         <v>893</v>
       </c>
-      <c r="E441" s="4">
-        <v>1.865</v>
+      <c r="E441" s="9">
+        <v>1865</v>
       </c>
       <c r="F441" s="4">
         <v>113</v>
@@ -18542,8 +18556,8 @@
       <c r="L441" s="4">
         <v>60</v>
       </c>
-      <c r="M441" s="5">
-        <v>3.702</v>
+      <c r="M441" s="7">
+        <v>3702</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
@@ -18559,8 +18573,8 @@
       <c r="D442" s="4">
         <v>155</v>
       </c>
-      <c r="E442" s="4">
-        <v>1.2829999999999999</v>
+      <c r="E442" s="9">
+        <v>1283</v>
       </c>
       <c r="F442" s="4">
         <v>58</v>
@@ -18583,8 +18597,8 @@
       <c r="L442" s="4">
         <v>33</v>
       </c>
-      <c r="M442" s="5">
-        <v>2.2320000000000002</v>
+      <c r="M442" s="7">
+        <v>2232</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.25">
@@ -18598,8 +18612,8 @@
       <c r="D443" s="4">
         <v>931</v>
       </c>
-      <c r="E443" s="4">
-        <v>1.0609999999999999</v>
+      <c r="E443" s="9">
+        <v>1061</v>
       </c>
       <c r="F443" s="4">
         <v>17</v>
@@ -18622,8 +18636,8 @@
       <c r="L443" s="4">
         <v>51</v>
       </c>
-      <c r="M443" s="5">
-        <v>2.4980000000000002</v>
+      <c r="M443" s="7">
+        <v>2498</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.25">
@@ -18639,8 +18653,8 @@
       <c r="D444" s="4">
         <v>508</v>
       </c>
-      <c r="E444" s="4">
-        <v>1.5920000000000001</v>
+      <c r="E444" s="9">
+        <v>1592</v>
       </c>
       <c r="F444" s="4">
         <v>23</v>
@@ -18663,8 +18677,8 @@
       <c r="L444" s="4">
         <v>54</v>
       </c>
-      <c r="M444" s="5">
-        <v>2.79</v>
+      <c r="M444" s="7">
+        <v>2790</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.25">
@@ -18672,14 +18686,14 @@
       <c r="B445" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C445" s="4">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D445" s="4">
-        <v>1.3260000000000001</v>
-      </c>
-      <c r="E445" s="4">
-        <v>1.129</v>
+      <c r="C445" s="9">
+        <v>1110</v>
+      </c>
+      <c r="D445" s="9">
+        <v>1326</v>
+      </c>
+      <c r="E445" s="9">
+        <v>1129</v>
       </c>
       <c r="F445" s="4">
         <v>6</v>
@@ -18702,8 +18716,8 @@
       <c r="L445" s="4">
         <v>67</v>
       </c>
-      <c r="M445" s="5">
-        <v>3.8410000000000002</v>
+      <c r="M445" s="7">
+        <v>3841</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
@@ -18711,38 +18725,38 @@
         <v>12</v>
       </c>
       <c r="B446" s="6"/>
-      <c r="C446" s="5">
-        <v>1.93</v>
-      </c>
-      <c r="D446" s="5">
-        <v>5.8609999999999998</v>
-      </c>
-      <c r="E446" s="5">
-        <v>31.73</v>
-      </c>
-      <c r="F446" s="5">
-        <v>17.416</v>
-      </c>
-      <c r="G446" s="5">
-        <v>26.585999999999999</v>
-      </c>
-      <c r="H446" s="5">
-        <v>60.834000000000003</v>
-      </c>
-      <c r="I446" s="5">
-        <v>34.122</v>
-      </c>
-      <c r="J446" s="5">
-        <v>2.8279999999999998</v>
+      <c r="C446" s="7">
+        <v>1930</v>
+      </c>
+      <c r="D446" s="7">
+        <v>5861</v>
+      </c>
+      <c r="E446" s="7">
+        <v>31730</v>
+      </c>
+      <c r="F446" s="7">
+        <v>17416</v>
+      </c>
+      <c r="G446" s="7">
+        <v>26586</v>
+      </c>
+      <c r="H446" s="7">
+        <v>60834</v>
+      </c>
+      <c r="I446" s="7">
+        <v>34122</v>
+      </c>
+      <c r="J446" s="7">
+        <v>2828</v>
       </c>
       <c r="K446" s="5">
         <v>259</v>
       </c>
-      <c r="L446" s="5">
-        <v>2.0750000000000002</v>
-      </c>
-      <c r="M446" s="5">
-        <v>183.64099999999999</v>
+      <c r="L446" s="7">
+        <v>2075</v>
+      </c>
+      <c r="M446" s="7">
+        <v>183641</v>
       </c>
     </row>
     <row r="447" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -18803,14 +18817,14 @@
       <c r="F448" s="4">
         <v>6</v>
       </c>
-      <c r="G448" s="4">
-        <v>3.93</v>
-      </c>
-      <c r="H448" s="4">
-        <v>13.718</v>
-      </c>
-      <c r="I448" s="4">
-        <v>2.8220000000000001</v>
+      <c r="G448" s="9">
+        <v>3930</v>
+      </c>
+      <c r="H448" s="9">
+        <v>13718</v>
+      </c>
+      <c r="I448" s="9">
+        <v>2822</v>
       </c>
       <c r="J448" s="4">
         <v>47</v>
@@ -18821,8 +18835,8 @@
       <c r="L448" s="4">
         <v>299</v>
       </c>
-      <c r="M448" s="5">
-        <v>20.995000000000001</v>
+      <c r="M448" s="7">
+        <v>20995</v>
       </c>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.25">
@@ -18842,14 +18856,14 @@
       <c r="F449" s="4">
         <v>2</v>
       </c>
-      <c r="G449" s="4">
-        <v>2.657</v>
-      </c>
-      <c r="H449" s="4">
-        <v>12.503</v>
-      </c>
-      <c r="I449" s="4">
-        <v>4.1840000000000002</v>
+      <c r="G449" s="9">
+        <v>2657</v>
+      </c>
+      <c r="H449" s="9">
+        <v>12503</v>
+      </c>
+      <c r="I449" s="9">
+        <v>4184</v>
       </c>
       <c r="J449" s="4">
         <v>65</v>
@@ -18860,8 +18874,8 @@
       <c r="L449" s="4">
         <v>249</v>
       </c>
-      <c r="M449" s="5">
-        <v>19.846</v>
+      <c r="M449" s="7">
+        <v>19846</v>
       </c>
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.25">
@@ -18883,14 +18897,14 @@
       <c r="F450" s="4">
         <v>93</v>
       </c>
-      <c r="G450" s="4">
-        <v>2.6379999999999999</v>
-      </c>
-      <c r="H450" s="4">
-        <v>5.0419999999999998</v>
-      </c>
-      <c r="I450" s="4">
-        <v>7.1970000000000001</v>
+      <c r="G450" s="9">
+        <v>2638</v>
+      </c>
+      <c r="H450" s="9">
+        <v>5042</v>
+      </c>
+      <c r="I450" s="9">
+        <v>7197</v>
       </c>
       <c r="J450" s="4">
         <v>583</v>
@@ -18901,8 +18915,8 @@
       <c r="L450" s="4">
         <v>355</v>
       </c>
-      <c r="M450" s="5">
-        <v>16.065000000000001</v>
+      <c r="M450" s="7">
+        <v>16065</v>
       </c>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.25">
@@ -18922,14 +18936,14 @@
       <c r="F451" s="4">
         <v>98</v>
       </c>
-      <c r="G451" s="4">
-        <v>1.502</v>
-      </c>
-      <c r="H451" s="4">
-        <v>3.6859999999999999</v>
-      </c>
-      <c r="I451" s="4">
-        <v>9.0150000000000006</v>
+      <c r="G451" s="9">
+        <v>1502</v>
+      </c>
+      <c r="H451" s="9">
+        <v>3686</v>
+      </c>
+      <c r="I451" s="9">
+        <v>9015</v>
       </c>
       <c r="J451" s="4">
         <v>884</v>
@@ -18940,8 +18954,8 @@
       <c r="L451" s="4">
         <v>462</v>
       </c>
-      <c r="M451" s="5">
-        <v>15.978999999999999</v>
+      <c r="M451" s="7">
+        <v>15979</v>
       </c>
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.25">
@@ -18960,17 +18974,17 @@
       <c r="E452" s="4">
         <v>143</v>
       </c>
-      <c r="F452" s="4">
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="G452" s="4">
-        <v>1.3839999999999999</v>
-      </c>
-      <c r="H452" s="4">
-        <v>5.3380000000000001</v>
-      </c>
-      <c r="I452" s="4">
-        <v>7.5860000000000003</v>
+      <c r="F452" s="9">
+        <v>1126</v>
+      </c>
+      <c r="G452" s="9">
+        <v>1384</v>
+      </c>
+      <c r="H452" s="9">
+        <v>5338</v>
+      </c>
+      <c r="I452" s="9">
+        <v>7586</v>
       </c>
       <c r="J452" s="4">
         <v>954</v>
@@ -18981,8 +18995,8 @@
       <c r="L452" s="4">
         <v>488</v>
       </c>
-      <c r="M452" s="5">
-        <v>17.167999999999999</v>
+      <c r="M452" s="7">
+        <v>17168</v>
       </c>
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.25">
@@ -18999,20 +19013,20 @@
       <c r="E453" s="4">
         <v>196</v>
       </c>
-      <c r="F453" s="4">
-        <v>1.0629999999999999</v>
+      <c r="F453" s="9">
+        <v>1063</v>
       </c>
       <c r="G453" s="4">
         <v>915</v>
       </c>
-      <c r="H453" s="4">
-        <v>4.601</v>
-      </c>
-      <c r="I453" s="4">
-        <v>9.1319999999999997</v>
-      </c>
-      <c r="J453" s="4">
-        <v>1.19</v>
+      <c r="H453" s="9">
+        <v>4601</v>
+      </c>
+      <c r="I453" s="9">
+        <v>9132</v>
+      </c>
+      <c r="J453" s="9">
+        <v>1190</v>
       </c>
       <c r="K453" s="4">
         <v>35</v>
@@ -19020,8 +19034,8 @@
       <c r="L453" s="4">
         <v>749</v>
       </c>
-      <c r="M453" s="5">
-        <v>18.116</v>
+      <c r="M453" s="7">
+        <v>18116</v>
       </c>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.25">
@@ -19040,20 +19054,20 @@
       <c r="E454" s="4">
         <v>565</v>
       </c>
-      <c r="F454" s="4">
-        <v>1.5209999999999999</v>
-      </c>
-      <c r="G454" s="4">
-        <v>1.355</v>
-      </c>
-      <c r="H454" s="4">
-        <v>6.66</v>
-      </c>
-      <c r="I454" s="4">
-        <v>7.7969999999999997</v>
-      </c>
-      <c r="J454" s="4">
-        <v>1.0840000000000001</v>
+      <c r="F454" s="9">
+        <v>1521</v>
+      </c>
+      <c r="G454" s="9">
+        <v>1355</v>
+      </c>
+      <c r="H454" s="9">
+        <v>6660</v>
+      </c>
+      <c r="I454" s="9">
+        <v>7797</v>
+      </c>
+      <c r="J454" s="9">
+        <v>1084</v>
       </c>
       <c r="K454" s="4">
         <v>95</v>
@@ -19061,8 +19075,8 @@
       <c r="L454" s="4">
         <v>537</v>
       </c>
-      <c r="M454" s="5">
-        <v>19.713000000000001</v>
+      <c r="M454" s="7">
+        <v>19713</v>
       </c>
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.25">
@@ -19076,23 +19090,23 @@
       <c r="D455" s="4">
         <v>143</v>
       </c>
-      <c r="E455" s="4">
-        <v>1.085</v>
-      </c>
-      <c r="F455" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="G455" s="4">
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="H455" s="4">
-        <v>6.1740000000000004</v>
-      </c>
-      <c r="I455" s="4">
-        <v>8.9770000000000003</v>
-      </c>
-      <c r="J455" s="4">
-        <v>1.2210000000000001</v>
+      <c r="E455" s="9">
+        <v>1085</v>
+      </c>
+      <c r="F455" s="9">
+        <v>1200</v>
+      </c>
+      <c r="G455" s="9">
+        <v>1245</v>
+      </c>
+      <c r="H455" s="9">
+        <v>6174</v>
+      </c>
+      <c r="I455" s="9">
+        <v>8977</v>
+      </c>
+      <c r="J455" s="9">
+        <v>1221</v>
       </c>
       <c r="K455" s="4">
         <v>131</v>
@@ -19100,8 +19114,8 @@
       <c r="L455" s="4">
         <v>893</v>
       </c>
-      <c r="M455" s="5">
-        <v>21.134</v>
+      <c r="M455" s="7">
+        <v>21134</v>
       </c>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.25">
@@ -19117,23 +19131,23 @@
       <c r="D456" s="4">
         <v>71</v>
       </c>
-      <c r="E456" s="4">
-        <v>1.125</v>
-      </c>
-      <c r="F456" s="4">
-        <v>1.3109999999999999</v>
-      </c>
-      <c r="G456" s="4">
-        <v>2.335</v>
-      </c>
-      <c r="H456" s="4">
-        <v>7.766</v>
-      </c>
-      <c r="I456" s="4">
-        <v>7.5469999999999997</v>
-      </c>
-      <c r="J456" s="4">
-        <v>1.129</v>
+      <c r="E456" s="9">
+        <v>1125</v>
+      </c>
+      <c r="F456" s="9">
+        <v>1311</v>
+      </c>
+      <c r="G456" s="9">
+        <v>2335</v>
+      </c>
+      <c r="H456" s="9">
+        <v>7766</v>
+      </c>
+      <c r="I456" s="9">
+        <v>7547</v>
+      </c>
+      <c r="J456" s="9">
+        <v>1129</v>
       </c>
       <c r="K456" s="4">
         <v>180</v>
@@ -19141,8 +19155,8 @@
       <c r="L456" s="4">
         <v>546</v>
       </c>
-      <c r="M456" s="5">
-        <v>22.021000000000001</v>
+      <c r="M456" s="7">
+        <v>22021</v>
       </c>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.25">
@@ -19156,23 +19170,23 @@
       <c r="D457" s="4">
         <v>161</v>
       </c>
-      <c r="E457" s="4">
-        <v>1.996</v>
-      </c>
-      <c r="F457" s="4">
-        <v>1.056</v>
-      </c>
-      <c r="G457" s="4">
-        <v>1.966</v>
-      </c>
-      <c r="H457" s="4">
-        <v>7.3680000000000003</v>
-      </c>
-      <c r="I457" s="4">
-        <v>8.3960000000000008</v>
-      </c>
-      <c r="J457" s="4">
-        <v>1.292</v>
+      <c r="E457" s="9">
+        <v>1996</v>
+      </c>
+      <c r="F457" s="9">
+        <v>1056</v>
+      </c>
+      <c r="G457" s="9">
+        <v>1966</v>
+      </c>
+      <c r="H457" s="9">
+        <v>7368</v>
+      </c>
+      <c r="I457" s="9">
+        <v>8396</v>
+      </c>
+      <c r="J457" s="9">
+        <v>1292</v>
       </c>
       <c r="K457" s="4">
         <v>165</v>
@@ -19180,8 +19194,8 @@
       <c r="L457" s="4">
         <v>648</v>
       </c>
-      <c r="M457" s="5">
-        <v>23.116</v>
+      <c r="M457" s="7">
+        <v>23116</v>
       </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.25">
@@ -19197,20 +19211,20 @@
       <c r="D458" s="4">
         <v>49</v>
       </c>
-      <c r="E458" s="4">
-        <v>1.452</v>
-      </c>
-      <c r="F458" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="G458" s="4">
-        <v>1.9870000000000001</v>
-      </c>
-      <c r="H458" s="4">
-        <v>6.7480000000000002</v>
-      </c>
-      <c r="I458" s="4">
-        <v>6.8440000000000003</v>
+      <c r="E458" s="9">
+        <v>1452</v>
+      </c>
+      <c r="F458" s="9">
+        <v>1400</v>
+      </c>
+      <c r="G458" s="9">
+        <v>1987</v>
+      </c>
+      <c r="H458" s="9">
+        <v>6748</v>
+      </c>
+      <c r="I458" s="9">
+        <v>6844</v>
       </c>
       <c r="J458" s="4">
         <v>876</v>
@@ -19221,8 +19235,8 @@
       <c r="L458" s="4">
         <v>468</v>
       </c>
-      <c r="M458" s="5">
-        <v>20.018000000000001</v>
+      <c r="M458" s="7">
+        <v>20018</v>
       </c>
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.25">
@@ -19236,20 +19250,20 @@
       <c r="D459" s="4">
         <v>145</v>
       </c>
-      <c r="E459" s="4">
-        <v>2.665</v>
-      </c>
-      <c r="F459" s="4">
-        <v>1.2809999999999999</v>
-      </c>
-      <c r="G459" s="4">
-        <v>1.998</v>
-      </c>
-      <c r="H459" s="4">
-        <v>6.8049999999999997</v>
-      </c>
-      <c r="I459" s="4">
-        <v>6.7320000000000002</v>
+      <c r="E459" s="9">
+        <v>2665</v>
+      </c>
+      <c r="F459" s="9">
+        <v>1281</v>
+      </c>
+      <c r="G459" s="9">
+        <v>1998</v>
+      </c>
+      <c r="H459" s="9">
+        <v>6805</v>
+      </c>
+      <c r="I459" s="9">
+        <v>6732</v>
       </c>
       <c r="J459" s="4">
         <v>787</v>
@@ -19260,8 +19274,8 @@
       <c r="L459" s="4">
         <v>542</v>
       </c>
-      <c r="M459" s="5">
-        <v>21.161999999999999</v>
+      <c r="M459" s="7">
+        <v>21162</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.25">
@@ -19277,20 +19291,20 @@
       <c r="D460" s="4">
         <v>61</v>
       </c>
-      <c r="E460" s="4">
-        <v>1.589</v>
-      </c>
-      <c r="F460" s="4">
-        <v>1.4790000000000001</v>
-      </c>
-      <c r="G460" s="4">
-        <v>2.0640000000000001</v>
-      </c>
-      <c r="H460" s="4">
-        <v>5.5750000000000002</v>
-      </c>
-      <c r="I460" s="4">
-        <v>5.2080000000000002</v>
+      <c r="E460" s="9">
+        <v>1589</v>
+      </c>
+      <c r="F460" s="9">
+        <v>1479</v>
+      </c>
+      <c r="G460" s="9">
+        <v>2064</v>
+      </c>
+      <c r="H460" s="9">
+        <v>5575</v>
+      </c>
+      <c r="I460" s="9">
+        <v>5208</v>
       </c>
       <c r="J460" s="4">
         <v>709</v>
@@ -19301,8 +19315,8 @@
       <c r="L460" s="4">
         <v>426</v>
       </c>
-      <c r="M460" s="5">
-        <v>17.276</v>
+      <c r="M460" s="7">
+        <v>17276</v>
       </c>
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.25">
@@ -19316,20 +19330,20 @@
       <c r="D461" s="4">
         <v>213</v>
       </c>
-      <c r="E461" s="4">
-        <v>3.113</v>
-      </c>
-      <c r="F461" s="4">
-        <v>1.393</v>
-      </c>
-      <c r="G461" s="4">
-        <v>2.0640000000000001</v>
-      </c>
-      <c r="H461" s="4">
-        <v>5.7530000000000001</v>
-      </c>
-      <c r="I461" s="4">
-        <v>4.6669999999999998</v>
+      <c r="E461" s="9">
+        <v>3113</v>
+      </c>
+      <c r="F461" s="9">
+        <v>1393</v>
+      </c>
+      <c r="G461" s="9">
+        <v>2064</v>
+      </c>
+      <c r="H461" s="9">
+        <v>5753</v>
+      </c>
+      <c r="I461" s="9">
+        <v>4667</v>
       </c>
       <c r="J461" s="4">
         <v>530</v>
@@ -19340,8 +19354,8 @@
       <c r="L461" s="4">
         <v>506</v>
       </c>
-      <c r="M461" s="5">
-        <v>18.445</v>
+      <c r="M461" s="7">
+        <v>18445</v>
       </c>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.25">
@@ -19357,20 +19371,20 @@
       <c r="D462" s="4">
         <v>54</v>
       </c>
-      <c r="E462" s="4">
-        <v>1.8380000000000001</v>
-      </c>
-      <c r="F462" s="4">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="G462" s="4">
-        <v>1.7490000000000001</v>
-      </c>
-      <c r="H462" s="4">
-        <v>4.3540000000000001</v>
-      </c>
-      <c r="I462" s="4">
-        <v>4.07</v>
+      <c r="E462" s="9">
+        <v>1838</v>
+      </c>
+      <c r="F462" s="9">
+        <v>1328</v>
+      </c>
+      <c r="G462" s="9">
+        <v>1749</v>
+      </c>
+      <c r="H462" s="9">
+        <v>4354</v>
+      </c>
+      <c r="I462" s="9">
+        <v>4070</v>
       </c>
       <c r="J462" s="4">
         <v>547</v>
@@ -19381,8 +19395,8 @@
       <c r="L462" s="4">
         <v>492</v>
       </c>
-      <c r="M462" s="5">
-        <v>14.613</v>
+      <c r="M462" s="7">
+        <v>14613</v>
       </c>
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.25">
@@ -19396,20 +19410,20 @@
       <c r="D463" s="4">
         <v>304</v>
       </c>
-      <c r="E463" s="4">
-        <v>3.7229999999999999</v>
-      </c>
-      <c r="F463" s="4">
-        <v>1.026</v>
-      </c>
-      <c r="G463" s="4">
-        <v>1.6679999999999999</v>
-      </c>
-      <c r="H463" s="4">
-        <v>4.59</v>
-      </c>
-      <c r="I463" s="4">
-        <v>3.081</v>
+      <c r="E463" s="9">
+        <v>3723</v>
+      </c>
+      <c r="F463" s="9">
+        <v>1026</v>
+      </c>
+      <c r="G463" s="9">
+        <v>1668</v>
+      </c>
+      <c r="H463" s="9">
+        <v>4590</v>
+      </c>
+      <c r="I463" s="9">
+        <v>3081</v>
       </c>
       <c r="J463" s="4">
         <v>336</v>
@@ -19420,8 +19434,8 @@
       <c r="L463" s="4">
         <v>559</v>
       </c>
-      <c r="M463" s="5">
-        <v>15.488</v>
+      <c r="M463" s="7">
+        <v>15488</v>
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.25">
@@ -19437,20 +19451,20 @@
       <c r="D464" s="4">
         <v>106</v>
       </c>
-      <c r="E464" s="4">
-        <v>2.4089999999999998</v>
+      <c r="E464" s="9">
+        <v>2409</v>
       </c>
       <c r="F464" s="4">
         <v>805</v>
       </c>
-      <c r="G464" s="4">
-        <v>1.3129999999999999</v>
-      </c>
-      <c r="H464" s="4">
-        <v>3.8570000000000002</v>
-      </c>
-      <c r="I464" s="4">
-        <v>3.2050000000000001</v>
+      <c r="G464" s="9">
+        <v>1313</v>
+      </c>
+      <c r="H464" s="9">
+        <v>3857</v>
+      </c>
+      <c r="I464" s="9">
+        <v>3205</v>
       </c>
       <c r="J464" s="4">
         <v>348</v>
@@ -19461,8 +19475,8 @@
       <c r="L464" s="4">
         <v>461</v>
       </c>
-      <c r="M464" s="5">
-        <v>12.627000000000001</v>
+      <c r="M464" s="7">
+        <v>12627</v>
       </c>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.25">
@@ -19476,20 +19490,20 @@
       <c r="D465" s="4">
         <v>483</v>
       </c>
-      <c r="E465" s="4">
-        <v>4.4640000000000004</v>
+      <c r="E465" s="9">
+        <v>4464</v>
       </c>
       <c r="F465" s="4">
         <v>558</v>
       </c>
-      <c r="G465" s="4">
-        <v>1.147</v>
-      </c>
-      <c r="H465" s="4">
-        <v>3.766</v>
-      </c>
-      <c r="I465" s="4">
-        <v>2.3439999999999999</v>
+      <c r="G465" s="9">
+        <v>1147</v>
+      </c>
+      <c r="H465" s="9">
+        <v>3766</v>
+      </c>
+      <c r="I465" s="9">
+        <v>2344</v>
       </c>
       <c r="J465" s="4">
         <v>185</v>
@@ -19500,8 +19514,8 @@
       <c r="L465" s="4">
         <v>503</v>
       </c>
-      <c r="M465" s="5">
-        <v>13.667999999999999</v>
+      <c r="M465" s="7">
+        <v>13668</v>
       </c>
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.25">
@@ -19517,20 +19531,20 @@
       <c r="D466" s="4">
         <v>109</v>
       </c>
-      <c r="E466" s="4">
-        <v>2.4</v>
+      <c r="E466" s="9">
+        <v>2400</v>
       </c>
       <c r="F466" s="4">
         <v>369</v>
       </c>
-      <c r="G466" s="4">
-        <v>1.0409999999999999</v>
-      </c>
-      <c r="H466" s="4">
-        <v>2.3250000000000002</v>
-      </c>
-      <c r="I466" s="4">
-        <v>2.9049999999999998</v>
+      <c r="G466" s="9">
+        <v>1041</v>
+      </c>
+      <c r="H466" s="9">
+        <v>2325</v>
+      </c>
+      <c r="I466" s="9">
+        <v>2905</v>
       </c>
       <c r="J466" s="4">
         <v>239</v>
@@ -19541,8 +19555,8 @@
       <c r="L466" s="4">
         <v>388</v>
       </c>
-      <c r="M466" s="5">
-        <v>9.8780000000000001</v>
+      <c r="M466" s="7">
+        <v>9878</v>
       </c>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.25">
@@ -19556,8 +19570,8 @@
       <c r="D467" s="4">
         <v>666</v>
       </c>
-      <c r="E467" s="4">
-        <v>4.3259999999999996</v>
+      <c r="E467" s="9">
+        <v>4326</v>
       </c>
       <c r="F467" s="4">
         <v>230</v>
@@ -19565,11 +19579,11 @@
       <c r="G467" s="4">
         <v>969</v>
       </c>
-      <c r="H467" s="4">
-        <v>2.4740000000000002</v>
-      </c>
-      <c r="I467" s="4">
-        <v>1.911</v>
+      <c r="H467" s="9">
+        <v>2474</v>
+      </c>
+      <c r="I467" s="9">
+        <v>1911</v>
       </c>
       <c r="J467" s="4">
         <v>129</v>
@@ -19580,8 +19594,8 @@
       <c r="L467" s="4">
         <v>358</v>
       </c>
-      <c r="M467" s="5">
-        <v>11.337999999999999</v>
+      <c r="M467" s="7">
+        <v>11338</v>
       </c>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.25">
@@ -19597,8 +19611,8 @@
       <c r="D468" s="4">
         <v>106</v>
       </c>
-      <c r="E468" s="4">
-        <v>2.028</v>
+      <c r="E468" s="9">
+        <v>2028</v>
       </c>
       <c r="F468" s="4">
         <v>115</v>
@@ -19606,11 +19620,11 @@
       <c r="G468" s="4">
         <v>628</v>
       </c>
-      <c r="H468" s="4">
-        <v>1.462</v>
-      </c>
-      <c r="I468" s="4">
-        <v>2.0840000000000001</v>
+      <c r="H468" s="9">
+        <v>1462</v>
+      </c>
+      <c r="I468" s="9">
+        <v>2084</v>
       </c>
       <c r="J468" s="4">
         <v>158</v>
@@ -19621,8 +19635,8 @@
       <c r="L468" s="4">
         <v>220</v>
       </c>
-      <c r="M468" s="5">
-        <v>6.8719999999999999</v>
+      <c r="M468" s="7">
+        <v>6872</v>
       </c>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.25">
@@ -19636,8 +19650,8 @@
       <c r="D469" s="4">
         <v>735</v>
       </c>
-      <c r="E469" s="4">
-        <v>3.395</v>
+      <c r="E469" s="9">
+        <v>3395</v>
       </c>
       <c r="F469" s="4">
         <v>76</v>
@@ -19645,11 +19659,11 @@
       <c r="G469" s="4">
         <v>685</v>
       </c>
-      <c r="H469" s="4">
-        <v>1.36</v>
-      </c>
-      <c r="I469" s="4">
-        <v>1.194</v>
+      <c r="H469" s="9">
+        <v>1360</v>
+      </c>
+      <c r="I469" s="9">
+        <v>1194</v>
       </c>
       <c r="J469" s="4">
         <v>78</v>
@@ -19660,8 +19674,8 @@
       <c r="L469" s="4">
         <v>300</v>
       </c>
-      <c r="M469" s="5">
-        <v>8.1859999999999999</v>
+      <c r="M469" s="7">
+        <v>8186</v>
       </c>
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.25">
@@ -19677,8 +19691,8 @@
       <c r="D470" s="4">
         <v>293</v>
       </c>
-      <c r="E470" s="4">
-        <v>2.8359999999999999</v>
+      <c r="E470" s="9">
+        <v>2836</v>
       </c>
       <c r="F470" s="4">
         <v>62</v>
@@ -19686,11 +19700,11 @@
       <c r="G470" s="4">
         <v>650</v>
       </c>
-      <c r="H470" s="4">
-        <v>1.341</v>
-      </c>
-      <c r="I470" s="4">
-        <v>2.12</v>
+      <c r="H470" s="9">
+        <v>1341</v>
+      </c>
+      <c r="I470" s="9">
+        <v>2120</v>
       </c>
       <c r="J470" s="4">
         <v>126</v>
@@ -19701,8 +19715,8 @@
       <c r="L470" s="4">
         <v>299</v>
       </c>
-      <c r="M470" s="5">
-        <v>7.8860000000000001</v>
+      <c r="M470" s="7">
+        <v>7886</v>
       </c>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.25">
@@ -19710,14 +19724,14 @@
       <c r="B471" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C471" s="4">
-        <v>1.014</v>
-      </c>
-      <c r="D471" s="4">
-        <v>1.7669999999999999</v>
-      </c>
-      <c r="E471" s="4">
-        <v>4.5620000000000003</v>
+      <c r="C471" s="9">
+        <v>1014</v>
+      </c>
+      <c r="D471" s="9">
+        <v>1767</v>
+      </c>
+      <c r="E471" s="9">
+        <v>4562</v>
       </c>
       <c r="F471" s="4">
         <v>40</v>
@@ -19725,8 +19739,8 @@
       <c r="G471" s="4">
         <v>786</v>
       </c>
-      <c r="H471" s="4">
-        <v>1.423</v>
+      <c r="H471" s="9">
+        <v>1423</v>
       </c>
       <c r="I471" s="4">
         <v>831</v>
@@ -19740,8 +19754,8 @@
       <c r="L471" s="4">
         <v>337</v>
       </c>
-      <c r="M471" s="5">
-        <v>10.824</v>
+      <c r="M471" s="7">
+        <v>10824</v>
       </c>
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.25">
@@ -19749,38 +19763,38 @@
         <v>12</v>
       </c>
       <c r="B472" s="6"/>
-      <c r="C472" s="5">
-        <v>2.5139999999999998</v>
-      </c>
-      <c r="D472" s="5">
-        <v>6.2270000000000003</v>
-      </c>
-      <c r="E472" s="5">
-        <v>46.320999999999998</v>
-      </c>
-      <c r="F472" s="5">
-        <v>17.638000000000002</v>
-      </c>
-      <c r="G472" s="5">
-        <v>38.676000000000002</v>
-      </c>
-      <c r="H472" s="5">
-        <v>124.68899999999999</v>
-      </c>
-      <c r="I472" s="5">
-        <v>119.849</v>
-      </c>
-      <c r="J472" s="5">
-        <v>13.538</v>
-      </c>
-      <c r="K472" s="5">
-        <v>1.897</v>
-      </c>
-      <c r="L472" s="5">
-        <v>11.085000000000001</v>
-      </c>
-      <c r="M472" s="5">
-        <v>382.43400000000003</v>
+      <c r="C472" s="7">
+        <v>2514</v>
+      </c>
+      <c r="D472" s="7">
+        <v>6227</v>
+      </c>
+      <c r="E472" s="7">
+        <v>46321</v>
+      </c>
+      <c r="F472" s="7">
+        <v>17638</v>
+      </c>
+      <c r="G472" s="7">
+        <v>38676</v>
+      </c>
+      <c r="H472" s="7">
+        <v>124689</v>
+      </c>
+      <c r="I472" s="7">
+        <v>119849</v>
+      </c>
+      <c r="J472" s="7">
+        <v>13538</v>
+      </c>
+      <c r="K472" s="7">
+        <v>1897</v>
+      </c>
+      <c r="L472" s="7">
+        <v>11085</v>
+      </c>
+      <c r="M472" s="7">
+        <v>382434</v>
       </c>
     </row>
     <row r="473" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -19841,11 +19855,11 @@
       <c r="F474" s="4">
         <v>4</v>
       </c>
-      <c r="G474" s="4">
-        <v>1.996</v>
-      </c>
-      <c r="H474" s="4">
-        <v>4.41</v>
+      <c r="G474" s="9">
+        <v>1996</v>
+      </c>
+      <c r="H474" s="9">
+        <v>4410</v>
       </c>
       <c r="I474" s="4">
         <v>760</v>
@@ -19859,8 +19873,8 @@
       <c r="L474" s="4">
         <v>53</v>
       </c>
-      <c r="M474" s="5">
-        <v>7.3010000000000002</v>
+      <c r="M474" s="7">
+        <v>7301</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
@@ -19880,14 +19894,14 @@
       <c r="F475" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G475" s="4">
-        <v>1.268</v>
-      </c>
-      <c r="H475" s="4">
-        <v>3.8730000000000002</v>
-      </c>
-      <c r="I475" s="4">
-        <v>1.339</v>
+      <c r="G475" s="9">
+        <v>1268</v>
+      </c>
+      <c r="H475" s="9">
+        <v>3873</v>
+      </c>
+      <c r="I475" s="9">
+        <v>1339</v>
       </c>
       <c r="J475" s="4">
         <v>10</v>
@@ -19898,8 +19912,8 @@
       <c r="L475" s="4">
         <v>34</v>
       </c>
-      <c r="M475" s="5">
-        <v>6.64</v>
+      <c r="M475" s="7">
+        <v>6640</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
@@ -19921,14 +19935,14 @@
       <c r="F476" s="4">
         <v>45</v>
       </c>
-      <c r="G476" s="4">
-        <v>1.4790000000000001</v>
-      </c>
-      <c r="H476" s="4">
-        <v>1.597</v>
-      </c>
-      <c r="I476" s="4">
-        <v>1.7729999999999999</v>
+      <c r="G476" s="9">
+        <v>1479</v>
+      </c>
+      <c r="H476" s="9">
+        <v>1597</v>
+      </c>
+      <c r="I476" s="9">
+        <v>1773</v>
       </c>
       <c r="J476" s="4">
         <v>85</v>
@@ -19939,8 +19953,8 @@
       <c r="L476" s="4">
         <v>57</v>
       </c>
-      <c r="M476" s="5">
-        <v>5.0890000000000004</v>
+      <c r="M476" s="7">
+        <v>5089</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
@@ -19963,11 +19977,11 @@
       <c r="G477" s="4">
         <v>943</v>
       </c>
-      <c r="H477" s="4">
-        <v>1.1850000000000001</v>
-      </c>
-      <c r="I477" s="4">
-        <v>2.1440000000000001</v>
+      <c r="H477" s="9">
+        <v>1185</v>
+      </c>
+      <c r="I477" s="9">
+        <v>2144</v>
       </c>
       <c r="J477" s="4">
         <v>129</v>
@@ -19978,8 +19992,8 @@
       <c r="L477" s="4">
         <v>73</v>
       </c>
-      <c r="M477" s="5">
-        <v>4.7060000000000004</v>
+      <c r="M477" s="7">
+        <v>4706</v>
       </c>
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.25">
@@ -20004,11 +20018,11 @@
       <c r="G478" s="4">
         <v>672</v>
       </c>
-      <c r="H478" s="4">
-        <v>1.786</v>
-      </c>
-      <c r="I478" s="4">
-        <v>1.4510000000000001</v>
+      <c r="H478" s="9">
+        <v>1786</v>
+      </c>
+      <c r="I478" s="9">
+        <v>1451</v>
       </c>
       <c r="J478" s="4">
         <v>135</v>
@@ -20019,8 +20033,8 @@
       <c r="L478" s="4">
         <v>50</v>
       </c>
-      <c r="M478" s="5">
-        <v>4.9480000000000004</v>
+      <c r="M478" s="7">
+        <v>4948</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
@@ -20043,11 +20057,11 @@
       <c r="G479" s="4">
         <v>461</v>
       </c>
-      <c r="H479" s="4">
-        <v>1.2470000000000001</v>
-      </c>
-      <c r="I479" s="4">
-        <v>1.591</v>
+      <c r="H479" s="9">
+        <v>1247</v>
+      </c>
+      <c r="I479" s="9">
+        <v>1591</v>
       </c>
       <c r="J479" s="4">
         <v>158</v>
@@ -20058,8 +20072,8 @@
       <c r="L479" s="4">
         <v>99</v>
       </c>
-      <c r="M479" s="5">
-        <v>4.5960000000000001</v>
+      <c r="M479" s="7">
+        <v>4596</v>
       </c>
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.25">
@@ -20084,11 +20098,11 @@
       <c r="G480" s="4">
         <v>543</v>
       </c>
-      <c r="H480" s="4">
-        <v>1.99</v>
-      </c>
-      <c r="I480" s="4">
-        <v>1.1879999999999999</v>
+      <c r="H480" s="9">
+        <v>1990</v>
+      </c>
+      <c r="I480" s="9">
+        <v>1188</v>
       </c>
       <c r="J480" s="4">
         <v>137</v>
@@ -20099,8 +20113,8 @@
       <c r="L480" s="4">
         <v>68</v>
       </c>
-      <c r="M480" s="5">
-        <v>5.1950000000000003</v>
+      <c r="M480" s="7">
+        <v>5195</v>
       </c>
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.25">
@@ -20123,11 +20137,11 @@
       <c r="G481" s="4">
         <v>459</v>
       </c>
-      <c r="H481" s="4">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="I481" s="4">
-        <v>1.095</v>
+      <c r="H481" s="9">
+        <v>1324</v>
+      </c>
+      <c r="I481" s="9">
+        <v>1095</v>
       </c>
       <c r="J481" s="4">
         <v>137</v>
@@ -20138,8 +20152,8 @@
       <c r="L481" s="4">
         <v>97</v>
       </c>
-      <c r="M481" s="5">
-        <v>4.7839999999999998</v>
+      <c r="M481" s="7">
+        <v>4784</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.25">
@@ -20164,8 +20178,8 @@
       <c r="G482" s="4">
         <v>921</v>
       </c>
-      <c r="H482" s="4">
-        <v>2.1</v>
+      <c r="H482" s="9">
+        <v>2100</v>
       </c>
       <c r="I482" s="4">
         <v>917</v>
@@ -20179,8 +20193,8 @@
       <c r="L482" s="4">
         <v>59</v>
       </c>
-      <c r="M482" s="5">
-        <v>5.5880000000000001</v>
+      <c r="M482" s="7">
+        <v>5588</v>
       </c>
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.25">
@@ -20194,8 +20208,8 @@
       <c r="D483" s="4">
         <v>80</v>
       </c>
-      <c r="E483" s="4">
-        <v>1.383</v>
+      <c r="E483" s="9">
+        <v>1383</v>
       </c>
       <c r="F483" s="4">
         <v>638</v>
@@ -20203,8 +20217,8 @@
       <c r="G483" s="4">
         <v>747</v>
       </c>
-      <c r="H483" s="4">
-        <v>1.286</v>
+      <c r="H483" s="9">
+        <v>1286</v>
       </c>
       <c r="I483" s="4">
         <v>786</v>
@@ -20218,8 +20232,8 @@
       <c r="L483" s="4">
         <v>84</v>
       </c>
-      <c r="M483" s="5">
-        <v>5.1390000000000002</v>
+      <c r="M483" s="7">
+        <v>5139</v>
       </c>
     </row>
     <row r="484" spans="1:13" x14ac:dyDescent="0.25">
@@ -20244,8 +20258,8 @@
       <c r="G484" s="4">
         <v>778</v>
       </c>
-      <c r="H484" s="4">
-        <v>1.8149999999999999</v>
+      <c r="H484" s="9">
+        <v>1815</v>
       </c>
       <c r="I484" s="4">
         <v>766</v>
@@ -20259,8 +20273,8 @@
       <c r="L484" s="4">
         <v>54</v>
       </c>
-      <c r="M484" s="5">
-        <v>5.2439999999999998</v>
+      <c r="M484" s="7">
+        <v>5244</v>
       </c>
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.25">
@@ -20274,8 +20288,8 @@
       <c r="D485" s="4">
         <v>81</v>
       </c>
-      <c r="E485" s="4">
-        <v>1.581</v>
+      <c r="E485" s="9">
+        <v>1581</v>
       </c>
       <c r="F485" s="4">
         <v>723</v>
@@ -20298,8 +20312,8 @@
       <c r="L485" s="4">
         <v>55</v>
       </c>
-      <c r="M485" s="5">
-        <v>4.718</v>
+      <c r="M485" s="7">
+        <v>4718</v>
       </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.25">
@@ -20315,8 +20329,8 @@
       <c r="D486" s="4">
         <v>28</v>
       </c>
-      <c r="E486" s="4">
-        <v>1.018</v>
+      <c r="E486" s="9">
+        <v>1018</v>
       </c>
       <c r="F486" s="4">
         <v>922</v>
@@ -20324,8 +20338,8 @@
       <c r="G486" s="4">
         <v>797</v>
       </c>
-      <c r="H486" s="4">
-        <v>1.4610000000000001</v>
+      <c r="H486" s="9">
+        <v>1461</v>
       </c>
       <c r="I486" s="4">
         <v>568</v>
@@ -20339,8 +20353,8 @@
       <c r="L486" s="4">
         <v>58</v>
       </c>
-      <c r="M486" s="5">
-        <v>4.9249999999999998</v>
+      <c r="M486" s="7">
+        <v>4925</v>
       </c>
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.25">
@@ -20354,8 +20368,8 @@
       <c r="D487" s="4">
         <v>124</v>
       </c>
-      <c r="E487" s="4">
-        <v>1.7090000000000001</v>
+      <c r="E487" s="9">
+        <v>1709</v>
       </c>
       <c r="F487" s="4">
         <v>676</v>
@@ -20378,8 +20392,8 @@
       <c r="L487" s="4">
         <v>68</v>
       </c>
-      <c r="M487" s="5">
-        <v>4.3079999999999998</v>
+      <c r="M487" s="7">
+        <v>4308</v>
       </c>
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.25">
@@ -20395,8 +20409,8 @@
       <c r="D488" s="4">
         <v>25</v>
       </c>
-      <c r="E488" s="4">
-        <v>1.1459999999999999</v>
+      <c r="E488" s="9">
+        <v>1146</v>
       </c>
       <c r="F488" s="4">
         <v>700</v>
@@ -20404,8 +20418,8 @@
       <c r="G488" s="4">
         <v>707</v>
       </c>
-      <c r="H488" s="4">
-        <v>1.1060000000000001</v>
+      <c r="H488" s="9">
+        <v>1106</v>
       </c>
       <c r="I488" s="4">
         <v>442</v>
@@ -20419,8 +20433,8 @@
       <c r="L488" s="4">
         <v>49</v>
       </c>
-      <c r="M488" s="5">
-        <v>4.2380000000000004</v>
+      <c r="M488" s="7">
+        <v>4238</v>
       </c>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.25">
@@ -20434,8 +20448,8 @@
       <c r="D489" s="4">
         <v>210</v>
       </c>
-      <c r="E489" s="4">
-        <v>1.8480000000000001</v>
+      <c r="E489" s="9">
+        <v>1848</v>
       </c>
       <c r="F489" s="4">
         <v>464</v>
@@ -20458,8 +20472,8 @@
       <c r="L489" s="4">
         <v>60</v>
       </c>
-      <c r="M489" s="5">
-        <v>3.7549999999999999</v>
+      <c r="M489" s="7">
+        <v>3755</v>
       </c>
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.25">
@@ -20475,8 +20489,8 @@
       <c r="D490" s="4">
         <v>51</v>
       </c>
-      <c r="E490" s="4">
-        <v>1.327</v>
+      <c r="E490" s="9">
+        <v>1327</v>
       </c>
       <c r="F490" s="4">
         <v>414</v>
@@ -20499,8 +20513,8 @@
       <c r="L490" s="4">
         <v>48</v>
       </c>
-      <c r="M490" s="5">
-        <v>3.391</v>
+      <c r="M490" s="7">
+        <v>3391</v>
       </c>
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.25">
@@ -20514,8 +20528,8 @@
       <c r="D491" s="4">
         <v>435</v>
       </c>
-      <c r="E491" s="4">
-        <v>1.952</v>
+      <c r="E491" s="9">
+        <v>1952</v>
       </c>
       <c r="F491" s="4">
         <v>231</v>
@@ -20538,8 +20552,8 @@
       <c r="L491" s="4">
         <v>59</v>
       </c>
-      <c r="M491" s="5">
-        <v>3.3380000000000001</v>
+      <c r="M491" s="7">
+        <v>3338</v>
       </c>
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.25">
@@ -20555,8 +20569,8 @@
       <c r="D492" s="4">
         <v>67</v>
       </c>
-      <c r="E492" s="4">
-        <v>1.349</v>
+      <c r="E492" s="9">
+        <v>1349</v>
       </c>
       <c r="F492" s="4">
         <v>162</v>
@@ -20579,8 +20593,8 @@
       <c r="L492" s="4">
         <v>53</v>
       </c>
-      <c r="M492" s="5">
-        <v>2.5870000000000002</v>
+      <c r="M492" s="7">
+        <v>2587</v>
       </c>
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.25">
@@ -20594,8 +20608,8 @@
       <c r="D493" s="4">
         <v>736</v>
       </c>
-      <c r="E493" s="4">
-        <v>1.5229999999999999</v>
+      <c r="E493" s="9">
+        <v>1523</v>
       </c>
       <c r="F493" s="4">
         <v>62</v>
@@ -20618,8 +20632,8 @@
       <c r="L493" s="4">
         <v>46</v>
       </c>
-      <c r="M493" s="5">
-        <v>2.7509999999999999</v>
+      <c r="M493" s="7">
+        <v>2751</v>
       </c>
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.25">
@@ -20659,8 +20673,8 @@
       <c r="L494" s="4">
         <v>20</v>
       </c>
-      <c r="M494" s="5">
-        <v>1.669</v>
+      <c r="M494" s="7">
+        <v>1669</v>
       </c>
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.25">
@@ -20698,8 +20712,8 @@
       <c r="L495" s="4">
         <v>29</v>
       </c>
-      <c r="M495" s="5">
-        <v>1.897</v>
+      <c r="M495" s="7">
+        <v>1897</v>
       </c>
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.25">
@@ -20715,8 +20729,8 @@
       <c r="D496" s="4">
         <v>453</v>
       </c>
-      <c r="E496" s="4">
-        <v>1.206</v>
+      <c r="E496" s="9">
+        <v>1206</v>
       </c>
       <c r="F496" s="4">
         <v>22</v>
@@ -20739,8 +20753,8 @@
       <c r="L496" s="4">
         <v>36</v>
       </c>
-      <c r="M496" s="5">
-        <v>2.0419999999999998</v>
+      <c r="M496" s="7">
+        <v>2042</v>
       </c>
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.25">
@@ -20751,8 +20765,8 @@
       <c r="C497" s="4">
         <v>230</v>
       </c>
-      <c r="D497" s="4">
-        <v>1.6830000000000001</v>
+      <c r="D497" s="9">
+        <v>1683</v>
       </c>
       <c r="E497" s="4">
         <v>714</v>
@@ -20778,8 +20792,8 @@
       <c r="L497" s="4">
         <v>33</v>
       </c>
-      <c r="M497" s="5">
-        <v>2.7519999999999998</v>
+      <c r="M497" s="7">
+        <v>2752</v>
       </c>
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.25">
@@ -20790,43 +20804,49 @@
       <c r="C498" s="5">
         <v>705</v>
       </c>
-      <c r="D498" s="5">
-        <v>5.4340000000000002</v>
-      </c>
-      <c r="E498" s="5">
-        <v>21.600999999999999</v>
-      </c>
-      <c r="F498" s="5">
-        <v>9.9649999999999999</v>
-      </c>
-      <c r="G498" s="5">
-        <v>14.747</v>
-      </c>
-      <c r="H498" s="5">
-        <v>29.501000000000001</v>
-      </c>
-      <c r="I498" s="5">
-        <v>16.902999999999999</v>
-      </c>
-      <c r="J498" s="5">
-        <v>1.2909999999999999</v>
+      <c r="D498" s="7">
+        <v>5434</v>
+      </c>
+      <c r="E498" s="7">
+        <v>21601</v>
+      </c>
+      <c r="F498" s="7">
+        <v>9965</v>
+      </c>
+      <c r="G498" s="7">
+        <v>14747</v>
+      </c>
+      <c r="H498" s="7">
+        <v>29501</v>
+      </c>
+      <c r="I498" s="7">
+        <v>16903</v>
+      </c>
+      <c r="J498" s="7">
+        <v>1291</v>
       </c>
       <c r="K498" s="5">
         <v>112</v>
       </c>
-      <c r="L498" s="5">
-        <v>1.3420000000000001</v>
-      </c>
-      <c r="M498" s="5">
-        <v>101.601</v>
+      <c r="L498" s="7">
+        <v>1342</v>
+      </c>
+      <c r="M498" s="7">
+        <v>101601</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A499" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A500" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A135:B135"/>
     <mergeCell ref="A473:B473"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A317:B317"/>
@@ -20843,6 +20863,10 @@
     <mergeCell ref="A291:B291"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A135:B135"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
